--- a/financial_models/opportunities/0011.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0011.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B38278C7-A205-448C-969A-3B53CC342AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66B7A76C-88D8-4C35-BBD2-8C2B2D5BFC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -831,12 +831,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Consumer Monopoly</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
     <t>6. No big MCX-D&amp;A required?</t>
   </si>
   <si>
@@ -947,6 +941,12 @@
   </si>
   <si>
     <t>C0014</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>Consumer Monopoly</t>
   </si>
   <si>
     <t>Dividend</t>
@@ -1508,7 +1508,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2143,6 +2143,7 @@
     <xf numFmtId="9" fontId="10" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3557,7 +3558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3568,29 +3569,29 @@
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
         <v>196</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
         <v>197</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
         <v>164</v>
       </c>
@@ -3598,7 +3599,7 @@
         <v>45606</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
@@ -3606,23 +3607,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
         <v>217</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="E8" s="268"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>218</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
         <v>219</v>
       </c>
@@ -3630,7 +3632,7 @@
         <v>1882267536</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
         <v>220</v>
       </c>
@@ -3638,7 +3640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
         <v>10</v>
       </c>
@@ -3646,7 +3648,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
         <v>11</v>
       </c>
@@ -3654,7 +3656,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
         <v>221</v>
       </c>
@@ -3662,15 +3664,15 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C15" s="177" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
         <v>97</v>
       </c>
@@ -3684,25 +3686,25 @@
         <v>226</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3711,16 +3713,16 @@
         <v>230</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3729,7 +3731,7 @@
         <v>232</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3860,7 +3862,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C29" s="151">
         <v>27144</v>
@@ -4127,11 +4129,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.407407407407407E-2</v>
+        <v>0.46008119911061801</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4176,7 +4178,7 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
@@ -4542,7 +4544,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4550,7 +4552,7 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C87" s="237" t="s">
         <v>264</v>
@@ -4560,11 +4562,11 @@
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="268">
+      <c r="C89" s="269">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="268"/>
+      <c r="D89" s="269"/>
       <c r="E89" s="89" t="s">
         <v>208</v>
       </c>
@@ -4578,10 +4580,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C90" s="269" t="s">
+      <c r="C90" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="269"/>
+      <c r="D90" s="270"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4630,7 +4632,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4651,7 +4653,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4669,7 +4671,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4776,7 +4778,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Y, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4812,8 +4814,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4856,17 +4858,17 @@
       <c r="B3" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="274" t="str">
+      <c r="C3" s="275" t="str">
         <f>Inputs!C4</f>
         <v>0011.HK</v>
       </c>
-      <c r="D3" s="275"/>
+      <c r="D3" s="276"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>91.8</v>
+        <v>14.779999732971191</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4876,40 +4878,40 @@
       <c r="B4" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="276" t="str">
+      <c r="C4" s="277" t="str">
         <f>Inputs!C5</f>
         <v>恒生銀行</v>
       </c>
-      <c r="D4" s="277"/>
+      <c r="D4" s="278"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="280">
+      <c r="G4" s="281">
         <f>Inputs!C10</f>
         <v>1882267536</v>
       </c>
-      <c r="H4" s="280"/>
+      <c r="H4" s="281"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="278">
+      <c r="C5" s="279">
         <f>Inputs!C6</f>
         <v>45606</v>
       </c>
-      <c r="D5" s="279"/>
+      <c r="D5" s="280"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="272">
+      <c r="G5" s="273">
         <f>G3*G4/1000000</f>
-        <v>172792.1598048</v>
-      </c>
-      <c r="H5" s="272"/>
+        <v>27819.913679460344</v>
+      </c>
+      <c r="H5" s="273"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4932,11 +4934,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="273" t="str">
+      <c r="G6" s="274" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="273"/>
+      <c r="H6" s="274"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4999,7 +5001,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5049,7 +5051,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5089,7 +5091,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5139,12 +5141,12 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>0.10908828283235786</v>
+        <v>0.67755781765479761</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5171,7 +5173,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.407407407407407E-2</v>
+        <v>0.46008119911061801</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5188,12 +5190,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="G28" s="270" t="s">
-        <v>260</v>
-      </c>
-      <c r="H28" s="270"/>
+        <v>239</v>
+      </c>
+      <c r="G28" s="271" t="s">
+        <v>258</v>
+      </c>
+      <c r="H28" s="271"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5201,22 +5203,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>62.239467713646398</v>
+        <v>288.92142281784351</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>123.04046471656656</v>
+        <v>571.16533023120201</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>73.22290319252518</v>
-      </c>
-      <c r="G29" s="271">
+        <v>339.90755625628645</v>
+      </c>
+      <c r="G29" s="272">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>106.99170844918832</v>
-      </c>
-      <c r="H29" s="271"/>
+        <v>496.66550454887135</v>
+      </c>
+      <c r="H29" s="272"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5264,7 +5266,7 @@
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5274,7 +5276,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5301,7 +5303,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -6247,12 +6249,9 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{3894A86A-E1B4-A843-BE8E-14D1CE0AE26E}">
-      <formula1>"Y, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C33:C34 C36:C37 C39:C40" xr:uid="{AFC23D6B-591E-BA4C-B3BE-727ADB8DA907}">
       <formula1>"Strongly agree,agree,unclear,disagree,Strongly disagree"</formula1>
@@ -6738,7 +6737,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6789,7 +6788,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6840,7 +6839,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6891,7 +6890,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6993,7 +6992,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7146,7 +7145,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8217,7 +8216,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8286,7 +8285,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8490,7 +8489,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -11440,11 +11439,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="281">
+      <c r="D56" s="282">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="279"/>
+      <c r="E56" s="280"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11455,11 +11454,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="280">
+      <c r="D57" s="281">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="279"/>
+      <c r="E57" s="280"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11471,11 +11470,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="280">
+      <c r="D58" s="281">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="279"/>
+      <c r="E58" s="280"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11689,19 +11688,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="268">
+      <c r="C72" s="269">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="268"/>
-      <c r="E72" s="282" t="s">
+      <c r="D72" s="269"/>
+      <c r="E72" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F72" s="282"/>
-      <c r="H72" s="282" t="s">
+      <c r="F72" s="283"/>
+      <c r="H72" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="282"/>
+      <c r="I72" s="283"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11711,18 +11710,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C73" s="269" t="s">
+      <c r="C73" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="269"/>
-      <c r="E73" s="283" t="s">
+      <c r="D73" s="270"/>
+      <c r="E73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="269"/>
-      <c r="H73" s="283" t="s">
+      <c r="F73" s="270"/>
+      <c r="H73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="269"/>
+      <c r="I73" s="270"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11799,7 +11798,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11859,7 +11858,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11922,7 +11921,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11952,7 +11951,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12089,17 +12088,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10908828283235786</v>
+        <v>0.67755781765479761</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10908828283235786</v>
+        <v>0.67755781765479761</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10908828283235786</v>
+        <v>0.67755781765479761</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12140,17 +12139,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.407407407407407E-2</v>
+        <v>0.46008119911061801</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.407407407407407E-2</v>
+        <v>0.46008119911061801</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.407407407407407E-2</v>
+        <v>0.46008119911061801</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12181,15 +12180,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="282" t="s">
+      <c r="E92" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F92" s="282"/>
+      <c r="F92" s="283"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="282" t="s">
+      <c r="H92" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I92" s="282"/>
+      <c r="I92" s="283"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12210,14 +12209,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>254.62874930542586</v>
+        <v>2015.8784271929071</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>254.62874930542586</v>
+        <v>2015.8784271929071</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12235,14 +12234,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>147.27741262590217</v>
+        <v>683.67550636164219</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>212</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>147.27741262590217</v>
+        <v>683.67550636164219</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12268,7 +12267,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12285,21 +12284,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>238286.58158206212</v>
+        <v>1886498.6008498054</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>126.59549029275833</v>
+        <v>1002.2478551900209</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>126.59549029275833</v>
+        <v>1002.2478551900209</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>184.9785681506211</v>
+        <v>1464.4626973389609</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12348,27 +12347,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>238286.58158206212</v>
+        <v>1886498.6008498054</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>107.60616674884457</v>
+        <v>851.91067691151773</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>126.59549029275833</v>
+        <v>1002.2478551900209</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>126.59549029275833</v>
+        <v>1002.2478551900209</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>126.59549029275833</v>
+        <v>1002.2478551900209</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>184.9785681506211</v>
+        <v>1464.4626973389609</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12392,7 +12391,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12409,27 +12408,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>137825.09357096092</v>
+        <v>639796.95838230161</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>62.239467713646398</v>
+        <v>288.92142281784351</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>73.22290319252518</v>
+        <v>339.90755625628645</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>73.22290319252518</v>
+        <v>339.90755625628645</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>73.22290319252518</v>
+        <v>339.90755625628645</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>106.99170844918832</v>
+        <v>496.66550454887135</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12453,7 +12452,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12470,27 +12469,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>188055.83757651155</v>
+        <v>1263147.7796160537</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>84.922817231245489</v>
+        <v>570.41604986468064</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>99.909196742641754</v>
+        <v>671.07770572315371</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>99.909196742641754</v>
+        <v>671.07770572315371</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>99.909196742641754</v>
+        <v>671.07770572315371</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>145.98513829990472</v>
+        <v>980.56410094391617</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0011.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0011.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66B7A76C-88D8-4C35-BBD2-8C2B2D5BFC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31864D44-F9BE-4DEF-BEA8-9EEFCA3CC442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,9 +625,6 @@
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
-    <t>Normalized E/P</t>
-  </si>
-  <si>
     <t>US Riskfree</t>
   </si>
   <si>
@@ -931,6 +928,10 @@
   </si>
   <si>
     <t>Base Case Valuation</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized PE Ratio</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1508,7 +1509,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2144,6 +2145,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3558,7 +3562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3572,12 +3576,12 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="189" t="s">
         <v>259</v>
@@ -3585,7 +3589,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="192" t="s">
         <v>260</v>
@@ -3609,7 +3613,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>46</v>
@@ -3618,7 +3622,7 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="193" t="s">
         <v>261</v>
@@ -3626,7 +3630,7 @@
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="194">
         <v>1882267536</v>
@@ -3634,7 +3638,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="193" t="s">
         <v>2</v>
@@ -3658,7 +3662,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3666,10 +3670,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3683,7 +3687,7 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="243" t="s">
         <v>262</v>
@@ -3692,7 +3696,7 @@
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="243" t="s">
         <v>262</v>
@@ -3701,7 +3705,7 @@
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C19" s="243" t="s">
         <v>262</v>
@@ -3710,7 +3714,7 @@
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="243" t="s">
         <v>262</v>
@@ -3719,7 +3723,7 @@
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="243" t="s">
         <v>262</v>
@@ -3728,7 +3732,7 @@
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="244" t="s">
         <v>263</v>
@@ -3862,7 +3866,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C29" s="151">
         <v>27144</v>
@@ -4110,7 +4114,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C44" s="251">
         <f>3.2+1.2*3</f>
@@ -4129,11 +4133,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.46008119911061801</v>
+        <v>7.3553272038939965E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4178,13 +4182,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>36</v>
@@ -4526,7 +4530,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4544,7 +4548,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4552,7 +4556,7 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C87" s="237" t="s">
         <v>264</v>
@@ -4562,16 +4566,16 @@
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="269">
+      <c r="C89" s="270">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="269"/>
+      <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4580,10 +4584,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C90" s="270" t="s">
+      <c r="C90" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="270"/>
+      <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4632,7 +4636,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4653,7 +4657,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4671,7 +4675,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4728,7 +4732,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4815,7 +4819,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4856,19 +4860,19 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="275" t="str">
+        <v>195</v>
+      </c>
+      <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
         <v>0011.HK</v>
       </c>
-      <c r="D3" s="276"/>
+      <c r="D3" s="277"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.779999732971191</v>
+        <v>92.45</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4876,42 +4880,42 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="277" t="str">
+        <v>196</v>
+      </c>
+      <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
         <v>恒生銀行</v>
       </c>
-      <c r="D4" s="278"/>
+      <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="281">
+      <c r="G4" s="282">
         <f>Inputs!C10</f>
         <v>1882267536</v>
       </c>
-      <c r="H4" s="281"/>
+      <c r="H4" s="282"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="279">
+      <c r="C5" s="280">
         <f>Inputs!C6</f>
         <v>45606</v>
       </c>
-      <c r="D5" s="280"/>
+      <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="273">
+      <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>27819.913679460344</v>
-      </c>
-      <c r="H5" s="273"/>
+        <v>174015.6337032</v>
+      </c>
+      <c r="H5" s="274"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4934,16 +4938,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="274" t="str">
+      <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="274"/>
+      <c r="H6" s="275"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -4968,40 +4972,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5014,29 +5018,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5046,12 +5050,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5061,7 +5065,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>52</v>
@@ -5069,7 +5073,7 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
@@ -5083,7 +5087,7 @@
         <v>4.1966617135767562E-2</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5091,7 +5095,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5102,14 +5106,14 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5121,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G23" s="178" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5137,16 +5141,16 @@
         <v>0.39159225009737869</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="179">
-        <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>0.67755781765479761</v>
+        <v>258</v>
+      </c>
+      <c r="G24" s="269">
+        <f>G3/(Fin_Analysis!H86*G7)</f>
+        <v>9.2317945050929477</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5169,11 +5173,11 @@
         <v>0.35546835552606143</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>0.46008119911061801</v>
+        <v>7.3553272038939965E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5190,12 +5194,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="G28" s="271" t="s">
-        <v>258</v>
-      </c>
-      <c r="H28" s="271"/>
+        <v>238</v>
+      </c>
+      <c r="G28" s="272" t="s">
+        <v>257</v>
+      </c>
+      <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5203,42 +5207,42 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>288.92142281784351</v>
+        <v>62.08871916221689</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>571.16533023120201</v>
+        <v>122.74245169517356</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>339.90755625628645</v>
-      </c>
-      <c r="G29" s="272">
+        <v>73.045551955549286</v>
+      </c>
+      <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>496.66550454887135</v>
-      </c>
-      <c r="H29" s="272"/>
+        <v>106.73256669145528</v>
+      </c>
+      <c r="H29" s="273"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5248,7 +5252,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="226" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5259,14 +5263,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5276,7 +5280,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5286,14 +5290,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5303,7 +5307,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5318,14 +5322,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6310,16 +6314,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>205</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>206</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6337,7 +6341,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6370,7 +6374,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6737,7 +6741,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6788,7 +6792,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6839,7 +6843,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6890,7 +6894,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6992,7 +6996,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7145,7 +7149,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8216,7 +8220,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8285,7 +8289,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8489,7 +8493,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10387,7 +10391,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>35</v>
@@ -11439,11 +11443,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="282">
+      <c r="D56" s="283">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="280"/>
+      <c r="E56" s="281"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11454,11 +11458,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="281">
+      <c r="D57" s="282">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="280"/>
+      <c r="E57" s="281"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11470,11 +11474,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="281">
+      <c r="D58" s="282">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="280"/>
+      <c r="E58" s="281"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11688,19 +11692,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="269">
+      <c r="C72" s="270">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="269"/>
-      <c r="E72" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F72" s="283"/>
-      <c r="H72" s="283" t="s">
+      <c r="D72" s="270"/>
+      <c r="E72" s="284" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="283"/>
+      <c r="F72" s="284"/>
+      <c r="H72" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11710,18 +11714,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C73" s="270" t="s">
+      <c r="C73" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="270"/>
-      <c r="E73" s="284" t="s">
+      <c r="D73" s="271"/>
+      <c r="E73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="270"/>
-      <c r="H73" s="284" t="s">
+      <c r="F73" s="271"/>
+      <c r="H73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="270"/>
+      <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11798,7 +11802,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11858,7 +11862,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11921,7 +11925,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11951,7 +11955,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12084,28 +12088,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.67755781765479761</v>
+        <v>0.10832130193629476</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.67755781765479761</v>
+        <v>0.10832130193629476</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.67755781765479761</v>
+        <v>0.10832130193629476</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12135,21 +12139,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.46008119911061801</v>
+        <v>7.3553272038939965E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.46008119911061801</v>
+        <v>7.3553272038939965E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.46008119911061801</v>
+        <v>7.3553272038939965E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12180,15 +12184,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F92" s="283"/>
+      <c r="E92" s="284" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" s="284"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="283" t="s">
-        <v>207</v>
-      </c>
-      <c r="I92" s="283"/>
+      <c r="H92" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I92" s="284"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12205,24 +12209,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>2015.8784271929071</v>
+        <v>253.74953406976684</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>2015.8784271929071</v>
+        <v>253.74953406976684</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12230,18 +12234,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>683.67550636164219</v>
+        <v>146.92069594069869</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>683.67550636164219</v>
+        <v>146.92069594069869</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12260,14 +12264,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12284,21 +12288,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1886498.6008498054</v>
+        <v>237463.79470685049</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1002.2478551900209</v>
+        <v>126.15836493226885</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>1002.2478551900209</v>
+        <v>126.15836493226885</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>1464.4626973389609</v>
+        <v>184.33985011178197</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12347,27 +12351,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>1886498.6008498054</v>
+        <v>237463.79470685049</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>851.91067691151773</v>
+        <v>107.23461019242852</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>1002.2478551900209</v>
+        <v>126.15836493226885</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1002.2478551900209</v>
+        <v>126.15836493226885</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1002.2478551900209</v>
+        <v>126.15836493226885</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>1464.4626973389609</v>
+        <v>184.33985011178197</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12384,14 +12388,14 @@
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12408,27 +12412,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>639796.95838230161</v>
+        <v>137491.27109513176</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>288.92142281784351</v>
+        <v>62.08871916221689</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>339.90755625628645</v>
+        <v>73.045551955549286</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>339.90755625628645</v>
+        <v>73.045551955549286</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>339.90755625628645</v>
+        <v>73.045551955549286</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>496.66550454887135</v>
+        <v>106.73256669145528</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12438,21 +12442,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12465,31 +12469,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>1263147.7796160537</v>
+        <v>187477.53290099112</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>570.41604986468064</v>
+        <v>84.661664677322705</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>671.07770572315371</v>
+        <v>99.601958443909069</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>671.07770572315371</v>
+        <v>99.601958443909069</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>671.07770572315371</v>
+        <v>99.601958443909069</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>980.56410094391617</v>
+        <v>145.53620840161864</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0011.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0011.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31864D44-F9BE-4DEF-BEA8-9EEFCA3CC442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DCCEC48-729F-41E7-A53D-B5E7E82107C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="266">
   <si>
     <t>Company Info:</t>
   </si>
@@ -951,6 +951,10 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>HKD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4137,7 +4141,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.3553272038939965E-2</v>
+        <v>7.1129707112970716E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4872,10 +4876,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>92.45</v>
+        <v>95.6</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>2</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4913,7 +4917,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>174015.6337032</v>
+        <v>179944.77644159997</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5145,7 +5149,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.2317945050929477</v>
+        <v>9.5463445612426785</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5177,7 +5181,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.3553272038939965E-2</v>
+        <v>7.1129707112970716E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5207,20 +5211,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>62.08871916221689</v>
+        <v>61.391044563730539</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>122.74245169517356</v>
+        <v>121.36322706533498</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>73.045551955549286</v>
+        <v>72.224758310271227</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>106.73256669145528</v>
+        <v>105.53324092637826</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12092,17 +12096,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10832130193629476</v>
+        <v>0.10475213769885409</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10832130193629476</v>
+        <v>0.10475213769885409</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10832130193629476</v>
+        <v>0.10475213769885409</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12143,17 +12147,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3553272038939965E-2</v>
+        <v>7.1129707112970716E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3553272038939965E-2</v>
+        <v>7.1129707112970716E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3553272038939965E-2</v>
+        <v>7.1129707112970716E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12213,14 +12217,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>253.74953406976684</v>
+        <v>249.68997403067806</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>253.74953406976684</v>
+        <v>249.68997403067806</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12238,14 +12242,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>146.92069594069869</v>
+        <v>145.26978674281435</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>146.92069594069869</v>
+        <v>145.26978674281435</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12288,21 +12292,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>237463.79470685049</v>
+        <v>233664.77873917087</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>126.15836493226885</v>
+        <v>124.1400461252873</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>126.15836493226885</v>
+        <v>124.1400461252873</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>184.33985011178197</v>
+        <v>181.39072670996461</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12351,27 +12355,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>237463.79470685049</v>
+        <v>233664.77873917087</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>107.23461019242852</v>
+        <v>105.5190392064942</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>126.15836493226885</v>
+        <v>124.1400461252873</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>126.15836493226885</v>
+        <v>124.1400461252873</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>126.15836493226885</v>
+        <v>124.1400461252873</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>184.33985011178197</v>
+        <v>181.39072670996461</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12412,27 +12416,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>137491.27109513176</v>
+        <v>135946.31786286976</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>62.08871916221689</v>
+        <v>61.391044563730539</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>73.045551955549286</v>
+        <v>72.224758310271227</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>73.045551955549286</v>
+        <v>72.224758310271227</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>73.045551955549286</v>
+        <v>72.224758310271227</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>106.73256669145528</v>
+        <v>105.53324092637826</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12473,27 +12477,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>187477.53290099112</v>
+        <v>184805.54830102032</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>84.661664677322705</v>
+        <v>83.455041885112365</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>99.601958443909069</v>
+        <v>98.18240221777927</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>99.601958443909069</v>
+        <v>98.18240221777927</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>99.601958443909069</v>
+        <v>98.18240221777927</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>145.53620840161864</v>
+        <v>143.46198381817143</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0011.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0011.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DCCEC48-729F-41E7-A53D-B5E7E82107C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2D4F73D-CBF3-4668-8C87-EA43D095A604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.1129707112970716E-2</v>
+        <v>7.1092524830109763E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4786,7 +4786,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4876,7 +4876,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>95.6</v>
+        <v>95.65</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>265</v>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>179944.77644159997</v>
+        <v>180038.88981840003</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5149,7 +5149,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.5463445612426785</v>
+        <v>9.5513374192768019</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.1129707112970716E-2</v>
+        <v>7.1092524830109763E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5211,20 +5211,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>61.391044563730539</v>
+        <v>61.380389921730291</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>121.36322706533498</v>
+        <v>121.34216403007365</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>72.224758310271227</v>
+        <v>72.212223437329754</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>105.53324092637826</v>
+        <v>105.51492524354231</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12096,17 +12096,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10475213769885409</v>
+        <v>0.10469737965510142</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10475213769885409</v>
+        <v>0.10469737965510142</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10475213769885409</v>
+        <v>0.10469737965510142</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12147,17 +12147,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1129707112970716E-2</v>
+        <v>7.1092524830109763E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1129707112970716E-2</v>
+        <v>7.1092524830109763E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1129707112970716E-2</v>
+        <v>7.1092524830109763E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12217,14 +12217,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>249.68997403067806</v>
+        <v>249.62809961224502</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>249.68997403067806</v>
+        <v>249.62809961224502</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12242,14 +12242,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>145.26978674281435</v>
+        <v>145.24457463602911</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>145.26978674281435</v>
+        <v>145.24457463602911</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12292,21 +12292,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>233664.77873917087</v>
+        <v>233606.87544389881</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>124.1400461252873</v>
+        <v>124.10928360393228</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>124.1400461252873</v>
+        <v>124.10928360393228</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>181.39072670996461</v>
+        <v>181.3457771849871</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12355,27 +12355,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>233664.77873917087</v>
+        <v>233606.87544389881</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>105.5190392064942</v>
+        <v>105.49289106334244</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>124.1400461252873</v>
+        <v>124.10928360393228</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>124.1400461252873</v>
+        <v>124.10928360393228</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>124.1400461252873</v>
+        <v>124.10928360393227</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>181.39072670996461</v>
+        <v>181.3457771849871</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12416,27 +12416,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>135946.31786286976</v>
+        <v>135922.72387846414</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>61.391044563730539</v>
+        <v>61.380389921730291</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>72.224758310271227</v>
+        <v>72.212223437329754</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>72.224758310271227</v>
+        <v>72.212223437329754</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>72.224758310271227</v>
+        <v>72.212223437329754</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>105.53324092637826</v>
+        <v>105.51492524354231</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12477,27 +12477,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>184805.54830102032</v>
+        <v>184764.79966118149</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>83.455041885112365</v>
+        <v>83.43664049253637</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>98.18240221777927</v>
+        <v>98.160753520631019</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>98.18240221777927</v>
+        <v>98.160753520631019</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>98.18240221777927</v>
+        <v>98.160753520631005</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>143.46198381817143</v>
+        <v>143.4303512142647</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0011.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0011.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2D4F73D-CBF3-4668-8C87-EA43D095A604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0B45D9C-667B-4FF4-B0FB-A4DE0191A320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.1092524830109763E-2</v>
+        <v>7.0796460176991149E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4876,7 +4876,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>95.65</v>
+        <v>96.05</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>265</v>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>180038.88981840003</v>
+        <v>180791.7968328</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5149,7 +5149,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.5513374192768019</v>
+        <v>9.5912802835497839</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.1092524830109763E-2</v>
+        <v>7.0796460176991149E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5211,20 +5211,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>61.380389921730291</v>
+        <v>61.295604901227591</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>121.34216403007365</v>
+        <v>121.17455352974527</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>72.212223437329754</v>
+        <v>72.112476354385407</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>105.51492524354231</v>
+        <v>105.3691769823872</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12096,17 +12096,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10469737965510142</v>
+        <v>0.1042613676627845</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10469737965510142</v>
+        <v>0.1042613676627845</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10469737965510142</v>
+        <v>0.1042613676627845</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12147,17 +12147,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1092524830109763E-2</v>
+        <v>7.0796460176991149E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1092524830109763E-2</v>
+        <v>7.0796460176991149E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1092524830109763E-2</v>
+        <v>7.0796460176991149E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12217,14 +12217,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>249.62809961224502</v>
+        <v>249.13586090338779</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>249.62809961224502</v>
+        <v>249.13586090338779</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12242,14 +12242,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>145.24457463602911</v>
+        <v>145.04394762381685</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>145.24457463602911</v>
+        <v>145.04394762381685</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12292,21 +12292,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>233606.87544389881</v>
+        <v>233146.22879823955</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>124.10928360393228</v>
+        <v>123.8645539696752</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>124.10928360393228</v>
+        <v>123.8645539696752</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>181.3457771849871</v>
+        <v>180.98818358331764</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12355,27 +12355,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>233606.87544389881</v>
+        <v>233146.22879823955</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>105.49289106334244</v>
+        <v>105.28487087422391</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>124.10928360393228</v>
+        <v>123.8645539696752</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>124.10928360393228</v>
+        <v>123.8645539696752</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>124.10928360393227</v>
+        <v>123.8645539696752</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>181.3457771849871</v>
+        <v>180.98818358331764</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12416,27 +12416,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>135922.72387846414</v>
+        <v>135734.97318242729</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>61.380389921730291</v>
+        <v>61.295604901227591</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>72.212223437329754</v>
+        <v>72.112476354385407</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>72.212223437329754</v>
+        <v>72.112476354385407</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>72.212223437329754</v>
+        <v>72.112476354385407</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>105.51492524354231</v>
+        <v>105.3691769823872</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12477,27 +12477,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>184764.79966118149</v>
+        <v>184440.60099033339</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>83.43664049253637</v>
+        <v>83.290237887725752</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>98.160753520631019</v>
+        <v>97.988515162030296</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>98.160753520631019</v>
+        <v>97.988515162030296</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>98.160753520631005</v>
+        <v>97.988515162030296</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>143.4303512142647</v>
+        <v>143.17868028285241</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0011.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0011.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0B45D9C-667B-4FF4-B0FB-A4DE0191A320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4385BAB0-AC73-4FC7-AB20-8D20268FBD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/financial_models/opportunities/0011.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0011.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4385BAB0-AC73-4FC7-AB20-8D20268FBD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E890F04-B041-471D-B07B-C1852B6F3DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4578,7 +4578,7 @@
       <c r="E89" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="89" t="s">
         <v>206</v>
       </c>
       <c r="H89" s="31"/>

--- a/financial_models/opportunities/0011.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0011.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E890F04-B041-471D-B07B-C1852B6F3DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B630B3F0-961A-4850-B912-1C203D5053AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5015,7 +5015,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="173">
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5062,7 +5062,7 @@
         <v>254</v>
       </c>
       <c r="C17" s="176">
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
@@ -5211,20 +5211,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>61.295604901227591</v>
+        <v>62.721084084977086</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>121.17455352974527</v>
+        <v>124.8686290942088</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>72.112476354385407</v>
+        <v>73.789510688208338</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>105.3691769823872</v>
+        <v>108.58141660365983</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12206,7 +12206,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="D93" s="240">
         <f>Inputs!C86</f>
@@ -12217,14 +12217,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>249.13586090338779</v>
+        <v>254.92971813369917</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>249.13586090338779</v>
+        <v>254.92971813369917</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12242,14 +12242,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>145.04394762381685</v>
+        <v>148.41706268483586</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>145.04394762381685</v>
+        <v>148.41706268483586</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12292,21 +12292,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>233146.22879823955</v>
+        <v>238568.23411912887</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>123.8645539696752</v>
+        <v>126.7451249922258</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>123.8645539696752</v>
+        <v>126.7451249922258</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>180.98818358331764</v>
+        <v>186.50571186756792</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12355,27 +12355,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>233146.22879823955</v>
+        <v>238568.23411912887</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>105.28487087422391</v>
+        <v>107.73335624339192</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>123.8645539696752</v>
+        <v>126.7451249922258</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>123.8645539696752</v>
+        <v>126.7451249922258</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>123.8645539696752</v>
+        <v>126.7451249922258</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>180.98818358331764</v>
+        <v>186.50571186756792</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12416,27 +12416,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>135734.97318242729</v>
+        <v>138891.60046573955</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>61.295604901227591</v>
+        <v>62.721084084977086</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>72.112476354385407</v>
+        <v>73.789510688208338</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>72.112476354385407</v>
+        <v>73.789510688208338</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>72.112476354385407</v>
+        <v>73.789510688208338</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>105.3691769823872</v>
+        <v>108.58141660365983</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12477,27 +12477,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>184440.60099033339</v>
+        <v>188729.9172924342</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>83.290237887725752</v>
+        <v>85.227220164184502</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>97.988515162030296</v>
+        <v>100.26731784021706</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>97.988515162030296</v>
+        <v>100.26731784021706</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>97.988515162030296</v>
+        <v>100.26731784021706</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>143.17868028285241</v>
+        <v>147.54356423561387</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0011.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0011.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B630B3F0-961A-4850-B912-1C203D5053AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B69CF200-912A-4CD2-B7D3-055A496036FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -961,7 +961,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -974,6 +974,7 @@
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1513,7 +1514,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1813,9 +1814,6 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2150,6 +2148,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3587,7 +3591,7 @@
       <c r="B4" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="188" t="s">
         <v>259</v>
       </c>
     </row>
@@ -3595,7 +3599,7 @@
       <c r="B5" s="141" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>260</v>
       </c>
     </row>
@@ -3603,7 +3607,7 @@
       <c r="B6" s="141" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="190">
+      <c r="C6" s="189">
         <v>45606</v>
       </c>
     </row>
@@ -3611,7 +3615,7 @@
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="191">
+      <c r="C7" s="190">
         <v>8</v>
       </c>
     </row>
@@ -3619,16 +3623,16 @@
       <c r="B8" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="191" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="268"/>
+      <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="C9" s="193" t="s">
+      <c r="C9" s="192" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3636,7 +3640,7 @@
       <c r="B10" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="C10" s="194">
+      <c r="C10" s="193">
         <v>1882267536</v>
       </c>
     </row>
@@ -3644,101 +3648,101 @@
       <c r="B11" s="140" t="s">
         <v>219</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="192" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="220">
+      <c r="C12" s="219">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="218" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="221">
+      <c r="C13" s="220">
         <v>1000000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="218" t="s">
         <v>220</v>
       </c>
-      <c r="C14" s="220">
+      <c r="C14" s="219">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="219" t="s">
+      <c r="B15" s="218" t="s">
         <v>255</v>
       </c>
-      <c r="C15" s="177" t="s">
+      <c r="C15" s="176" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="222" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="224">
+      <c r="C16" s="223">
         <v>0.23499999999999999</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="240" t="s">
         <v>225</v>
       </c>
-      <c r="C17" s="243" t="s">
+      <c r="C17" s="242" t="s">
         <v>262</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="C18" s="243" t="s">
+      <c r="C18" s="242" t="s">
         <v>262</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="240" t="s">
         <v>240</v>
       </c>
-      <c r="C19" s="243" t="s">
+      <c r="C19" s="242" t="s">
         <v>262</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="242" t="s">
+      <c r="B20" s="241" t="s">
         <v>229</v>
       </c>
-      <c r="C20" s="243" t="s">
+      <c r="C20" s="242" t="s">
         <v>262</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="224" t="s">
         <v>232</v>
       </c>
-      <c r="C21" s="243" t="s">
+      <c r="C21" s="242" t="s">
         <v>262</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="226" t="s">
         <v>231</v>
       </c>
-      <c r="C22" s="244" t="s">
+      <c r="C22" s="243" t="s">
         <v>263</v>
       </c>
       <c r="D22" s="24"/>
@@ -3796,390 +3800,390 @@
       <c r="B25" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="150">
+      <c r="C25" s="149">
         <v>69317</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="149">
         <v>43948</v>
       </c>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="151">
+      <c r="C26" s="150">
         <v>2909</v>
       </c>
-      <c r="D26" s="151">
+      <c r="D26" s="150">
         <v>2280</v>
       </c>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="151">
+      <c r="C27" s="150">
         <v>14624</v>
       </c>
-      <c r="D27" s="151">
+      <c r="D27" s="150">
         <v>13795</v>
       </c>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="C29" s="151">
+      <c r="C29" s="150">
         <v>27144</v>
       </c>
-      <c r="D29" s="151">
+      <c r="D29" s="150">
         <v>9231</v>
       </c>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="151">
+      <c r="C30" s="150">
         <v>-10</v>
       </c>
-      <c r="D30" s="151">
+      <c r="D30" s="150">
         <v>-14</v>
       </c>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="151"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="151"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
+      <c r="C34" s="217"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
+      <c r="C35" s="217"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>149</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
+      <c r="C37" s="217"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
+      <c r="C38" s="217"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="218"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
+      <c r="C39" s="217"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="218"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
+      <c r="C40" s="217"/>
+      <c r="D40" s="150"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C41" s="218"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
+      <c r="C41" s="217"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>139</v>
       </c>
-      <c r="C42" s="218"/>
-      <c r="D42" s="151"/>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
+      <c r="C42" s="217"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="150"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C43" s="218"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
+      <c r="C43" s="217"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>208</v>
       </c>
-      <c r="C44" s="251">
+      <c r="C44" s="250">
         <f>3.2+1.2*3</f>
         <v>6.8</v>
       </c>
-      <c r="D44" s="251"/>
-      <c r="E44" s="251"/>
-      <c r="F44" s="251"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="251"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="251"/>
-      <c r="L44" s="251"/>
-      <c r="M44" s="251"/>
+      <c r="D44" s="250"/>
+      <c r="E44" s="250"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="250"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="250"/>
+      <c r="K44" s="250"/>
+      <c r="L44" s="250"/>
+      <c r="M44" s="250"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>252</v>
       </c>
-      <c r="C45" s="153">
+      <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.0796460176991149E-2</v>
-      </c>
-      <c r="D45" s="153" t="str">
+        <v>7.1654373024236037E-2</v>
+      </c>
+      <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
@@ -4188,10 +4192,10 @@
       <c r="B47" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C47" s="195" t="s">
+      <c r="C47" s="194" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -4290,7 +4294,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="222" t="s">
+      <c r="E56" s="221" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4302,7 +4306,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="222" t="s">
+      <c r="E57" s="221" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4322,7 +4326,7 @@
         <v>51</v>
       </c>
       <c r="C59" s="120"/>
-      <c r="D59" s="196">
+      <c r="D59" s="195">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -4390,7 +4394,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="222" t="s">
+      <c r="E65" s="221" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4402,7 +4406,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="222" t="s">
+      <c r="E66" s="221" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4415,7 +4419,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="222" t="s">
+      <c r="E67" s="221" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4463,14 +4467,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="247" t="s">
+      <c r="B72" s="246" t="s">
         <v>76</v>
       </c>
-      <c r="C72" s="248"/>
-      <c r="D72" s="249">
-        <v>0</v>
-      </c>
-      <c r="E72" s="250"/>
+      <c r="C72" s="247"/>
+      <c r="D72" s="248">
+        <v>0</v>
+      </c>
+      <c r="E72" s="249"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -4554,7 +4558,7 @@
       <c r="B86" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C86" s="198">
+      <c r="C86" s="197">
         <v>5</v>
       </c>
     </row>
@@ -4562,19 +4566,20 @@
       <c r="B87" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C87" s="237" t="s">
+      <c r="C87" s="236" t="s">
         <v>264</v>
       </c>
+      <c r="D87" s="269"/>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="270">
+      <c r="C89" s="271">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="270"/>
+      <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
         <v>207</v>
       </c>
@@ -4588,14 +4593,14 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C90" s="271" t="s">
+      <c r="C90" s="272" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="271"/>
-      <c r="E90" s="236" t="s">
+      <c r="D90" s="272"/>
+      <c r="E90" s="235" t="s">
         <v>102</v>
       </c>
-      <c r="F90" s="256" t="s">
+      <c r="F90" s="255" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4607,12 +4612,12 @@
         <f>C25</f>
         <v>69317</v>
       </c>
-      <c r="D91" s="210"/>
-      <c r="E91" s="252">
+      <c r="D91" s="209"/>
+      <c r="E91" s="251">
         <f>C91</f>
         <v>69317</v>
       </c>
-      <c r="F91" s="252">
+      <c r="F91" s="251">
         <f>C91</f>
         <v>69317</v>
       </c>
@@ -4625,15 +4630,15 @@
         <f>C26</f>
         <v>2909</v>
       </c>
-      <c r="D92" s="160">
+      <c r="D92" s="159">
         <f>C92/C91</f>
         <v>4.1966617135767562E-2</v>
       </c>
-      <c r="E92" s="253">
+      <c r="E92" s="252">
         <f>E91*D92</f>
         <v>2909</v>
       </c>
-      <c r="F92" s="253">
+      <c r="F92" s="252">
         <f>F91*D92</f>
         <v>2909</v>
       </c>
@@ -4646,15 +4651,15 @@
         <f>C27+C28</f>
         <v>14624</v>
       </c>
-      <c r="D93" s="160">
+      <c r="D93" s="159">
         <f>C93/C91</f>
         <v>0.2109727772407923</v>
       </c>
-      <c r="E93" s="253">
+      <c r="E93" s="252">
         <f>E91*D93</f>
         <v>14624</v>
       </c>
-      <c r="F93" s="253">
+      <c r="F93" s="252">
         <f>F91*D93</f>
         <v>14624</v>
       </c>
@@ -4667,12 +4672,12 @@
         <f>C29</f>
         <v>27144</v>
       </c>
-      <c r="D94" s="160">
+      <c r="D94" s="159">
         <f>C94/C91</f>
         <v>0.39159225009737869</v>
       </c>
-      <c r="E94" s="254"/>
-      <c r="F94" s="253">
+      <c r="E94" s="253"/>
+      <c r="F94" s="252">
         <f>F91*D94</f>
         <v>27144</v>
       </c>
@@ -4685,15 +4690,15 @@
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="160">
+      <c r="D95" s="159">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="253">
+      <c r="E95" s="252">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="253">
+      <c r="F95" s="252">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -4706,12 +4711,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="160">
+      <c r="D96" s="159">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="254"/>
-      <c r="F96" s="253">
+      <c r="E96" s="253"/>
+      <c r="F96" s="252">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4724,12 +4729,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="160">
+      <c r="D97" s="159">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="254"/>
-      <c r="F97" s="253">
+      <c r="E97" s="253"/>
+      <c r="F97" s="252">
         <f>F91*D97</f>
         <v>0</v>
       </c>
@@ -4738,16 +4743,16 @@
       <c r="B98" s="86" t="s">
         <v>208</v>
       </c>
-      <c r="C98" s="238">
+      <c r="C98" s="237">
         <f>C44</f>
         <v>6.8</v>
       </c>
-      <c r="D98" s="267"/>
-      <c r="E98" s="255">
+      <c r="D98" s="266"/>
+      <c r="E98" s="254">
         <f>F98</f>
         <v>6.8</v>
       </c>
-      <c r="F98" s="255">
+      <c r="F98" s="254">
         <f>C98</f>
         <v>6.8</v>
       </c>
@@ -4866,17 +4871,17 @@
       <c r="B3" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="276" t="str">
+      <c r="C3" s="277" t="str">
         <f>Inputs!C4</f>
         <v>0011.HK</v>
       </c>
-      <c r="D3" s="277"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>96.05</v>
+        <v>94.9</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>265</v>
@@ -4886,40 +4891,40 @@
       <c r="B4" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="278" t="str">
+      <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
         <v>恒生銀行</v>
       </c>
-      <c r="D4" s="279"/>
+      <c r="D4" s="280"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="282">
+      <c r="G4" s="283">
         <f>Inputs!C10</f>
         <v>1882267536</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="280">
+      <c r="C5" s="281">
         <f>Inputs!C6</f>
         <v>45606</v>
       </c>
-      <c r="D5" s="281"/>
+      <c r="D5" s="282"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="274">
+      <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>180791.7968328</v>
-      </c>
-      <c r="H5" s="274"/>
+        <v>178627.18916640003</v>
+      </c>
+      <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4927,11 +4932,11 @@
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="186">
+      <c r="C6" s="185">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="187">
+      <c r="D6" s="186">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4942,22 +4947,22 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="275" t="str">
+      <c r="G6" s="276" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="275"/>
+      <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C7" s="188" t="str">
+      <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
         <v>Y</v>
       </c>
-      <c r="D7" s="188" t="str">
+      <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
         <v>C0014</v>
       </c>
@@ -4986,7 +4991,7 @@
       <c r="B10" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="172">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4997,7 +5002,7 @@
       <c r="B11" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="173">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
@@ -5011,11 +5016,11 @@
       <c r="B12" s="87" t="s">
         <v>253</v>
       </c>
-      <c r="C12" s="175">
+      <c r="C12" s="174">
         <v>0.06</v>
       </c>
-      <c r="D12" s="173">
-        <v>6.4500000000000002E-2</v>
+      <c r="D12" s="172">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5024,7 +5029,7 @@
       <c r="B14" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="172">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -5035,7 +5040,7 @@
       <c r="B15" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -5046,10 +5051,10 @@
       <c r="B16" s="122" t="s">
         <v>188</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="173">
         <v>0.16</v>
       </c>
-      <c r="D16" s="266" t="str">
+      <c r="D16" s="265" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
@@ -5061,10 +5066,10 @@
       <c r="B17" s="87" t="s">
         <v>254</v>
       </c>
-      <c r="C17" s="176">
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D17" s="177"/>
+      <c r="C17" s="175">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5086,14 +5091,14 @@
       <c r="B20" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C20" s="172">
+      <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>4.1966617135767562E-2</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="G20" s="173">
+      <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
@@ -5101,7 +5106,7 @@
       <c r="B21" s="137" t="s">
         <v>245</v>
       </c>
-      <c r="C21" s="172">
+      <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
         <v>0.2109727772407923</v>
       </c>
@@ -5112,7 +5117,7 @@
       <c r="B22" s="137" t="s">
         <v>192</v>
       </c>
-      <c r="C22" s="172">
+      <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
@@ -5124,14 +5129,14 @@
       <c r="B23" s="137" t="s">
         <v>172</v>
       </c>
-      <c r="C23" s="172">
+      <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
         <v>189</v>
       </c>
-      <c r="G23" s="178" t="e">
+      <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5140,30 +5145,30 @@
       <c r="B24" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="C24" s="172">
+      <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>0.39159225009737869</v>
       </c>
       <c r="F24" s="140" t="s">
         <v>258</v>
       </c>
-      <c r="G24" s="269">
+      <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.5912802835497839</v>
+        <v>9.4764445487649613</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="C25" s="172">
+      <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>175</v>
       </c>
-      <c r="G25" s="172">
+      <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
         <v>0.67902869264069265</v>
       </c>
@@ -5172,16 +5177,16 @@
       <c r="B26" s="138" t="s">
         <v>174</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.35546835552606143</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="G26" s="179">
+      <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.0796460176991149E-2</v>
+        <v>7.1654373024236037E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5200,10 +5205,10 @@
       <c r="F28" s="53" t="s">
         <v>238</v>
       </c>
-      <c r="G28" s="272" t="s">
+      <c r="G28" s="273" t="s">
         <v>257</v>
       </c>
-      <c r="H28" s="272"/>
+      <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5211,22 +5216,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>62.721084084977086</v>
+        <v>61.541546215830181</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>124.8686290942088</v>
+        <v>121.66075199437435</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>73.789510688208338</v>
-      </c>
-      <c r="G29" s="273">
+        <v>72.401819077447271</v>
+      </c>
+      <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>108.58141660365983</v>
-      </c>
-      <c r="H29" s="273"/>
+        <v>105.7919582559777</v>
+      </c>
+      <c r="H29" s="274"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5238,17 +5243,17 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="197" t="s">
+      <c r="B32" s="196" t="s">
         <v>224</v>
       </c>
-      <c r="C32" s="225"/>
+      <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="C33" s="246" t="str">
+      <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
         <v>agree</v>
       </c>
@@ -5258,7 +5263,7 @@
       <c r="B34" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="C34" s="226" t="e">
+      <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -5266,17 +5271,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="196" t="s">
         <v>227</v>
       </c>
-      <c r="C35" s="225"/>
+      <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C36" s="246" t="str">
+      <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
         <v>agree</v>
       </c>
@@ -5286,24 +5291,24 @@
       <c r="B37" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="C37" s="246" t="str">
+      <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="196" t="s">
         <v>228</v>
       </c>
-      <c r="C38" s="225"/>
+      <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="C39" s="246" t="str">
+      <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -5313,7 +5318,7 @@
       <c r="B40" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C40" s="246" t="str">
+      <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
         <v>agree</v>
       </c>
@@ -5332,10 +5337,10 @@
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="227" t="s">
+      <c r="B43" s="226" t="s">
         <v>231</v>
       </c>
-      <c r="C43" s="245" t="str">
+      <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -6317,16 +6322,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="148" t="s">
         <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="148" t="s">
         <v>204</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>205</v>
       </c>
       <c r="I2" s="7"/>
@@ -6340,11 +6345,11 @@
       <c r="B3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="202">
+      <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="146" t="s">
         <v>201</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -6377,7 +6382,7 @@
         <f>Dashboard!G6</f>
         <v>HKD</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="146" t="s">
         <v>202</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -6441,47 +6446,47 @@
       <c r="B6" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="201">
+      <c r="C6" s="200">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>69317</v>
       </c>
-      <c r="D6" s="201">
+      <c r="D6" s="200">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>43948</v>
       </c>
-      <c r="E6" s="201" t="str">
+      <c r="E6" s="200" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="201" t="str">
+      <c r="F6" s="200" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="201" t="str">
+      <c r="G6" s="200" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="201" t="str">
+      <c r="H6" s="200" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="201" t="str">
+      <c r="I6" s="200" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="201" t="str">
+      <c r="J6" s="200" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="201" t="str">
+      <c r="K6" s="200" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="201" t="str">
+      <c r="L6" s="200" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="201" t="str">
+      <c r="M6" s="200" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -6543,47 +6548,47 @@
       <c r="B8" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="200">
+      <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>2909</v>
       </c>
-      <c r="D8" s="200">
+      <c r="D8" s="199">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>2280</v>
       </c>
-      <c r="E8" s="200" t="str">
+      <c r="E8" s="199" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="200" t="str">
+      <c r="F8" s="199" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="200" t="str">
+      <c r="G8" s="199" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="200" t="str">
+      <c r="H8" s="199" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="200" t="str">
+      <c r="I8" s="199" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="200" t="str">
+      <c r="J8" s="199" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="200" t="str">
+      <c r="K8" s="199" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="200" t="str">
+      <c r="L8" s="199" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="200" t="str">
+      <c r="M8" s="199" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6594,47 +6599,47 @@
       <c r="B9" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="152">
+      <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>66408</v>
       </c>
-      <c r="D9" s="152">
+      <c r="D9" s="151">
         <f t="shared" si="2"/>
         <v>41668</v>
       </c>
-      <c r="E9" s="152" t="str">
+      <c r="E9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="152" t="str">
+      <c r="F9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="152" t="str">
+      <c r="G9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="152" t="str">
+      <c r="H9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="152" t="str">
+      <c r="I9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="152" t="str">
+      <c r="J9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="152" t="str">
+      <c r="K9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="152" t="str">
+      <c r="L9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="152" t="str">
+      <c r="M9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6645,47 +6650,47 @@
       <c r="B10" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="200">
+      <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>14624</v>
       </c>
-      <c r="D10" s="200">
+      <c r="D10" s="199">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>13795</v>
       </c>
-      <c r="E10" s="200" t="str">
+      <c r="E10" s="199" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="200" t="str">
+      <c r="F10" s="199" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="200" t="str">
+      <c r="G10" s="199" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="200" t="str">
+      <c r="H10" s="199" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="200" t="str">
+      <c r="I10" s="199" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="200" t="str">
+      <c r="J10" s="199" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="200" t="str">
+      <c r="K10" s="199" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="200" t="str">
+      <c r="L10" s="199" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="200" t="str">
+      <c r="M10" s="199" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6696,47 +6701,47 @@
       <c r="B11" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="200" t="str">
+      <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="200" t="str">
+      <c r="D11" s="199" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="200" t="str">
+      <c r="E11" s="199" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="200" t="str">
+      <c r="F11" s="199" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="200" t="str">
+      <c r="G11" s="199" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="200" t="str">
+      <c r="H11" s="199" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="200" t="str">
+      <c r="I11" s="199" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="200" t="str">
+      <c r="J11" s="199" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="200" t="str">
+      <c r="K11" s="199" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="200" t="str">
+      <c r="L11" s="199" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="200" t="str">
+      <c r="M11" s="199" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6747,47 +6752,47 @@
       <c r="B12" s="99" t="s">
         <v>241</v>
       </c>
-      <c r="C12" s="200">
+      <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="D12" s="200">
+      <c r="D12" s="199">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="E12" s="200" t="str">
+      <c r="E12" s="199" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="200" t="str">
+      <c r="F12" s="199" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="200" t="str">
+      <c r="G12" s="199" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="200" t="str">
+      <c r="H12" s="199" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="200" t="str">
+      <c r="I12" s="199" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="200" t="str">
+      <c r="J12" s="199" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="200" t="str">
+      <c r="K12" s="199" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="200" t="str">
+      <c r="L12" s="199" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="200" t="str">
+      <c r="M12" s="199" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6795,50 +6800,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="228" t="s">
         <v>242</v>
       </c>
-      <c r="C13" s="230">
+      <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.74706060562344012</v>
       </c>
-      <c r="D13" s="230">
+      <c r="D13" s="229">
         <f t="shared" si="3"/>
         <v>0.63422681350687171</v>
       </c>
-      <c r="E13" s="230" t="str">
+      <c r="E13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="230" t="str">
+      <c r="F13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="230" t="str">
+      <c r="G13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="230" t="str">
+      <c r="H13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="230" t="str">
+      <c r="I13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="230" t="str">
+      <c r="J13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="230" t="str">
+      <c r="K13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="230" t="str">
+      <c r="L13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="230" t="str">
+      <c r="M13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6846,50 +6851,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="228" t="s">
         <v>234</v>
       </c>
-      <c r="C14" s="231">
+      <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>51784</v>
       </c>
-      <c r="D14" s="231">
+      <c r="D14" s="230">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>27873</v>
       </c>
-      <c r="E14" s="231" t="str">
+      <c r="E14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="231" t="str">
+      <c r="F14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="231" t="str">
+      <c r="G14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="231" t="str">
+      <c r="H14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="231" t="str">
+      <c r="I14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="231" t="str">
+      <c r="J14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="231" t="str">
+      <c r="K14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="231" t="str">
+      <c r="L14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="231" t="str">
+      <c r="M14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6897,50 +6902,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="231" t="s">
         <v>243</v>
       </c>
-      <c r="C15" s="233">
+      <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.85785527212714818</v>
       </c>
-      <c r="D15" s="233" t="str">
+      <c r="D15" s="232" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="233" t="str">
+      <c r="E15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="233" t="str">
+      <c r="F15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="233" t="str">
+      <c r="G15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="233" t="str">
+      <c r="H15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="233" t="str">
+      <c r="I15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="233" t="str">
+      <c r="J15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="233" t="str">
+      <c r="K15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="233" t="str">
+      <c r="L15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="233" t="str">
+      <c r="M15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6951,47 +6956,47 @@
       <c r="B16" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="200" t="str">
+      <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="200" t="str">
+      <c r="D16" s="199" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="200" t="str">
+      <c r="E16" s="199" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="200" t="str">
+      <c r="F16" s="199" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="200" t="str">
+      <c r="G16" s="199" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="200" t="str">
+      <c r="H16" s="199" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="200" t="str">
+      <c r="I16" s="199" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="200" t="str">
+      <c r="J16" s="199" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="200" t="str">
+      <c r="K16" s="199" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="200" t="str">
+      <c r="L16" s="199" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="200" t="str">
+      <c r="M16" s="199" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -7002,47 +7007,47 @@
       <c r="B17" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="C17" s="200">
+      <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>27144</v>
       </c>
-      <c r="D17" s="200">
+      <c r="D17" s="199">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>9231</v>
       </c>
-      <c r="E17" s="200" t="str">
+      <c r="E17" s="199" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="200" t="str">
+      <c r="F17" s="199" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="200" t="str">
+      <c r="G17" s="199" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="200" t="str">
+      <c r="H17" s="199" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="200" t="str">
+      <c r="I17" s="199" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="200" t="str">
+      <c r="J17" s="199" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="200" t="str">
+      <c r="K17" s="199" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="200" t="str">
+      <c r="L17" s="199" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="200" t="str">
+      <c r="M17" s="199" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -7053,47 +7058,47 @@
       <c r="B18" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="153" t="str">
+      <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="153" t="str">
+      <c r="D18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="153" t="str">
+      <c r="E18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="153" t="str">
+      <c r="F18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="153" t="str">
+      <c r="G18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="153" t="str">
+      <c r="H18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="153" t="str">
+      <c r="I18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="153" t="str">
+      <c r="J18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="153" t="str">
+      <c r="K18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="153" t="str">
+      <c r="L18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="153" t="str">
+      <c r="M18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -7104,47 +7109,47 @@
       <c r="B19" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="200" t="str">
+      <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="200" t="str">
+      <c r="D19" s="199" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="200" t="str">
+      <c r="E19" s="199" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="200" t="str">
+      <c r="F19" s="199" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="200" t="str">
+      <c r="G19" s="199" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="200" t="str">
+      <c r="H19" s="199" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="200" t="str">
+      <c r="I19" s="199" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="200" t="str">
+      <c r="J19" s="199" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="200" t="str">
+      <c r="K19" s="199" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="200" t="str">
+      <c r="L19" s="199" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="200" t="str">
+      <c r="M19" s="199" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -7155,47 +7160,47 @@
       <c r="B20" s="97" t="s">
         <v>236</v>
       </c>
-      <c r="C20" s="153">
+      <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="153" t="str">
+      <c r="E20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="153" t="str">
+      <c r="F20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="153" t="str">
+      <c r="G20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="153" t="str">
+      <c r="H20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="153" t="str">
+      <c r="I20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="153" t="str">
+      <c r="J20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="153" t="str">
+      <c r="K20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="153" t="str">
+      <c r="L20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="153" t="str">
+      <c r="M20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7206,47 +7211,47 @@
       <c r="B21" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="200" t="str">
+      <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="200" t="str">
+      <c r="D21" s="199" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="200" t="str">
+      <c r="E21" s="199" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="200" t="str">
+      <c r="F21" s="199" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="200" t="str">
+      <c r="G21" s="199" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="200" t="str">
+      <c r="H21" s="199" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="200" t="str">
+      <c r="I21" s="199" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="200" t="str">
+      <c r="J21" s="199" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="200" t="str">
+      <c r="K21" s="199" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="200" t="str">
+      <c r="L21" s="199" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="200" t="str">
+      <c r="M21" s="199" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -7257,47 +7262,47 @@
       <c r="B22" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>24640</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="161">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>18642</v>
       </c>
-      <c r="E22" s="162" t="str">
+      <c r="E22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="162" t="str">
+      <c r="F22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="162" t="str">
+      <c r="G22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="162" t="str">
+      <c r="H22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="162" t="str">
+      <c r="I22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="162" t="str">
+      <c r="J22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="162" t="str">
+      <c r="K22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="162" t="str">
+      <c r="L22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="162" t="str">
+      <c r="M22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7308,47 +7313,47 @@
       <c r="B23" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="154">
+      <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.27193329197743699</v>
       </c>
-      <c r="D23" s="154">
+      <c r="D23" s="153">
         <f t="shared" si="9"/>
         <v>0.32450009101665606</v>
       </c>
-      <c r="E23" s="154" t="str">
+      <c r="E23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="154" t="str">
+      <c r="F23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="154" t="str">
+      <c r="G23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="154" t="str">
+      <c r="H23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="154" t="str">
+      <c r="I23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="154" t="str">
+      <c r="J23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="154" t="str">
+      <c r="K23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="154" t="str">
+      <c r="L23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="154" t="str">
+      <c r="M23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7359,7 +7364,7 @@
       <c r="B24" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="155">
+      <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>18849.599999999999</v>
       </c>
@@ -7407,50 +7412,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="234" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="234">
+      <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.3217465937131207</v>
       </c>
-      <c r="D25" s="234" t="str">
+      <c r="D25" s="233" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="234" t="str">
+      <c r="E25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="234" t="str">
+      <c r="F25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="234" t="str">
+      <c r="G25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="234" t="str">
+      <c r="H25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="234" t="str">
+      <c r="I25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="234" t="str">
+      <c r="J25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="234" t="str">
+      <c r="K25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="234" t="str">
+      <c r="L25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="234" t="str">
+      <c r="M25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7567,43 +7572,43 @@
         <f>Fin_Analysis!C28</f>
         <v>0</v>
       </c>
-      <c r="D28" s="200" t="str">
+      <c r="D28" s="199" t="str">
         <f>IF(Inputs!D34="","",Inputs!D34)</f>
         <v/>
       </c>
-      <c r="E28" s="200" t="str">
+      <c r="E28" s="199" t="str">
         <f>IF(Inputs!E34="","",Inputs!E34)</f>
         <v/>
       </c>
-      <c r="F28" s="200" t="str">
+      <c r="F28" s="199" t="str">
         <f>IF(Inputs!F34="","",Inputs!F34)</f>
         <v/>
       </c>
-      <c r="G28" s="200" t="str">
+      <c r="G28" s="199" t="str">
         <f>IF(Inputs!G34="","",Inputs!G34)</f>
         <v/>
       </c>
-      <c r="H28" s="200" t="str">
+      <c r="H28" s="199" t="str">
         <f>IF(Inputs!H34="","",Inputs!H34)</f>
         <v/>
       </c>
-      <c r="I28" s="200" t="str">
+      <c r="I28" s="199" t="str">
         <f>IF(Inputs!I34="","",Inputs!I34)</f>
         <v/>
       </c>
-      <c r="J28" s="200" t="str">
+      <c r="J28" s="199" t="str">
         <f>IF(Inputs!J34="","",Inputs!J34)</f>
         <v/>
       </c>
-      <c r="K28" s="200" t="str">
+      <c r="K28" s="199" t="str">
         <f>IF(Inputs!K34="","",Inputs!K34)</f>
         <v/>
       </c>
-      <c r="L28" s="200" t="str">
+      <c r="L28" s="199" t="str">
         <f>IF(Inputs!L34="","",Inputs!L34)</f>
         <v/>
       </c>
-      <c r="M28" s="200" t="str">
+      <c r="M28" s="199" t="str">
         <f>IF(Inputs!M34="","",Inputs!M34)</f>
         <v/>
       </c>
@@ -7618,43 +7623,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D29" s="200" t="str">
+      <c r="D29" s="199" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E29" s="200" t="str">
+      <c r="E29" s="199" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F29" s="200" t="str">
+      <c r="F29" s="199" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G29" s="200" t="str">
+      <c r="G29" s="199" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H29" s="200" t="str">
+      <c r="H29" s="199" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I29" s="200" t="str">
+      <c r="I29" s="199" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J29" s="200" t="str">
+      <c r="J29" s="199" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K29" s="200" t="str">
+      <c r="K29" s="199" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L29" s="200" t="str">
+      <c r="L29" s="199" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M29" s="200" t="str">
+      <c r="M29" s="199" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7669,43 +7674,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D30" s="200" t="str">
+      <c r="D30" s="199" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E30" s="200" t="str">
+      <c r="E30" s="199" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F30" s="200" t="str">
+      <c r="F30" s="199" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G30" s="200" t="str">
+      <c r="G30" s="199" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H30" s="200" t="str">
+      <c r="H30" s="199" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I30" s="200" t="str">
+      <c r="I30" s="199" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J30" s="200" t="str">
+      <c r="J30" s="199" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K30" s="200" t="str">
+      <c r="K30" s="199" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L30" s="200" t="str">
+      <c r="L30" s="199" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M30" s="200" t="str">
+      <c r="M30" s="199" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7720,43 +7725,43 @@
         <f>Fin_Analysis!I28</f>
         <v>0</v>
       </c>
-      <c r="D31" s="200" t="str">
+      <c r="D31" s="199" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E31" s="200" t="str">
+      <c r="E31" s="199" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F31" s="200" t="str">
+      <c r="F31" s="199" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G31" s="200" t="str">
+      <c r="G31" s="199" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H31" s="200" t="str">
+      <c r="H31" s="199" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I31" s="200" t="str">
+      <c r="I31" s="199" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J31" s="200" t="str">
+      <c r="J31" s="199" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K31" s="200" t="str">
+      <c r="K31" s="199" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L31" s="200" t="str">
+      <c r="L31" s="199" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M31" s="200" t="str">
+      <c r="M31" s="199" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7771,43 +7776,43 @@
         <f>Fin_Analysis!I48</f>
         <v>0</v>
       </c>
-      <c r="D32" s="200" t="str">
+      <c r="D32" s="199" t="str">
         <f>IF(Inputs!D38="","",Inputs!D38)</f>
         <v/>
       </c>
-      <c r="E32" s="200" t="str">
+      <c r="E32" s="199" t="str">
         <f>IF(Inputs!E38="","",Inputs!E38)</f>
         <v/>
       </c>
-      <c r="F32" s="200" t="str">
+      <c r="F32" s="199" t="str">
         <f>IF(Inputs!F38="","",Inputs!F38)</f>
         <v/>
       </c>
-      <c r="G32" s="200" t="str">
+      <c r="G32" s="199" t="str">
         <f>IF(Inputs!G38="","",Inputs!G38)</f>
         <v/>
       </c>
-      <c r="H32" s="200" t="str">
+      <c r="H32" s="199" t="str">
         <f>IF(Inputs!H38="","",Inputs!H38)</f>
         <v/>
       </c>
-      <c r="I32" s="200" t="str">
+      <c r="I32" s="199" t="str">
         <f>IF(Inputs!I38="","",Inputs!I38)</f>
         <v/>
       </c>
-      <c r="J32" s="200" t="str">
+      <c r="J32" s="199" t="str">
         <f>IF(Inputs!J38="","",Inputs!J38)</f>
         <v/>
       </c>
-      <c r="K32" s="200" t="str">
+      <c r="K32" s="199" t="str">
         <f>IF(Inputs!K38="","",Inputs!K38)</f>
         <v/>
       </c>
-      <c r="L32" s="200" t="str">
+      <c r="L32" s="199" t="str">
         <f>IF(Inputs!L38="","",Inputs!L38)</f>
         <v/>
       </c>
-      <c r="M32" s="200" t="str">
+      <c r="M32" s="199" t="str">
         <f>IF(Inputs!M38="","",Inputs!M38)</f>
         <v/>
       </c>
@@ -7822,43 +7827,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D33" s="200" t="str">
+      <c r="D33" s="199" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E33" s="200" t="str">
+      <c r="E33" s="199" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F33" s="200" t="str">
+      <c r="F33" s="199" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G33" s="200" t="str">
+      <c r="G33" s="199" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H33" s="200" t="str">
+      <c r="H33" s="199" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I33" s="200" t="str">
+      <c r="I33" s="199" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J33" s="200" t="str">
+      <c r="J33" s="199" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K33" s="200" t="str">
+      <c r="K33" s="199" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L33" s="200" t="str">
+      <c r="L33" s="199" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M33" s="200" t="str">
+      <c r="M33" s="199" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7873,43 +7878,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D34" s="200" t="str">
+      <c r="D34" s="199" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E34" s="200" t="str">
+      <c r="E34" s="199" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F34" s="200" t="str">
+      <c r="F34" s="199" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G34" s="200" t="str">
+      <c r="G34" s="199" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H34" s="200" t="str">
+      <c r="H34" s="199" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I34" s="200" t="str">
+      <c r="I34" s="199" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J34" s="200" t="str">
+      <c r="J34" s="199" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K34" s="200" t="str">
+      <c r="K34" s="199" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L34" s="200" t="str">
+      <c r="L34" s="199" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M34" s="200" t="str">
+      <c r="M34" s="199" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7975,43 +7980,43 @@
         <f>Fin_Analysis!D3</f>
         <v>0</v>
       </c>
-      <c r="D36" s="200" t="str">
+      <c r="D36" s="199" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E36" s="200" t="str">
+      <c r="E36" s="199" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F36" s="200" t="str">
+      <c r="F36" s="199" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G36" s="200" t="str">
+      <c r="G36" s="199" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H36" s="200" t="str">
+      <c r="H36" s="199" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I36" s="200" t="str">
+      <c r="I36" s="199" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J36" s="200" t="str">
+      <c r="J36" s="199" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K36" s="200" t="str">
+      <c r="K36" s="199" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L36" s="200" t="str">
+      <c r="L36" s="199" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M36" s="200" t="str">
+      <c r="M36" s="199" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -8026,43 +8031,43 @@
         <f>Fin_Analysis!D4</f>
         <v>0</v>
       </c>
-      <c r="D37" s="200" t="str">
+      <c r="D37" s="199" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E37" s="200" t="str">
+      <c r="E37" s="199" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F37" s="200" t="str">
+      <c r="F37" s="199" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G37" s="200" t="str">
+      <c r="G37" s="199" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H37" s="200" t="str">
+      <c r="H37" s="199" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I37" s="200" t="str">
+      <c r="I37" s="199" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J37" s="200" t="str">
+      <c r="J37" s="199" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K37" s="200" t="str">
+      <c r="K37" s="199" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L37" s="200" t="str">
+      <c r="L37" s="199" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M37" s="200" t="str">
+      <c r="M37" s="199" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -8077,43 +8082,43 @@
         <f>Fin_Analysis!C63</f>
         <v>0</v>
       </c>
-      <c r="D38" s="200" t="str">
+      <c r="D38" s="199" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E38" s="200" t="str">
+      <c r="E38" s="199" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F38" s="200" t="str">
+      <c r="F38" s="199" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G38" s="200" t="str">
+      <c r="G38" s="199" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H38" s="200" t="str">
+      <c r="H38" s="199" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I38" s="200" t="str">
+      <c r="I38" s="199" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J38" s="200" t="str">
+      <c r="J38" s="199" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K38" s="200" t="str">
+      <c r="K38" s="199" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L38" s="200" t="str">
+      <c r="L38" s="199" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M38" s="200" t="str">
+      <c r="M38" s="199" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -8175,47 +8180,47 @@
       <c r="B40" s="98" t="s">
         <v>158</v>
       </c>
-      <c r="C40" s="156" t="e">
+      <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D40" s="156" t="e">
+      <c r="D40" s="155" t="e">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -8244,47 +8249,47 @@
       <c r="B42" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="157">
+      <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
         <v>4.1966617135767562E-2</v>
       </c>
-      <c r="D42" s="157">
+      <c r="D42" s="156">
         <f t="shared" si="34"/>
         <v>5.1879493947392372E-2</v>
       </c>
-      <c r="E42" s="157" t="str">
+      <c r="E42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F42" s="157" t="str">
+      <c r="F42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G42" s="157" t="str">
+      <c r="G42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H42" s="157" t="str">
+      <c r="H42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I42" s="157" t="str">
+      <c r="I42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J42" s="157" t="str">
+      <c r="J42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K42" s="157" t="str">
+      <c r="K42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L42" s="157" t="str">
+      <c r="L42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M42" s="157" t="str">
+      <c r="M42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8295,47 +8300,47 @@
       <c r="B43" s="94" t="s">
         <v>235</v>
       </c>
-      <c r="C43" s="154">
+      <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.2109727772407923</v>
       </c>
-      <c r="D43" s="154">
+      <c r="D43" s="153">
         <f t="shared" si="35"/>
         <v>0.31389369254573585</v>
       </c>
-      <c r="E43" s="154" t="str">
+      <c r="E43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F43" s="154" t="str">
+      <c r="F43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G43" s="154" t="str">
+      <c r="G43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H43" s="154" t="str">
+      <c r="H43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I43" s="154" t="str">
+      <c r="I43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J43" s="154" t="str">
+      <c r="J43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K43" s="154" t="str">
+      <c r="K43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L43" s="154" t="str">
+      <c r="L43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M43" s="154" t="str">
+      <c r="M43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -8346,47 +8351,47 @@
       <c r="B44" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="154">
+      <c r="D44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E44" s="154" t="str">
+      <c r="E44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F44" s="154" t="str">
+      <c r="F44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G44" s="154" t="str">
+      <c r="G44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H44" s="154" t="str">
+      <c r="H44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I44" s="154" t="str">
+      <c r="I44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J44" s="154" t="str">
+      <c r="J44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K44" s="154" t="str">
+      <c r="K44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L44" s="154" t="str">
+      <c r="L44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M44" s="154" t="str">
+      <c r="M44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -8397,47 +8402,47 @@
       <c r="B45" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>0.39159225009737869</v>
       </c>
-      <c r="D45" s="154">
+      <c r="D45" s="153">
         <f t="shared" si="37"/>
         <v>0.21004368799490306</v>
       </c>
-      <c r="E45" s="154" t="str">
+      <c r="E45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F45" s="154" t="str">
+      <c r="F45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G45" s="154" t="str">
+      <c r="G45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H45" s="154" t="str">
+      <c r="H45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I45" s="154" t="str">
+      <c r="I45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J45" s="154" t="str">
+      <c r="J45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K45" s="154" t="str">
+      <c r="K45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L45" s="154" t="str">
+      <c r="L45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M45" s="154" t="str">
+      <c r="M45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -8448,47 +8453,47 @@
       <c r="B46" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="C46" s="154">
+      <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D46" s="154">
+      <c r="D46" s="153">
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="154" t="str">
+      <c r="E46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F46" s="154" t="str">
+      <c r="F46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G46" s="154" t="str">
+      <c r="G46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H46" s="154" t="str">
+      <c r="H46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I46" s="154" t="str">
+      <c r="I46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J46" s="154" t="str">
+      <c r="J46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K46" s="154" t="str">
+      <c r="K46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L46" s="154" t="str">
+      <c r="L46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M46" s="154" t="str">
+      <c r="M46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -8499,47 +8504,47 @@
       <c r="B47" s="94" t="s">
         <v>237</v>
       </c>
-      <c r="C47" s="154">
+      <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="154">
+      <c r="D47" s="153">
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="154" t="str">
+      <c r="E47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F47" s="154" t="str">
+      <c r="F47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G47" s="154" t="str">
+      <c r="G47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H47" s="154" t="str">
+      <c r="H47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I47" s="154" t="str">
+      <c r="I47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J47" s="154" t="str">
+      <c r="J47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K47" s="154" t="str">
+      <c r="K47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L47" s="154" t="str">
+      <c r="L47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M47" s="154" t="str">
+      <c r="M47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -8550,47 +8555,47 @@
       <c r="B48" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C48" s="154">
+      <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
         <v>0.35546835552606143</v>
       </c>
-      <c r="D48" s="154">
+      <c r="D48" s="153">
         <f t="shared" si="40"/>
         <v>0.42418312551196868</v>
       </c>
-      <c r="E48" s="154" t="str">
+      <c r="E48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F48" s="154" t="str">
+      <c r="F48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G48" s="154" t="str">
+      <c r="G48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H48" s="154" t="str">
+      <c r="H48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I48" s="154" t="str">
+      <c r="I48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J48" s="154" t="str">
+      <c r="J48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K48" s="154" t="str">
+      <c r="K48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L48" s="154" t="str">
+      <c r="L48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M48" s="154" t="str">
+      <c r="M48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -8619,47 +8624,47 @@
       <c r="B50" s="95" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="157">
+      <c r="C50" s="156">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="157" t="str">
+      <c r="D50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="157" t="str">
+      <c r="E50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="157" t="str">
+      <c r="F50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="157" t="str">
+      <c r="G50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="157" t="str">
+      <c r="H50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="157" t="str">
+      <c r="I50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="157" t="str">
+      <c r="J50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="157" t="str">
+      <c r="K50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="157" t="str">
+      <c r="L50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M50" s="157" t="str">
+      <c r="M50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8670,47 +8675,47 @@
       <c r="B51" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C51" s="154">
+      <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
         <v>0</v>
       </c>
-      <c r="D51" s="154" t="str">
+      <c r="D51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E51" s="154" t="str">
+      <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F51" s="154" t="str">
+      <c r="F51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G51" s="154" t="str">
+      <c r="G51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H51" s="154" t="str">
+      <c r="H51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I51" s="154" t="str">
+      <c r="I51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J51" s="154" t="str">
+      <c r="J51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K51" s="154" t="str">
+      <c r="K51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L51" s="154" t="str">
+      <c r="L51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M51" s="154" t="str">
+      <c r="M51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8738,47 +8743,47 @@
       <c r="B53" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="157" t="e">
+      <c r="C53" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="157" t="str">
+      <c r="D53" s="156" t="str">
         <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
         <v/>
       </c>
-      <c r="E53" s="157" t="str">
+      <c r="E53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F53" s="157" t="str">
+      <c r="F53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G53" s="157" t="str">
+      <c r="G53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H53" s="157" t="str">
+      <c r="H53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I53" s="157" t="str">
+      <c r="I53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J53" s="157" t="str">
+      <c r="J53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K53" s="157" t="str">
+      <c r="K53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L53" s="157" t="str">
+      <c r="L53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M53" s="157" t="str">
+      <c r="M53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8788,47 +8793,47 @@
       <c r="B54" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C54" s="158" t="str">
+      <c r="C54" s="157" t="str">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="158" t="str">
+      <c r="D54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="158" t="str">
+      <c r="E54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="158" t="str">
+      <c r="F54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="158" t="str">
+      <c r="G54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="158" t="str">
+      <c r="H54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="158" t="str">
+      <c r="I54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="158" t="str">
+      <c r="J54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="158" t="str">
+      <c r="K54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="158" t="str">
+      <c r="L54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M54" s="158" t="str">
+      <c r="M54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8838,47 +8843,47 @@
       <c r="B55" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="154">
+      <c r="C55" s="153">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>1.1016233766233767</v>
       </c>
-      <c r="D55" s="154">
+      <c r="D55" s="153">
         <f t="shared" si="45"/>
         <v>0.49517219182491151</v>
       </c>
-      <c r="E55" s="154" t="str">
+      <c r="E55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="154" t="str">
+      <c r="F55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="154" t="str">
+      <c r="G55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="154" t="str">
+      <c r="H55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="154" t="str">
+      <c r="I55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="154" t="str">
+      <c r="J55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="154" t="str">
+      <c r="K55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="154" t="str">
+      <c r="L55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="154" t="str">
+      <c r="M55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8888,47 +8893,47 @@
       <c r="B56" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="159" t="e">
+      <c r="C56" s="158" t="e">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="159" t="str">
+      <c r="D56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E56" s="159" t="str">
+      <c r="E56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="159" t="str">
+      <c r="F56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="159" t="str">
+      <c r="G56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="159" t="str">
+      <c r="H56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="159" t="str">
+      <c r="I56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="159" t="str">
+      <c r="J56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="159" t="str">
+      <c r="K56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="159" t="str">
+      <c r="L56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="159" t="str">
+      <c r="M56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -10226,8 +10231,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10276,7 +10281,7 @@
       <c r="H3" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="205">
+      <c r="I3" s="204">
         <f>Inputs!C83</f>
         <v>0</v>
       </c>
@@ -10373,7 +10378,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="204">
+      <c r="D9" s="203">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
@@ -10420,7 +10425,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10448,7 +10453,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10476,7 +10481,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="199">
+      <c r="D13" s="198">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10504,7 +10509,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="199">
+      <c r="D14" s="198">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10517,7 +10522,7 @@
       <c r="H14" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="206">
+      <c r="I14" s="205">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10532,7 +10537,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="199">
+      <c r="D15" s="198">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10559,7 +10564,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10581,7 +10586,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10603,7 +10608,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="199">
+      <c r="D18" s="198">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10624,7 +10629,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10649,7 +10654,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="199">
+      <c r="D20" s="198">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10676,7 +10681,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10697,7 +10702,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="199">
+      <c r="D22" s="198">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10862,7 +10867,7 @@
       <c r="H28" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="207">
+      <c r="I28" s="206">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10891,7 +10896,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199">
+      <c r="D30" s="198">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10917,7 +10922,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10944,7 +10949,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10971,7 +10976,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="199">
+      <c r="D33" s="198">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10987,7 +10992,7 @@
       <c r="H33" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="I33" s="206">
+      <c r="I33" s="205">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -11001,7 +11006,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199">
+      <c r="D34" s="198">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -11028,7 +11033,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199">
+      <c r="D35" s="198">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -11054,7 +11059,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -11081,7 +11086,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="199">
+      <c r="D37" s="198">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -11108,7 +11113,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="199">
+      <c r="D38" s="198">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -11129,7 +11134,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="199">
+      <c r="D39" s="198">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -11150,7 +11155,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="199">
+      <c r="D40" s="198">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -11171,7 +11176,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="199">
+      <c r="D41" s="198">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -11192,7 +11197,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="199">
+      <c r="D42" s="198">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -11338,7 +11343,7 @@
       <c r="H48" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="I48" s="208">
+      <c r="I48" s="207">
         <f>Inputs!C82</f>
         <v>0</v>
       </c>
@@ -11447,11 +11452,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="283">
+      <c r="D56" s="284">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="281"/>
+      <c r="E56" s="282"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11462,11 +11467,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="282">
+      <c r="D57" s="283">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="281"/>
+      <c r="E57" s="282"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11478,11 +11483,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="282">
+      <c r="D58" s="283">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="281"/>
+      <c r="E58" s="282"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11578,8 +11583,8 @@
       <c r="B64" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="208"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11659,8 +11664,8 @@
       <c r="B69" s="121" t="s">
         <v>153</v>
       </c>
-      <c r="C69" s="209"/>
-      <c r="D69" s="209"/>
+      <c r="C69" s="208"/>
+      <c r="D69" s="208"/>
       <c r="E69" s="126">
         <f>I49-E64</f>
         <v>0</v>
@@ -11696,19 +11701,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="270">
+      <c r="C72" s="271">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="270"/>
-      <c r="E72" s="284" t="s">
+      <c r="D72" s="271"/>
+      <c r="E72" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="F72" s="284"/>
-      <c r="H72" s="284" t="s">
+      <c r="F72" s="285"/>
+      <c r="H72" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="I72" s="284"/>
+      <c r="I72" s="285"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11718,18 +11723,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C73" s="271" t="s">
+      <c r="C73" s="272" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="271"/>
-      <c r="E73" s="285" t="s">
+      <c r="D73" s="272"/>
+      <c r="E73" s="286" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="271"/>
-      <c r="H73" s="285" t="s">
+      <c r="F73" s="272"/>
+      <c r="H73" s="286" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="271"/>
+      <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11740,17 +11745,17 @@
         <f>Data!C6</f>
         <v>69317</v>
       </c>
-      <c r="D74" s="210"/>
-      <c r="E74" s="239">
+      <c r="D74" s="209"/>
+      <c r="E74" s="238">
         <f>Inputs!E91</f>
         <v>69317</v>
       </c>
-      <c r="F74" s="210"/>
-      <c r="H74" s="239">
+      <c r="F74" s="209"/>
+      <c r="H74" s="238">
         <f>Inputs!F91</f>
         <v>69317</v>
       </c>
-      <c r="I74" s="210"/>
+      <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11761,23 +11766,23 @@
         <f>Data!C8</f>
         <v>2909</v>
       </c>
-      <c r="D75" s="160">
+      <c r="D75" s="159">
         <f>C75/$C$74</f>
         <v>4.1966617135767562E-2</v>
       </c>
-      <c r="E75" s="239">
+      <c r="E75" s="238">
         <f>Inputs!E92</f>
         <v>2909</v>
       </c>
-      <c r="F75" s="161">
+      <c r="F75" s="160">
         <f>E75/E74</f>
         <v>4.1966617135767562E-2</v>
       </c>
-      <c r="H75" s="239">
+      <c r="H75" s="238">
         <f>Inputs!F92</f>
         <v>2909</v>
       </c>
-      <c r="I75" s="161">
+      <c r="I75" s="160">
         <f>H75/$H$74</f>
         <v>4.1966617135767562E-2</v>
       </c>
@@ -11787,21 +11792,21 @@
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C76" s="162">
+      <c r="C76" s="161">
         <f>C74-C75</f>
         <v>66408</v>
       </c>
-      <c r="D76" s="211"/>
-      <c r="E76" s="163">
+      <c r="D76" s="210"/>
+      <c r="E76" s="162">
         <f>E74-E75</f>
         <v>66408</v>
       </c>
-      <c r="F76" s="211"/>
-      <c r="H76" s="163">
+      <c r="F76" s="210"/>
+      <c r="H76" s="162">
         <f>H74-H75</f>
         <v>66408</v>
       </c>
-      <c r="I76" s="211"/>
+      <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11812,23 +11817,23 @@
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>14624</v>
       </c>
-      <c r="D77" s="160">
+      <c r="D77" s="159">
         <f>C77/$C$74</f>
         <v>0.2109727772407923</v>
       </c>
-      <c r="E77" s="239">
+      <c r="E77" s="238">
         <f>Inputs!E93</f>
         <v>14624</v>
       </c>
-      <c r="F77" s="161">
+      <c r="F77" s="160">
         <f>E77/E74</f>
         <v>0.2109727772407923</v>
       </c>
-      <c r="H77" s="239">
+      <c r="H77" s="238">
         <f>Inputs!F93</f>
         <v>14624</v>
       </c>
-      <c r="I77" s="161">
+      <c r="I77" s="160">
         <f>H77/$H$74</f>
         <v>0.2109727772407923</v>
       </c>
@@ -11842,54 +11847,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="160">
+      <c r="D78" s="159">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="181">
+      <c r="E78" s="180">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="161">
+      <c r="F78" s="160">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="239">
+      <c r="H78" s="238">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="161">
+      <c r="I78" s="160">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="257" t="s">
+      <c r="B79" s="256" t="s">
         <v>233</v>
       </c>
-      <c r="C79" s="258">
+      <c r="C79" s="257">
         <f>C76-C77-C78</f>
         <v>51784</v>
       </c>
-      <c r="D79" s="259">
+      <c r="D79" s="258">
         <f>C79/C74</f>
         <v>0.74706060562344012</v>
       </c>
-      <c r="E79" s="260">
+      <c r="E79" s="259">
         <f>E76-E77-E78</f>
         <v>51784</v>
       </c>
-      <c r="F79" s="259">
+      <c r="F79" s="258">
         <f>E79/E74</f>
         <v>0.74706060562344012</v>
       </c>
-      <c r="G79" s="261"/>
-      <c r="H79" s="260">
+      <c r="G79" s="260"/>
+      <c r="H79" s="259">
         <f>H76-H77-H78</f>
         <v>51784</v>
       </c>
-      <c r="I79" s="259">
+      <c r="I79" s="258">
         <f>H79/H74</f>
         <v>0.74706060562344012</v>
       </c>
@@ -11903,27 +11908,27 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="160">
+      <c r="D80" s="159">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="181">
+      <c r="E80" s="180">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="161">
+      <c r="F80" s="160">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="239">
+      <c r="H80" s="238">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="161">
+      <c r="I80" s="160">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="182" t="s">
+      <c r="K80" s="181" t="s">
         <v>132</v>
       </c>
     </row>
@@ -11935,23 +11940,23 @@
         <f>MAX(Data!C17,0)</f>
         <v>27144</v>
       </c>
-      <c r="D81" s="160">
+      <c r="D81" s="159">
         <f>C81/$C$74</f>
         <v>0.39159225009737869</v>
       </c>
-      <c r="E81" s="181">
+      <c r="E81" s="180">
         <f>E74*F81</f>
         <v>27144</v>
       </c>
-      <c r="F81" s="161">
+      <c r="F81" s="160">
         <f>I81</f>
         <v>0.39159225009737869</v>
       </c>
-      <c r="H81" s="239">
+      <c r="H81" s="238">
         <f>Inputs!F94</f>
         <v>27144</v>
       </c>
-      <c r="I81" s="161">
+      <c r="I81" s="160">
         <f>H81/$H$74</f>
         <v>0.39159225009737869</v>
       </c>
@@ -11965,23 +11970,23 @@
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="160">
+      <c r="D82" s="159">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="239">
+      <c r="E82" s="238">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="161">
+      <c r="F82" s="160">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="239">
+      <c r="H82" s="238">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="161">
+      <c r="I82" s="160">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -11991,27 +11996,27 @@
       <c r="B83" s="105" t="s">
         <v>126</v>
       </c>
-      <c r="C83" s="164">
+      <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
         <v>24640</v>
       </c>
-      <c r="D83" s="165">
+      <c r="D83" s="164">
         <f>C83/$C$74</f>
         <v>0.35546835552606143</v>
       </c>
-      <c r="E83" s="166">
+      <c r="E83" s="165">
         <f>E79-E81-E82-E80</f>
         <v>24640</v>
       </c>
-      <c r="F83" s="165">
+      <c r="F83" s="164">
         <f>E83/E74</f>
         <v>0.35546835552606143</v>
       </c>
-      <c r="H83" s="166">
+      <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
         <v>24640</v>
       </c>
-      <c r="I83" s="165">
+      <c r="I83" s="164">
         <f>H83/$H$74</f>
         <v>0.35546835552606143</v>
       </c>
@@ -12021,49 +12026,49 @@
       <c r="B84" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="160">
+      <c r="C84" s="211"/>
+      <c r="D84" s="159">
         <f>I84</f>
         <v>0.23499999999999999</v>
       </c>
-      <c r="E84" s="213"/>
-      <c r="F84" s="180">
+      <c r="E84" s="212"/>
+      <c r="F84" s="179">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.23499999999999999</v>
       </c>
-      <c r="H84" s="213"/>
-      <c r="I84" s="203">
+      <c r="H84" s="212"/>
+      <c r="I84" s="202">
         <f>Inputs!C16</f>
         <v>0.23499999999999999</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="264" t="s">
+      <c r="B85" s="263" t="s">
         <v>165</v>
       </c>
-      <c r="C85" s="258">
+      <c r="C85" s="257">
         <f>C83*(1-I84)</f>
         <v>18849.599999999999</v>
       </c>
-      <c r="D85" s="259">
+      <c r="D85" s="258">
         <f>C85/$C$74</f>
         <v>0.27193329197743699</v>
       </c>
-      <c r="E85" s="265">
+      <c r="E85" s="264">
         <f>E83*(1-F84)</f>
         <v>18849.599999999999</v>
       </c>
-      <c r="F85" s="259">
+      <c r="F85" s="258">
         <f>E85/E74</f>
         <v>0.27193329197743699</v>
       </c>
-      <c r="G85" s="261"/>
-      <c r="H85" s="265">
+      <c r="G85" s="260"/>
+      <c r="H85" s="264">
         <f>H83*(1-I84)</f>
         <v>18849.599999999999</v>
       </c>
-      <c r="I85" s="259">
+      <c r="I85" s="258">
         <f>H85/$H$74</f>
         <v>0.27193329197743699</v>
       </c>
@@ -12073,69 +12078,69 @@
       <c r="B86" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="C86" s="168">
+      <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
         <v>10.014304364010451</v>
       </c>
-      <c r="D86" s="210"/>
-      <c r="E86" s="169">
+      <c r="D86" s="209"/>
+      <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
         <v>10.014304364010451</v>
       </c>
-      <c r="F86" s="210"/>
-      <c r="H86" s="169">
+      <c r="F86" s="209"/>
+      <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
         <v>10.014304364010451</v>
       </c>
-      <c r="I86" s="210"/>
+      <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="C87" s="262">
+      <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1042613676627845</v>
-      </c>
-      <c r="D87" s="210"/>
-      <c r="E87" s="263">
+        <v>0.10552480889368231</v>
+      </c>
+      <c r="D87" s="209"/>
+      <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1042613676627845</v>
-      </c>
-      <c r="F87" s="210"/>
-      <c r="H87" s="263">
+        <v>0.10552480889368231</v>
+      </c>
+      <c r="F87" s="209"/>
+      <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1042613676627845</v>
-      </c>
-      <c r="I87" s="210"/>
+        <v>0.10552480889368231</v>
+      </c>
+      <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>208</v>
       </c>
-      <c r="C88" s="170">
+      <c r="C88" s="169">
         <f>Inputs!C44</f>
         <v>6.8</v>
       </c>
-      <c r="D88" s="167">
+      <c r="D88" s="166">
         <f>C88/C86</f>
         <v>0.67902869264069265</v>
       </c>
-      <c r="E88" s="171">
+      <c r="E88" s="170">
         <f>Inputs!E98</f>
         <v>6.8</v>
       </c>
-      <c r="F88" s="167">
+      <c r="F88" s="166">
         <f>E88/E86</f>
         <v>0.67902869264069265</v>
       </c>
-      <c r="H88" s="171">
+      <c r="H88" s="170">
         <f>Inputs!F98</f>
         <v>6.8</v>
       </c>
-      <c r="I88" s="167">
+      <c r="I88" s="166">
         <f>H88/H86</f>
         <v>0.67902869264069265</v>
       </c>
@@ -12145,21 +12150,21 @@
       <c r="B89" s="87" t="s">
         <v>222</v>
       </c>
-      <c r="C89" s="262">
+      <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0796460176991149E-2</v>
-      </c>
-      <c r="D89" s="210"/>
-      <c r="E89" s="262">
+        <v>7.1654373024236037E-2</v>
+      </c>
+      <c r="D89" s="209"/>
+      <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0796460176991149E-2</v>
-      </c>
-      <c r="F89" s="210"/>
-      <c r="H89" s="262">
+        <v>7.1654373024236037E-2</v>
+      </c>
+      <c r="F89" s="209"/>
+      <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0796460176991149E-2</v>
-      </c>
-      <c r="I89" s="210"/>
+        <v>7.1654373024236037E-2</v>
+      </c>
+      <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12181,22 +12186,22 @@
       <c r="B92" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C92" s="199" t="str">
+      <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="284" t="s">
+      <c r="E92" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="F92" s="284"/>
+      <c r="F92" s="285"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="284" t="s">
+      <c r="H92" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="I92" s="284"/>
+      <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12206,9 +12211,9 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.4500000000000002E-2</v>
-      </c>
-      <c r="D93" s="240">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D93" s="239">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
@@ -12216,15 +12221,15 @@
         <v>210</v>
       </c>
       <c r="F93" s="144">
-        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>254.92971813369917</v>
+        <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
+        <v>250.56437066439955</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
-        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>254.92971813369917</v>
+        <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
+        <v>250.56437066439955</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12232,24 +12237,27 @@
       <c r="B94" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C94" s="183">
+      <c r="C94" s="182">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="145"/>
+      <c r="D94" s="270">
+        <f>Inputs!D87</f>
+        <v>0</v>
+      </c>
       <c r="E94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>148.41706268483586</v>
+        <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
+        <v>145.62591918949815</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>148.41706268483586</v>
+        <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
+        <v>145.62591918949815</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12270,14 +12278,14 @@
       <c r="D96" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="E96" s="184" t="str">
+      <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="228" t="s">
+      <c r="F96" s="227" t="s">
         <v>238</v>
       </c>
-      <c r="H96" s="184" t="str">
+      <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
@@ -12292,21 +12300,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>238568.23411912887</v>
-      </c>
-      <c r="D97" s="214"/>
+        <v>234483.05627210738</v>
+      </c>
+      <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>126.7451249922258</v>
-      </c>
-      <c r="F97" s="214"/>
+        <v>124.57477578899676</v>
+      </c>
+      <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>126.7451249922258</v>
+        <v>124.57477578899676</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>186.50571186756792</v>
+        <v>182.02594420894195</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12318,14 +12326,14 @@
         <f>E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="214"/>
-      <c r="E98" s="214"/>
-      <c r="F98" s="214"/>
+      <c r="D98" s="213"/>
+      <c r="E98" s="213"/>
+      <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="216"/>
+      <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -12336,17 +12344,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="215"/>
-      <c r="E99" s="146">
+      <c r="D99" s="214"/>
+      <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="215"/>
-      <c r="H99" s="146">
+      <c r="F99" s="214"/>
+      <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="217"/>
+      <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -12355,27 +12363,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>238568.23411912887</v>
+        <v>234483.05627210738</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>107.73335624339192</v>
+        <v>105.88855942064724</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>126.7451249922258</v>
+        <v>124.57477578899676</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>126.7451249922258</v>
+        <v>124.57477578899676</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>126.7451249922258</v>
+        <v>124.57477578899676</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>186.50571186756792</v>
+        <v>182.02594420894195</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12394,14 +12402,14 @@
       <c r="D102" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="E102" s="184" t="str">
+      <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="228" t="s">
+      <c r="F102" s="227" t="s">
         <v>238</v>
       </c>
-      <c r="H102" s="184" t="str">
+      <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12416,27 +12424,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>138891.60046573955</v>
+        <v>136279.59359682447</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>62.721084084977086</v>
+        <v>61.541546215830181</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>73.789510688208338</v>
+        <v>72.401819077447271</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>73.789510688208338</v>
+        <v>72.401819077447271</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>73.789510688208338</v>
+        <v>72.401819077447271</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>108.58141660365983</v>
+        <v>105.7919582559777</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12455,14 +12463,14 @@
       <c r="D105" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="E105" s="185" t="str">
+      <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="228" t="s">
+      <c r="F105" s="227" t="s">
         <v>238</v>
       </c>
-      <c r="H105" s="185" t="str">
+      <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12477,27 +12485,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>188729.9172924342</v>
+        <v>185381.32493446596</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>85.227220164184502</v>
+        <v>83.715052818238718</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>100.26731784021706</v>
+        <v>98.488297433222016</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>100.26731784021706</v>
+        <v>98.488297433222016</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>100.26731784021706</v>
+        <v>98.488297433222016</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>147.54356423561387</v>
+        <v>143.90895123245983</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0011.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0011.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B69CF200-912A-4CD2-B7D3-055A496036FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04CD261A-D9C0-4EFD-909A-D21F28F7E1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="267">
   <si>
     <t>Company Info:</t>
   </si>
@@ -939,6 +939,9 @@
   </si>
   <si>
     <t>恒生銀行</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superior Cycl. </t>
   </si>
   <si>
     <t>C0014</t>
@@ -3571,7 +3574,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3624,7 +3627,7 @@
         <v>216</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>46</v>
+        <v>261</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3633,7 +3636,7 @@
         <v>217</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3698,7 +3701,7 @@
         <v>225</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3707,7 +3710,7 @@
         <v>239</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -3716,7 +3719,7 @@
         <v>240</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3725,7 +3728,7 @@
         <v>229</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3734,7 +3737,7 @@
         <v>232</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3743,7 +3746,7 @@
         <v>231</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4145,7 +4148,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.1654373024236037E-2</v>
+        <v>7.2148541114058357E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4567,9 +4570,11 @@
         <v>248</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>264</v>
-      </c>
-      <c r="D87" s="269"/>
+        <v>265</v>
+      </c>
+      <c r="D87" s="269">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
@@ -4881,10 +4886,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>94.9</v>
+        <v>94.25</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4922,7 +4927,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>178627.18916640003</v>
+        <v>177403.715268</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4960,7 +4965,7 @@
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
-        <v>Y</v>
+        <v xml:space="preserve">Superior Cycl. </v>
       </c>
       <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
@@ -5017,10 +5022,10 @@
         <v>253</v>
       </c>
       <c r="C12" s="174">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="172">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5067,7 +5072,7 @@
         <v>254</v>
       </c>
       <c r="C17" s="175">
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5154,7 +5159,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.4764445487649613</v>
+        <v>9.4115373943213658</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5186,7 +5191,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.1654373024236037E-2</v>
+        <v>7.2148541114058357E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5216,20 +5221,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>61.541546215830181</v>
+        <v>61.683569285346159</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>121.66075199437435</v>
+        <v>111.11904138474858</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>72.401819077447271</v>
+        <v>72.568905041583719</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>105.7919582559777</v>
+        <v>96.62525337804226</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12101,17 +12106,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10552480889368231</v>
+        <v>0.10625256619639736</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10552480889368231</v>
+        <v>0.10625256619639736</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10552480889368231</v>
+        <v>0.10625256619639736</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12152,17 +12157,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1654373024236037E-2</v>
+        <v>7.2148541114058357E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1654373024236037E-2</v>
+        <v>7.2148541114058357E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1654373024236037E-2</v>
+        <v>7.2148541114058357E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12211,7 +12216,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12222,14 +12227,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>250.56437066439955</v>
+        <v>251.39017885097198</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>250.56437066439955</v>
+        <v>251.39017885097198</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12243,21 +12248,21 @@
       </c>
       <c r="D94" s="270">
         <f>Inputs!D87</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>145.62591918949815</v>
+        <v>145.96198874439435</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>145.62591918949815</v>
+        <v>145.96198874439435</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12300,21 +12305,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>234483.05627210738</v>
+        <v>235255.86378248318</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>124.57477578899676</v>
+        <v>124.98534840717944</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>124.57477578899676</v>
+        <v>124.98534840717944</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>182.02594420894195</v>
+        <v>166.41757170604055</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12363,27 +12368,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>234483.05627210738</v>
+        <v>235255.86378248318</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>105.88855942064724</v>
+        <v>106.23754614610253</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>124.57477578899676</v>
+        <v>124.98534840717944</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>124.57477578899676</v>
+        <v>124.98534840717944</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>124.57477578899676</v>
+        <v>124.98534840717944</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>182.02594420894195</v>
+        <v>166.41757170604055</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12424,27 +12429,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>136279.59359682447</v>
+        <v>136594.09408283976</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>61.541546215830181</v>
+        <v>61.683569285346159</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>72.401819077447271</v>
+        <v>72.568905041583719</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>72.401819077447271</v>
+        <v>72.568905041583719</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>72.401819077447271</v>
+        <v>72.568905041583719</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>105.7919582559777</v>
+        <v>96.62525337804226</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12485,27 +12490,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>185381.32493446596</v>
+        <v>185924.97893266147</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>83.715052818238718</v>
+        <v>83.960557715724349</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>98.488297433222016</v>
+        <v>98.777126724381588</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>98.488297433222016</v>
+        <v>98.777126724381588</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>98.488297433222016</v>
+        <v>98.777126724381588</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>143.90895123245983</v>
+        <v>131.52141254204139</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0011.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0011.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04CD261A-D9C0-4EFD-909A-D21F28F7E1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CBEE5DB-AC12-4C38-80BF-4086D7A895CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4148,7 +4148,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.2148541114058357E-2</v>
+        <v>7.1578947368421048E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>94.25</v>
+        <v>95</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -4927,7 +4927,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>177403.715268</v>
+        <v>178815.41592</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5159,7 +5159,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.4115373943213658</v>
+        <v>9.4864302648332064</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5191,7 +5191,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.2148541114058357E-2</v>
+        <v>7.1578947368421048E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5221,20 +5221,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>61.683569285346159</v>
+        <v>61.51989204149038</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>111.11904138474858</v>
+        <v>110.82418720162545</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>72.568905041583719</v>
+        <v>72.376343578223981</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>96.62525337804226</v>
+        <v>96.368858436196049</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12106,17 +12106,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10625256619639736</v>
+        <v>0.10541373014747843</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10625256619639736</v>
+        <v>0.10541373014747843</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10625256619639736</v>
+        <v>0.10541373014747843</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12157,17 +12157,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2148541114058357E-2</v>
+        <v>7.1578947368421048E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2148541114058357E-2</v>
+        <v>7.1578947368421048E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2148541114058357E-2</v>
+        <v>7.1578947368421048E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12227,14 +12227,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>251.39017885097198</v>
+        <v>250.43851738864595</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>251.39017885097198</v>
+        <v>250.43851738864595</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12255,14 +12255,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>145.96198874439435</v>
+        <v>145.57467886103024</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>145.96198874439435</v>
+        <v>145.57467886103024</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12305,21 +12305,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>235255.86378248318</v>
+        <v>234365.28030634535</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>124.98534840717944</v>
+        <v>124.51220446823099</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>124.98534840717944</v>
+        <v>124.51220446823099</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>166.41757170604055</v>
+        <v>165.78758214013789</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12368,27 +12368,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>235255.86378248318</v>
+        <v>234365.28030634535</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>106.23754614610253</v>
+        <v>105.83537379799634</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>124.98534840717944</v>
+        <v>124.51220446823099</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>124.98534840717944</v>
+        <v>124.51220446823099</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>124.98534840717944</v>
+        <v>124.51220446823099</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>166.41757170604055</v>
+        <v>165.78758214013789</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12429,27 +12429,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>136594.09408283976</v>
+        <v>136231.64189167309</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>61.683569285346159</v>
+        <v>61.51989204149038</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>72.568905041583719</v>
+        <v>72.376343578223981</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>72.568905041583719</v>
+        <v>72.376343578223981</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>72.568905041583719</v>
+        <v>72.376343578223981</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>96.62525337804226</v>
+        <v>96.368858436196049</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12490,27 +12490,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>185924.97893266147</v>
+        <v>185298.46109900918</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>83.960557715724349</v>
+        <v>83.67763291974336</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>98.777126724381588</v>
+        <v>98.444274023227479</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>98.777126724381588</v>
+        <v>98.444274023227479</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>98.777126724381588</v>
+        <v>98.444274023227479</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>131.52141254204139</v>
+        <v>131.07822028816696</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0011.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0011.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CBEE5DB-AC12-4C38-80BF-4086D7A895CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{743FE9F2-8FF8-4DFA-A726-A986E46B5D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
   <si>
     <t>Company Info:</t>
   </si>
@@ -932,6 +932,14 @@
   </si>
   <si>
     <t>Normalized PE Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3574,7 +3582,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3595,7 +3603,7 @@
         <v>195</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3603,7 +3611,7 @@
         <v>196</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3627,7 +3635,7 @@
         <v>216</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3636,7 +3644,7 @@
         <v>217</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3701,7 +3709,7 @@
         <v>225</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3710,7 +3718,7 @@
         <v>239</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -3719,7 +3727,7 @@
         <v>240</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3728,7 +3736,7 @@
         <v>229</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3737,7 +3745,7 @@
         <v>232</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3746,7 +3754,7 @@
         <v>231</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4148,7 +4156,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.1578947368421048E-2</v>
+        <v>7.0356958096223485E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4269,7 +4277,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>260</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4381,7 +4389,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>259</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4570,7 +4578,7 @@
         <v>248</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4886,10 +4894,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>95</v>
+        <v>96.65</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4927,7 +4935,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>178815.41592</v>
+        <v>181921.15735440003</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5022,10 +5030,10 @@
         <v>253</v>
       </c>
       <c r="C12" s="174">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5072,7 +5080,7 @@
         <v>254</v>
       </c>
       <c r="C17" s="175">
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5159,7 +5167,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.4864302648332064</v>
+        <v>9.6511945799592578</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5191,7 +5199,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.1578947368421048E-2</v>
+        <v>7.0356958096223485E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5221,20 +5229,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>61.51989204149038</v>
+        <v>73.071754890338426</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>110.82418720162545</v>
+        <v>138.34720759752452</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>72.376343578223981</v>
+        <v>85.966770459221678</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>96.368858436196049</v>
+        <v>120.30191965002133</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12106,17 +12114,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10541373014747843</v>
+        <v>0.1036141165443399</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10541373014747843</v>
+        <v>0.1036141165443399</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10541373014747843</v>
+        <v>0.1036141165443399</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12157,17 +12165,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1578947368421048E-2</v>
+        <v>7.0356958096223485E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1578947368421048E-2</v>
+        <v>7.0356958096223485E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1578947368421048E-2</v>
+        <v>7.0356958096223485E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12216,7 +12224,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12227,14 +12235,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>250.43851738864595</v>
+        <v>296.73907552297283</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>250.43851738864595</v>
+        <v>296.73907552297283</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12255,14 +12263,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>145.57467886103024</v>
+        <v>172.90988164931815</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>145.57467886103024</v>
+        <v>172.90988164931815</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12305,21 +12313,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>234365.28030634535</v>
+        <v>277694.25141925178</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>124.51220446823099</v>
+        <v>147.5317648039443</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>124.51220446823099</v>
+        <v>147.5317648039443</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>165.78758214013789</v>
+        <v>206.45598782484078</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12368,27 +12376,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>234365.28030634535</v>
+        <v>277694.25141925178</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>105.83537379799634</v>
+        <v>125.40200008335265</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>124.51220446823099</v>
+        <v>147.5317648039443</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>124.51220446823099</v>
+        <v>147.5317648039443</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>124.51220446823099</v>
+        <v>147.5317648039443</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>165.78758214013789</v>
+        <v>206.45598782484078</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12429,27 +12437,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>136231.64189167309</v>
+        <v>161812.46121015676</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>61.51989204149038</v>
+        <v>73.071754890338426</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>72.376343578223981</v>
+        <v>85.966770459221678</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>72.376343578223981</v>
+        <v>85.966770459221678</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>72.376343578223981</v>
+        <v>85.966770459221678</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>96.368858436196049</v>
+        <v>120.30191965002133</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12490,27 +12498,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>185298.46109900918</v>
+        <v>219753.35631470429</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>83.67763291974336</v>
+        <v>99.236877486845543</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>98.444274023227479</v>
+        <v>116.749267631583</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>98.444274023227479</v>
+        <v>116.749267631583</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>98.444274023227479</v>
+        <v>116.749267631583</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>131.07822028816696</v>
+        <v>163.37895373743106</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0011.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0011.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{743FE9F2-8FF8-4DFA-A726-A986E46B5D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F9FC87C-1918-45BA-ADBC-D3DCCB59AE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="270">
   <si>
     <t>Company Info:</t>
   </si>
@@ -940,6 +940,10 @@
   </si>
   <si>
     <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔWC/Δsales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3581,7 +3585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3603,7 +3607,7 @@
         <v>195</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3611,7 +3615,7 @@
         <v>196</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3635,7 +3639,7 @@
         <v>216</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3644,7 +3648,7 @@
         <v>217</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3709,7 +3713,7 @@
         <v>225</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3718,7 +3722,7 @@
         <v>239</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -3727,7 +3731,7 @@
         <v>240</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3736,7 +3740,7 @@
         <v>229</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3745,7 +3749,7 @@
         <v>232</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3754,7 +3758,7 @@
         <v>231</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4156,7 +4160,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.0356958096223485E-2</v>
+        <v>7.0612668743509868E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4578,7 +4582,7 @@
         <v>248</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4894,10 +4898,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>96.65</v>
+        <v>96.3</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4935,7 +4939,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>181921.15735440003</v>
+        <v>181262.3637168</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5005,7 +5009,7 @@
         <v>176</v>
       </c>
       <c r="C10" s="172">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>183</v>
@@ -5016,7 +5020,7 @@
         <v>180</v>
       </c>
       <c r="C11" s="173">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>190</v>
@@ -5043,7 +5047,7 @@
         <v>177</v>
       </c>
       <c r="C14" s="172">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>182</v>
@@ -5167,7 +5171,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.6511945799592578</v>
+        <v>9.6162445737203974</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5199,7 +5203,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.0356958096223485E-2</v>
+        <v>7.0612668743509868E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5229,20 +5233,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>73.071754890338426</v>
+        <v>73.159081625670495</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>138.34720759752452</v>
+        <v>138.51254384817199</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>85.966770459221678</v>
+        <v>86.069507794906471</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>120.30191965002133</v>
+        <v>120.44569030275827</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -5277,8 +5281,8 @@
         <v>226</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6304,12 +6308,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8735,118 +8739,119 @@
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>261</v>
+      </c>
+      <c r="C52" s="153" t="e">
+        <f>IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="156" t="e">
+      <c r="C54" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
-        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" s="157" t="str">
-        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
+        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
+        <v/>
+      </c>
+      <c r="E54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8854,107 +8859,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" s="153">
-        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>1.1016233766233767</v>
-      </c>
-      <c r="D55" s="153">
+        <v>121</v>
+      </c>
+      <c r="C55" s="157" t="str">
+        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>0.49517219182491151</v>
-      </c>
-      <c r="E55" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="153">
+        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>1.1016233766233767</v>
+      </c>
+      <c r="D56" s="153">
+        <f t="shared" si="46"/>
+        <v>0.49517219182491151</v>
+      </c>
+      <c r="E56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="158" t="e">
-        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="158" t="e">
+        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="D57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="E57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9522,7 +9574,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10205,6 +10259,7 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -12114,17 +12169,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1036141165443399</v>
+        <v>0.1039906995224346</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1036141165443399</v>
+        <v>0.1039906995224346</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1036141165443399</v>
+        <v>0.1039906995224346</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12165,17 +12220,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0356958096223485E-2</v>
+        <v>7.0612668743509868E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0356958096223485E-2</v>
+        <v>7.0612668743509868E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0356958096223485E-2</v>
+        <v>7.0612668743509868E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12235,14 +12290,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>296.73907552297283</v>
+        <v>297.24569813338411</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>296.73907552297283</v>
+        <v>297.24569813338411</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12263,14 +12318,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>172.90988164931815</v>
+        <v>173.11652312787234</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>172.90988164931815</v>
+        <v>173.11652312787234</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12313,21 +12368,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>277694.25141925178</v>
+        <v>278168.3588023198</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>147.5317648039443</v>
+        <v>147.7836457794169</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>147.5317648039443</v>
+        <v>147.7836457794169</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>206.45598782484078</v>
+        <v>206.80847012365001</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12376,27 +12431,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>277694.25141925178</v>
+        <v>278168.3588023198</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>125.40200008335265</v>
+        <v>125.61609891250436</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>147.5317648039443</v>
+        <v>147.7836457794169</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>147.5317648039443</v>
+        <v>147.7836457794169</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>147.5317648039443</v>
+        <v>147.7836457794169</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>206.45598782484078</v>
+        <v>206.80847012365001</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12437,27 +12492,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>161812.46121015676</v>
+        <v>162005.84036185141</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>73.071754890338426</v>
+        <v>73.159081625670495</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>85.966770459221678</v>
+        <v>86.069507794906471</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>85.966770459221678</v>
+        <v>86.069507794906471</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>85.966770459221678</v>
+        <v>86.069507794906471</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>120.30191965002133</v>
+        <v>120.44569030275827</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12498,27 +12553,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>219753.35631470429</v>
+        <v>220087.09958208559</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>99.236877486845543</v>
+        <v>99.387590269087426</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>116.749267631583</v>
+        <v>116.92657678716168</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>116.749267631583</v>
+        <v>116.92657678716168</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>116.749267631583</v>
+        <v>116.92657678716168</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>163.37895373743106</v>
+        <v>163.62708021320412</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0011.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0011.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F9FC87C-1918-45BA-ADBC-D3DCCB59AE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53DA0D80-72D0-4340-85AA-C5A9970926A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4160,7 +4160,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.0612668743509868E-2</v>
+        <v>7.0686070686070676E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4898,7 +4898,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>269</v>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>181262.3637168</v>
+        <v>181074.1369632</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5171,7 +5171,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.6162445737203974</v>
+        <v>9.6062588576521524</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.0612668743509868E-2</v>
+        <v>7.0686070686070676E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5233,20 +5233,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>73.159081625670495</v>
+        <v>73.184164250129086</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>138.51254384817199</v>
+        <v>138.56003293692143</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>86.069507794906471</v>
+        <v>86.099016764857751</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>120.44569030275827</v>
+        <v>120.48698516254038</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10299,8 +10299,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12169,17 +12169,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1039906995224346</v>
+        <v>0.1040987979626866</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1039906995224346</v>
+        <v>0.1040987979626866</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1039906995224346</v>
+        <v>0.1040987979626866</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12220,17 +12220,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0612668743509868E-2</v>
+        <v>7.0686070686070676E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0612668743509868E-2</v>
+        <v>7.0686070686070676E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0612668743509868E-2</v>
+        <v>7.0686070686070676E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12290,14 +12290,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>297.24569813338411</v>
+        <v>297.39125230068316</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>297.24569813338411</v>
+        <v>297.39125230068316</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12318,14 +12318,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>173.11652312787234</v>
+        <v>173.17587620667959</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>173.11652312787234</v>
+        <v>173.17587620667959</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12368,21 +12368,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>278168.3588023198</v>
+        <v>278304.57124908926</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>147.7836457794169</v>
+        <v>147.85601192512371</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>147.7836457794169</v>
+        <v>147.85601192512371</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>206.80847012365001</v>
+        <v>206.90973932568815</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12391,7 +12391,7 @@
         <v>145</v>
       </c>
       <c r="C98" s="91">
-        <f>E53*Exchange_Rate</f>
+        <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D98" s="213"/>
@@ -12430,28 +12430,28 @@
         <v>115</v>
       </c>
       <c r="C100" s="91">
-        <f>C97-C98+$C$99</f>
-        <v>278168.3588023198</v>
+        <f>C97+C98+$C$99</f>
+        <v>278304.57124908926</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>125.61609891250436</v>
+        <v>125.67761013635516</v>
       </c>
       <c r="E100" s="109">
-        <f>MAX(E97-H98+E99,0)</f>
-        <v>147.7836457794169</v>
+        <f>MAX(E97+H98+E99,0)</f>
+        <v>147.85601192512371</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>147.7836457794169</v>
+        <v>147.85601192512371</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>147.7836457794169</v>
+        <v>147.85601192512371</v>
       </c>
       <c r="I100" s="109">
-        <f>MAX(I97-H98+H99,0)</f>
-        <v>206.80847012365001</v>
+        <f>MAX(I97+H98+H99,0)</f>
+        <v>206.90973932568815</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12492,27 +12492,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>162005.84036185141</v>
+        <v>162061.38413801152</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>73.159081625670495</v>
+        <v>73.184164250129086</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>86.069507794906471</v>
+        <v>86.099016764857751</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>86.069507794906471</v>
+        <v>86.099016764857751</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>86.069507794906471</v>
+        <v>86.099016764857751</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>120.44569030275827</v>
+        <v>120.48698516254038</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12553,27 +12553,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>220087.09958208559</v>
+        <v>220182.97769355038</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>99.387590269087426</v>
+        <v>99.430887193242114</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>116.92657678716168</v>
+        <v>116.97751434499074</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>116.92657678716168</v>
+        <v>116.97751434499074</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>116.92657678716168</v>
+        <v>116.97751434499074</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>163.62708021320412</v>
+        <v>163.69836224411426</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0011.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0011.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53DA0D80-72D0-4340-85AA-C5A9970926A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38CD6EBC-0F6B-4C20-8FE4-5285063F70FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4160,7 +4160,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.0686070686070676E-2</v>
+        <v>7.1018276762402091E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4898,7 +4898,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>96.2</v>
+        <v>95.75</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>269</v>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>181074.1369632</v>
+        <v>180227.116572</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5171,7 +5171,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.6062588576521524</v>
+        <v>9.561323135345047</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.0686070686070676E-2</v>
+        <v>7.1018276762402091E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5233,20 +5233,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>73.184164250129086</v>
+        <v>73.297770452293307</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>138.56003293692143</v>
+        <v>138.77512426542128</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>86.099016764857751</v>
+        <v>86.232671120345074</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>120.48698516254038</v>
+        <v>120.67402110036635</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12169,17 +12169,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1040987979626866</v>
+        <v>0.10458803513326842</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1040987979626866</v>
+        <v>0.10458803513326842</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1040987979626866</v>
+        <v>0.10458803513326842</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12220,17 +12220,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0686070686070676E-2</v>
+        <v>7.1018276762402091E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0686070686070676E-2</v>
+        <v>7.1018276762402091E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0686070686070676E-2</v>
+        <v>7.1018276762402091E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12290,14 +12290,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>297.39125230068316</v>
+        <v>298.05072160128015</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>297.39125230068316</v>
+        <v>298.05072160128015</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12318,14 +12318,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>173.17587620667959</v>
+        <v>173.44470285522968</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>173.17587620667959</v>
+        <v>173.44470285522968</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12368,21 +12368,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>278304.57124908926</v>
+        <v>278921.71556498529</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>147.85601192512371</v>
+        <v>148.18388471902395</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>147.85601192512371</v>
+        <v>148.18388471902395</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>206.90973932568815</v>
+        <v>207.36856459382972</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12431,27 +12431,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>278304.57124908926</v>
+        <v>278921.71556498529</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>125.67761013635516</v>
+        <v>125.95630201117038</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>147.85601192512371</v>
+        <v>148.18388471902395</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>147.85601192512371</v>
+        <v>148.18388471902398</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>147.85601192512371</v>
+        <v>148.18388471902398</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>206.90973932568815</v>
+        <v>207.36856459382972</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12492,27 +12492,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>162061.38413801152</v>
+        <v>162312.95739239029</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>73.184164250129086</v>
+        <v>73.297770452293307</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>86.099016764857751</v>
+        <v>86.232671120345074</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>86.099016764857751</v>
+        <v>86.232671120345074</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>86.099016764857751</v>
+        <v>86.232671120345074</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>120.48698516254038</v>
+        <v>120.67402110036635</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12553,27 +12553,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>220182.97769355038</v>
+        <v>220617.33647868776</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>99.430887193242114</v>
+        <v>99.627036231731836</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>116.97751434499074</v>
+        <v>117.20827791968452</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>116.97751434499074</v>
+        <v>117.20827791968452</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>116.97751434499074</v>
+        <v>117.20827791968452</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>163.69836224411426</v>
+        <v>164.02129284709804</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0011.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0011.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38CD6EBC-0F6B-4C20-8FE4-5285063F70FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51457B04-28BB-44AE-A315-05D5754A5B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4160,7 +4160,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.1018276762402091E-2</v>
+        <v>7.1204188481675396E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4898,7 +4898,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>95.75</v>
+        <v>95.5</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>269</v>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>180227.116572</v>
+        <v>179756.549688</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5034,10 +5034,10 @@
         <v>253</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5084,7 +5084,7 @@
         <v>254</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5171,7 +5171,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.561323135345047</v>
+        <v>9.5363588451744334</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.1018276762402091E-2</v>
+        <v>7.1204188481675396E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5233,20 +5233,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>73.297770452293307</v>
+        <v>66.85720175999181</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>138.77512426542128</v>
+        <v>123.46426035628963</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>86.232671120345074</v>
+        <v>78.655531482343306</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>120.67402110036635</v>
+        <v>107.3602263967736</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12169,17 +12169,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10458803513326842</v>
+        <v>0.10486182580115656</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10458803513326842</v>
+        <v>0.10486182580115656</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10458803513326842</v>
+        <v>0.10486182580115656</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12220,17 +12220,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1018276762402091E-2</v>
+        <v>7.1204188481675396E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1018276762402091E-2</v>
+        <v>7.1204188481675396E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1018276762402091E-2</v>
+        <v>7.1204188481675396E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12279,7 +12279,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12290,14 +12290,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>298.05072160128015</v>
+        <v>271.96240780785098</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>298.05072160128015</v>
+        <v>271.96240780785098</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12318,14 +12318,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>173.44470285522968</v>
+        <v>158.20436858364369</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>173.44470285522968</v>
+        <v>158.20436858364369</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12368,21 +12368,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>278921.71556498529</v>
+        <v>254507.75944245904</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>148.18388471902395</v>
+        <v>135.21338203776949</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>148.18388471902395</v>
+        <v>135.21338203776949</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>207.36856459382972</v>
+        <v>184.55840338078531</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12431,27 +12431,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>278921.71556498529</v>
+        <v>254507.75944245904</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>125.95630201117038</v>
+        <v>114.93137473210406</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>148.18388471902395</v>
+        <v>135.21338203776949</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>148.18388471902398</v>
+        <v>135.21338203776949</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>148.18388471902398</v>
+        <v>135.21338203776949</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>207.36856459382972</v>
+        <v>184.55840338078531</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12492,27 +12492,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>162312.95739239029</v>
+        <v>148050.75343604077</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>73.297770452293307</v>
+        <v>66.85720175999181</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>86.232671120345074</v>
+        <v>78.655531482343306</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>86.232671120345074</v>
+        <v>78.655531482343306</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>86.232671120345074</v>
+        <v>78.655531482343306</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>120.67402110036635</v>
+        <v>107.3602263967736</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12553,27 +12553,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>220617.33647868776</v>
+        <v>201279.2564392499</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>99.627036231731836</v>
+        <v>90.894288246047935</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>117.20827791968452</v>
+        <v>106.93445676005641</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>117.20827791968452</v>
+        <v>106.93445676005641</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>117.20827791968452</v>
+        <v>106.93445676005641</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>164.02129284709804</v>
+        <v>145.95931488877946</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0011.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0011.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51457B04-28BB-44AE-A315-05D5754A5B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{588B4E6C-59EE-4212-A4DA-4F36B872E3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4160,7 +4171,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.1204188481675396E-2</v>
+        <v>7.2148541114058357E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4898,7 +4909,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>95.5</v>
+        <v>94.25</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>269</v>
@@ -4939,7 +4950,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>179756.549688</v>
+        <v>177403.715268</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5171,7 +5182,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.5363588451744334</v>
+        <v>9.4115373943213658</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5203,7 +5214,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.1204188481675396E-2</v>
+        <v>7.2148541114058357E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5233,20 +5244,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>66.85720175999181</v>
+        <v>67.152421819923219</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>123.46426035628963</v>
+        <v>124.00943911612795</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>78.655531482343306</v>
+        <v>79.002849199909676</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>107.3602263967736</v>
+        <v>107.83429488358954</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12169,17 +12180,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10486182580115656</v>
+        <v>0.10625256619639736</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10486182580115656</v>
+        <v>0.10625256619639736</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10486182580115656</v>
+        <v>0.10625256619639736</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12220,17 +12231,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1204188481675396E-2</v>
+        <v>7.2148541114058357E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1204188481675396E-2</v>
+        <v>7.2148541114058357E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1204188481675396E-2</v>
+        <v>7.2148541114058357E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12290,14 +12301,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>271.96240780785098</v>
+        <v>273.67838027487255</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>271.96240780785098</v>
+        <v>273.67838027487255</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12318,14 +12329,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>158.20436858364369</v>
+        <v>158.90294857121691</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>158.20436858364369</v>
+        <v>158.90294857121691</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12368,21 +12379,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>254507.75944245904</v>
+        <v>256113.60015907444</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>135.21338203776949</v>
+        <v>136.06652362678503</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>135.21338203776949</v>
+        <v>136.06652362678503</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>184.55840338078531</v>
+        <v>185.72289203681547</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12431,27 +12442,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>254507.75944245904</v>
+        <v>256113.60015907444</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>114.93137473210406</v>
+        <v>115.65654508276727</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>135.21338203776949</v>
+        <v>136.06652362678503</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>135.21338203776949</v>
+        <v>136.06652362678503</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>135.21338203776949</v>
+        <v>136.06652362678503</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>184.55840338078531</v>
+        <v>185.72289203681547</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12492,27 +12503,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>148050.75343604077</v>
+        <v>148704.49830049355</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>66.85720175999181</v>
+        <v>67.152421819923219</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>78.655531482343306</v>
+        <v>79.002849199909676</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>78.655531482343306</v>
+        <v>79.002849199909676</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>78.655531482343306</v>
+        <v>79.002849199909676</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>107.3602263967736</v>
+        <v>107.83429488358954</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12553,27 +12564,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>201279.2564392499</v>
+        <v>202409.049229784</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>90.894288246047935</v>
+        <v>91.404483451345243</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>106.93445676005641</v>
+        <v>107.53468641334734</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>106.93445676005641</v>
+        <v>107.53468641334734</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>106.93445676005641</v>
+        <v>107.53468641334734</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>145.95931488877946</v>
+        <v>146.7785934602025</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0011.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0011.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{588B4E6C-59EE-4212-A4DA-4F36B872E3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8639D005-3456-4A10-B34D-CF8869D7D52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -129,15 +126,9 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
   </si>
   <si>
-    <t>Orderly Liquidation Value per Shares =</t>
-  </si>
-  <si>
     <t>Book Quick Ratio</t>
   </si>
   <si>
@@ -452,10 +443,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -552,10 +539,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -914,10 +897,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -955,6 +934,42 @@
   </si>
   <si>
     <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1540,7 +1555,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2180,6 +2195,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3596,7 +3621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3610,28 +3635,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C6" s="189">
         <v>45606</v>
@@ -3647,24 +3672,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C10" s="193">
         <v>1882267536</v>
@@ -3672,7 +3697,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C11" s="192" t="s">
         <v>2</v>
@@ -3696,7 +3721,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3704,15 +3729,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C16" s="223">
         <v>0.23499999999999999</v>
@@ -3721,61 +3746,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3844,7 +3869,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C26" s="150">
         <v>2909</v>
@@ -3864,7 +3889,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C27" s="150">
         <v>14624</v>
@@ -3884,7 +3909,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C28" s="150"/>
       <c r="D28" s="150"/>
@@ -3900,7 +3925,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C29" s="150">
         <v>27144</v>
@@ -3920,7 +3945,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C30" s="150">
         <v>-10</v>
@@ -3940,7 +3965,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C31" s="150"/>
       <c r="D31" s="150"/>
@@ -3956,7 +3981,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C32" s="150"/>
       <c r="D32" s="150"/>
@@ -3972,7 +3997,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C33" s="150"/>
       <c r="D33" s="150"/>
@@ -4004,7 +4029,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -4020,7 +4045,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4052,7 +4077,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -4100,7 +4125,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150"/>
@@ -4116,7 +4141,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>139</v>
+        <v>256</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4132,7 +4157,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -4148,7 +4173,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C44" s="250">
         <f>3.2+1.2*3</f>
@@ -4167,7 +4192,7 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4216,21 +4241,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4240,7 +4265,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4250,7 +4275,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4261,7 +4286,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4271,7 +4296,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4281,7 +4306,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4292,7 +4317,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4302,7 +4327,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4313,7 +4338,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4321,24 +4346,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4349,7 +4374,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4360,7 +4385,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4371,7 +4396,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4382,7 +4407,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4393,7 +4418,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4404,7 +4429,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4414,31 +4439,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4446,12 +4471,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4462,7 +4487,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4473,7 +4498,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4483,7 +4508,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4494,7 +4519,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C72" s="247"/>
       <c r="D72" s="248">
@@ -4504,25 +4529,25 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C76" s="120"/>
     </row>
@@ -4534,55 +4559,55 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C83" s="59"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4590,10 +4615,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4601,18 +4626,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>128</v>
-      </c>
-      <c r="C89" s="271">
+        <v>124</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4621,20 +4646,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>101</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>98</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4652,7 +4677,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4673,7 +4698,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4694,7 +4719,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4712,7 +4737,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4733,7 +4758,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4751,7 +4776,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4769,7 +4794,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4897,13 +4922,13 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>190</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>0011.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
@@ -4912,47 +4937,47 @@
         <v>94.25</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>191</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>恒生銀行</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>1882267536</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="281">
+        <v>159</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45606</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="275">
+        <v>97</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
         <v>177403.715268</v>
       </c>
-      <c r="H5" s="275"/>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4975,16 +5000,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5009,40 +5034,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5055,29 +5080,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5087,12 +5112,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5102,29 +5127,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>4.1966617135767562E-2</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5132,7 +5157,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5143,26 +5168,26 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5171,14 +5196,14 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>0.39159225009737869</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
@@ -5187,14 +5212,14 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5203,14 +5228,14 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.35546835552606143</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
@@ -5224,23 +5249,23 @@
         <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>238</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>257</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>233</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>251</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
@@ -5255,31 +5280,31 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>79.002849199909676</v>
       </c>
-      <c r="G29" s="274">
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>107.83429488358954</v>
       </c>
-      <c r="H29" s="274"/>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5289,25 +5314,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5317,7 +5342,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5327,14 +5352,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5344,7 +5369,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5359,14 +5384,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6319,12 +6344,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6351,16 +6376,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>199</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>200</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>203</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>204</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>205</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6378,7 +6403,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6411,7 +6436,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6422,7 +6447,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6574,7 +6599,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6625,7 +6650,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6676,7 +6701,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6727,7 +6752,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6778,7 +6803,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6829,7 +6854,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6880,7 +6905,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6931,7 +6956,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6982,7 +7007,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7033,7 +7058,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7084,7 +7109,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7135,7 +7160,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7186,7 +7211,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7237,7 +7262,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7288,7 +7313,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7339,7 +7364,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7390,7 +7415,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7441,7 +7466,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7492,7 +7517,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7645,7 +7670,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7696,7 +7721,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7798,7 +7823,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8002,7 +8027,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8053,7 +8078,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8104,7 +8129,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8155,7 +8180,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8206,7 +8231,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8257,7 +8282,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8275,7 +8300,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8326,7 +8351,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8377,7 +8402,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8428,7 +8453,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8479,7 +8504,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8530,7 +8555,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8581,7 +8606,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8632,7 +8657,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>150</v>
+        <v>258</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8649,50 +8674,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>147</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="156" t="str">
+      <c r="B50" s="271" t="s">
+        <v>260</v>
+      </c>
+      <c r="C50" s="272" t="e">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D50" s="272" t="e">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="156" t="str">
+      <c r="F50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="156" t="str">
+      <c r="G50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="156" t="str">
+      <c r="H50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="156" t="str">
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8701,10 +8726,10 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
       <c r="D51" s="153" t="str">
@@ -8752,167 +8777,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>261</v>
-      </c>
-      <c r="C52" s="153" t="e">
+        <v>144</v>
+      </c>
+      <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>125</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="D53" s="153" t="str">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="F53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="G53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54" s="156" t="e">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D54" s="156" t="str">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>259</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="C55" s="157" t="str">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D55" s="157" t="str">
+      <c r="B55" s="95" t="s">
+        <v>261</v>
+      </c>
+      <c r="C55" s="156" t="e">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D55" s="156" t="str">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v/>
+      </c>
+      <c r="E55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E55" s="157" t="str">
+      <c r="F55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8920,112 +8946,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>1.1016233766233767</v>
-      </c>
-      <c r="D56" s="153">
+        <v>118</v>
+      </c>
+      <c r="C56" s="157" t="str">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>0.49517219182491151</v>
-      </c>
-      <c r="E56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="153" t="str">
+      <c r="F56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="153" t="str">
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="153" t="str">
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="153" t="str">
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="C57" s="158" t="e">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>1.1016233766233767</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>0.49517219182491151</v>
+      </c>
+      <c r="E57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="158" t="e">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="D58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>262</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>263</v>
+      </c>
+      <c r="C60" s="274" t="e">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D60" s="274" t="e">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>264</v>
+      </c>
+      <c r="C61" s="274" t="e">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D61" s="274" t="e">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="F61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="G61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="H61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9588,7 +9804,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10271,6 +10489,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10310,8 +10529,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10329,7 +10548,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10344,7 +10563,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10358,7 +10577,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10368,7 +10587,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10386,10 +10605,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10398,12 +10617,13 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>27</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in HKD</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
+        <f>(E49-I49-E53)</f>
         <v>0</v>
       </c>
       <c r="E6" s="56" t="e">
@@ -10413,7 +10633,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10423,8 +10643,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>29</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10436,7 +10657,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10454,7 +10675,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10473,32 +10694,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>33</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10515,7 +10736,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10526,7 +10747,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10543,7 +10764,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10554,7 +10775,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10571,7 +10792,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10582,7 +10803,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10599,7 +10820,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10610,7 +10831,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10627,7 +10848,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10637,7 +10858,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10659,7 +10880,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10681,7 +10902,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10702,7 +10923,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10727,7 +10948,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10754,7 +10975,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10775,7 +10996,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10792,7 +11013,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10804,13 +11025,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10832,7 +11053,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10852,7 +11073,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10861,7 +11082,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10881,7 +11102,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10894,7 +11115,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10914,7 +11135,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10960,7 +11181,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -10969,7 +11190,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -10985,7 +11206,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -10995,7 +11216,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11012,7 +11233,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11022,7 +11243,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11039,7 +11260,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11049,7 +11270,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11069,7 +11290,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11079,7 +11300,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11096,7 +11317,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11106,7 +11327,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11132,7 +11353,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11159,7 +11380,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11186,7 +11407,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11207,7 +11428,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11228,7 +11449,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11249,7 +11470,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11270,7 +11491,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11287,7 +11508,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11305,7 +11526,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11324,7 +11545,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11343,7 +11564,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11360,7 +11581,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11373,7 +11594,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11390,7 +11611,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11403,7 +11624,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11420,7 +11641,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11447,7 +11668,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11463,14 +11684,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11487,7 +11708,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11517,7 +11738,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11528,14 +11749,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11543,30 +11764,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11583,11 +11804,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11597,7 +11818,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11618,7 +11839,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11639,7 +11860,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11660,7 +11881,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11675,7 +11896,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11706,11 +11927,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11720,7 +11941,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11741,7 +11962,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11756,7 +11977,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11778,21 +11999,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>128</v>
-      </c>
-      <c r="C72" s="271">
+        <v>124</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>207</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>202</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11802,23 +12023,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>101</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>102</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>102</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>98</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>99</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>99</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11839,7 +12060,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11869,7 +12090,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -11890,7 +12111,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11920,7 +12141,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11950,7 +12171,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11981,7 +12202,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12008,12 +12229,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12043,7 +12264,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12073,7 +12294,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12103,7 +12324,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12124,7 +12345,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12155,7 +12376,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12176,7 +12397,7 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
@@ -12197,7 +12418,7 @@
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12227,7 +12448,7 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
@@ -12258,29 +12479,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>207</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>152</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>202</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12297,14 +12518,14 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
         <v>273.67838027487255</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
@@ -12314,7 +12535,7 @@
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12325,14 +12546,14 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
         <v>158.90294857121691</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
@@ -12355,27 +12576,27 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
@@ -12399,7 +12620,7 @@
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -12417,7 +12638,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12438,7 +12659,7 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
@@ -12472,34 +12693,34 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
@@ -12533,34 +12754,34 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
@@ -12593,7 +12814,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12602,6 +12823,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0011.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0011.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8639D005-3456-4A10-B34D-CF8869D7D52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF717FCA-D5E1-4915-8953-FD08463DA48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="271">
   <si>
     <t>Company Info:</t>
   </si>
@@ -527,14 +527,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -601,21 +593,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -643,9 +623,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -667,9 +644,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -869,14 +843,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>- (CAPX - D&amp;A)</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -953,10 +919,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -970,6 +932,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1291,7 +1289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1549,13 +1547,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2205,6 +2319,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2444,981 +2582,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>4.1966617135767562E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2109727772407923</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.39159225009737869</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.35546835552606143</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3621,7 +2784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3635,28 +2798,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C6" s="189">
         <v>45606</v>
@@ -3672,24 +2835,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C10" s="193">
         <v>1882267536</v>
@@ -3697,7 +2860,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C11" s="192" t="s">
         <v>2</v>
@@ -3721,7 +2884,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3729,10 +2892,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3746,55 +2909,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3925,7 +3088,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C29" s="150">
         <v>27144</v>
@@ -4045,7 +3208,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4141,7 +3304,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4173,7 +3336,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C44" s="250">
         <f>3.2+1.2*3</f>
@@ -4192,11 +3355,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.2148541114058357E-2</v>
+        <v>7.2340425531914887E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4241,13 +3404,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>33</v>
@@ -4306,7 +3469,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4317,7 +3480,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4418,7 +3581,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4429,7 +3592,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4589,7 +3752,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4607,7 +3770,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4615,10 +3778,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4628,16 +3791,16 @@
       <c r="B89" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4646,10 +3809,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>98</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>99</v>
       </c>
@@ -4698,7 +3861,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4719,7 +3882,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4737,7 +3900,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4776,7 +3939,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4794,7 +3957,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4880,8 +4043,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4922,62 +4085,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>182</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>0011.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>94.25</v>
+        <v>94</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>183</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>恒生銀行</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>1882267536</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="285">
+        <v>157</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45606</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>177403.715268</v>
-      </c>
-      <c r="H5" s="279"/>
+        <v>176933.148384</v>
+      </c>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5000,16 +4163,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5034,40 +4197,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5080,29 +4243,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5112,12 +4275,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5125,9 +4288,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>179</v>
+        <v>262</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>49</v>
@@ -5135,59 +4298,59 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>4.1966617135767562E-2</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="276" t="e">
+        <f>C23*C22*(1/C21)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>240</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.2109727772407923</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C55</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>187</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>0</v>
+      <c r="B22" s="279" t="s">
+        <v>257</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C50</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>167</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>258</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>0.74706060562344012</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5196,30 +4359,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>166</v>
+        <v>259</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>0.39159225009737869</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.4115373943213658</v>
+        <v>9.3865731041507523</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
+        <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5228,18 +4391,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>169</v>
+        <v>261</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>0.35546835552606143</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.2148541114058357E-2</v>
+        <v>7.2340425531914887E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5249,62 +4412,62 @@
         <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>233</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>251</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>225</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>241</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>67.152421819923219</v>
+        <v>67.212535302266417</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>124.00943911612795</v>
+        <v>124.12044984406099</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>79.002849199909676</v>
-      </c>
-      <c r="G29" s="278">
+        <v>79.073570943842853</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>107.83429488358954</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>107.93082595135739</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5314,7 +4477,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5325,14 +4488,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5342,7 +4505,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5352,14 +4515,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5369,7 +4532,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5384,14 +4547,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6335,7 +5498,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6349,7 +5511,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6376,16 +5538,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6403,7 +5565,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6436,7 +5598,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6803,7 +5965,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6854,7 +6016,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6905,7 +6067,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6956,7 +6118,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7058,7 +6220,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7211,7 +6373,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7721,7 +6883,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8231,7 +7393,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8282,7 +7444,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8351,7 +7513,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8555,7 +7717,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8657,7 +7819,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8675,14 +7837,14 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C39)</f>
+        <f>IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E50" s="272" t="str">
@@ -8726,7 +7888,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>143</v>
+        <v>255</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8777,7 +7939,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>144</v>
+        <v>256</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8828,7 +7990,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -8879,7 +8041,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -8896,7 +8058,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C55" s="156" t="e">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9096,7 +8258,7 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
@@ -9146,7 +8308,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C60" s="274" t="e">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9196,7 +8358,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C61" s="274" t="e">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10700,7 +9862,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>32</v>
@@ -10858,7 +10020,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11270,7 +10432,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11738,7 +10900,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11752,11 +10914,11 @@
         <v>87</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11767,11 +10929,11 @@
         <v>88</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11783,11 +10945,11 @@
         <v>90</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11804,7 +10966,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11881,7 +11043,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11927,7 +11089,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11962,7 +11124,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12001,19 +11163,19 @@
       <c r="B72" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>202</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>194</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -12023,18 +11185,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>99</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>99</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12111,7 +11273,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12141,7 +11303,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12171,7 +11333,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12234,7 +11396,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12264,7 +11426,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12345,7 +11507,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12376,7 +11538,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12397,28 +11559,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10625256619639736</v>
+        <v>0.10653515280862182</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10625256619639736</v>
+        <v>0.10653515280862182</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10625256619639736</v>
+        <v>0.10653515280862182</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12448,21 +11610,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2148541114058357E-2</v>
+        <v>7.2340425531914887E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2148541114058357E-2</v>
+        <v>7.2340425531914887E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2148541114058357E-2</v>
+        <v>7.2340425531914887E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12484,24 +11646,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>202</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>150</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>194</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12518,24 +11680,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>273.67838027487255</v>
+        <v>274.02810767845762</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>273.67838027487255</v>
+        <v>274.02810767845762</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12546,18 +11708,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>158.90294857121691</v>
+        <v>159.04519525918943</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>158.90294857121691</v>
+        <v>159.04519525918943</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12576,14 +11738,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12600,21 +11762,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>256113.60015907444</v>
+        <v>256440.88192797595</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>136.06652362678503</v>
+        <v>136.24039995554381</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>136.06652362678503</v>
+        <v>136.24039995554381</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>185.72289203681547</v>
+        <v>185.96022311409351</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12663,27 +11825,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>256113.60015907444</v>
+        <v>256440.88192797595</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>115.65654508276727</v>
+        <v>115.80433996221224</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>136.06652362678503</v>
+        <v>136.24039995554381</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>136.06652362678503</v>
+        <v>136.24039995554381</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>136.06652362678503</v>
+        <v>136.24039995554381</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>185.72289203681547</v>
+        <v>185.96022311409351</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12693,21 +11855,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12720,31 +11882,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>148704.49830049355</v>
+        <v>148837.61554318829</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>67.152421819923219</v>
+        <v>67.212535302266417</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>79.002849199909676</v>
+        <v>79.073570943842853</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>79.002849199909676</v>
+        <v>79.073570943842853</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>79.002849199909676</v>
+        <v>79.073570943842853</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>107.83429488358954</v>
+        <v>107.93082595135739</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12754,21 +11916,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12781,31 +11943,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>202409.049229784</v>
+        <v>202639.24873558214</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>91.404483451345243</v>
+        <v>91.508437632239321</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>107.53468641334734</v>
+        <v>107.65698544969334</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>107.53468641334734</v>
+        <v>107.65698544969334</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>107.53468641334734</v>
+        <v>107.65698544969334</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>146.7785934602025</v>
+        <v>146.94552453272544</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12814,7 +11976,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0011.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0011.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF717FCA-D5E1-4915-8953-FD08463DA48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D47AED3-1B22-4918-A88F-1F3595D5A23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -407,10 +407,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -903,10 +899,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -968,6 +960,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2393,7 +2397,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2490,12 +2494,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2784,7 +2804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2798,28 +2818,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45606</v>
@@ -2835,24 +2855,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>1882267536</v>
@@ -2860,7 +2880,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
         <v>2</v>
@@ -2884,7 +2904,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2892,10 +2912,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2909,61 +2929,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3088,7 +3108,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C29" s="150">
         <v>27144</v>
@@ -3174,9 +3194,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>15</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>263</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150"/>
@@ -3192,7 +3212,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -3208,7 +3228,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -3223,10 +3243,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150"/>
       <c r="E37" s="150"/>
       <c r="F37" s="150"/>
@@ -3238,9 +3259,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>113</v>
+        <v>262</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -3287,10 +3308,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150"/>
       <c r="E41" s="150"/>
       <c r="F41" s="150"/>
@@ -3304,9 +3326,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>134</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150"/>
       <c r="E42" s="150"/>
       <c r="F42" s="150"/>
@@ -3320,7 +3342,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -3336,7 +3358,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <f>3.2+1.2*3</f>
@@ -3355,11 +3377,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.2340425531914887E-2</v>
+        <v>7.2186836518046707E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3404,13 +3426,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>33</v>
@@ -3428,7 +3450,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -3438,7 +3460,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -3469,7 +3491,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -3480,7 +3502,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3514,7 +3536,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3581,7 +3603,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3592,7 +3614,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3639,7 +3661,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -3752,7 +3774,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -3770,7 +3792,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3778,10 +3800,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3789,7 +3811,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3797,10 +3819,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3822,7 +3844,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3861,7 +3883,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -3882,7 +3904,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -3900,7 +3922,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -3939,7 +3961,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -3957,7 +3979,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -3980,28 +4002,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4043,8 +4070,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4085,7 +4112,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4097,15 +4124,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>94</v>
+        <v>94.2</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4125,7 +4152,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4138,7 +4165,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>176933.148384</v>
+        <v>177309.6018912</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4172,7 +4199,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4197,40 +4224,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4243,29 +4270,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4275,12 +4302,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4290,7 +4317,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>49</v>
@@ -4298,21 +4325,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4320,10 +4347,10 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C21" s="278" t="e">
-        <f>Data!C55</f>
+        <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
@@ -4331,58 +4358,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C22" s="280" t="e">
-        <f>Data!C50</f>
+        <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>0.74706060562344012</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177" t="e">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>0.39159225009737869</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.3865731041507523</v>
+        <v>9.4065445362872424</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4391,18 +4418,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.2340425531914887E-2</v>
+        <v>7.2186836518046707E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4412,40 +4439,40 @@
         <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>160</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>161</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>67.212535302266417</v>
+        <v>67.164415553716452</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>124.12044984406099</v>
+        <v>124.03158777674652</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>79.073570943842853</v>
+        <v>79.01695947496053</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>107.93082595135739</v>
+        <v>107.85355458847525</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4453,21 +4480,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4477,25 +4504,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4505,7 +4532,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4515,14 +4542,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4532,7 +4559,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4547,14 +4574,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5454,27 +5481,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5506,12 +5533,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5538,16 +5565,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>190</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>191</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>192</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5565,7 +5592,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -5598,7 +5625,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5609,7 +5636,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5965,7 +5992,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6016,7 +6043,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6067,7 +6094,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6118,7 +6145,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6220,7 +6247,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6373,7 +6400,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6628,7 +6655,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6679,7 +6706,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6733,15 +6760,15 @@
         <v>14</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
+        <f>IF(C34="","",C34+C30)</f>
         <v>0</v>
       </c>
       <c r="D27" s="65" t="str">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
+        <f>IF(D34="","",D34+D30)</f>
         <v/>
       </c>
       <c r="E27" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
         <v/>
       </c>
       <c r="F27" s="65" t="str">
@@ -6781,50 +6808,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
+        <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
       <c r="D28" s="199" t="str">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6832,50 +6859,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
+        <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
       <c r="D29" s="199" t="str">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -6883,101 +6910,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>143</v>
+        <v>261</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D30" s="199" t="str">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
       <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
       <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
+        <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
       <c r="D31" s="199" t="str">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
       <c r="E31" s="199" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
       <c r="F31" s="199" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -6985,101 +7012,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
+        <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
       <c r="D32" s="199" t="str">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
       <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
       <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="199" t="str">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v/>
-      </c>
-      <c r="E33" s="199" t="str">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v/>
-      </c>
-      <c r="F33" s="199" t="str">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v/>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>19</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="77" t="str">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v/>
+      </c>
+      <c r="E33" s="77" t="str">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v/>
+      </c>
+      <c r="F33" s="77" t="str">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7087,50 +7114,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="D34" s="199" t="str">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
       <c r="E34" s="199" t="str">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
       <c r="F34" s="199" t="str">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7138,50 +7165,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="77" t="str">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v/>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>134</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199" t="str">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v/>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7189,50 +7216,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
+        <f>Inputs!C40</f>
         <v>0</v>
       </c>
       <c r="D36" s="199" t="str">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
       <c r="E36" s="199" t="str">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
       <c r="F36" s="199" t="str">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7240,272 +7267,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="199" t="str">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v/>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="65" t="str">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v/>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="199" t="str">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v/>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="155" t="e">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="155" t="e">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="155" t="str">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v/>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>137</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="65" t="str">
-        <f>IF(D38="","",D27-D38)</f>
-        <v/>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>151</v>
-      </c>
-      <c r="C40" s="155" t="e">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D40" s="155" t="e">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="155" t="str">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v/>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>4.1966617135767562E-2</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>5.1879493947392372E-2</v>
+      </c>
+      <c r="E40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="F40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="G40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="H40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>247</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>221</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.2109727772407923</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.31389369254573585</v>
+      </c>
+      <c r="E41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="F41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="H41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>4.1966617135767562E-2</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>5.1879493947392372E-2</v>
-      </c>
-      <c r="E42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="F42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="H42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="F42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="G42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="H42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7513,50 +7540,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>222</v>
+        <v>118</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.2109727772407923</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>0.39159225009737869</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.31389369254573585</v>
+        <f t="shared" si="37"/>
+        <v>0.21004368799490306</v>
       </c>
       <c r="E43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="F43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="G43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7564,50 +7591,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="E44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="F44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="G44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="H44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7615,50 +7642,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>119</v>
+        <v>223</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>0.39159225009737869</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>0</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>0.21004368799490306</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="E45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="F45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="G45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="H45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7666,221 +7693,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>0.35546835552606143</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>0.42418312551196868</v>
       </c>
       <c r="E46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="F46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>224</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="F47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="G47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="H47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>0.35546835552606143</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>0.42418312551196868</v>
-      </c>
-      <c r="E48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="F48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="G48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="H48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>252</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="F48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="G48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="H48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>254</v>
       </c>
-      <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -7888,522 +7915,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>0</v>
+        <v>244</v>
+      </c>
+      <c r="C51" s="153" t="e">
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="D51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>247</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>245</v>
-      </c>
-      <c r="C53" s="153" t="e">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D53" s="153" t="str">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="157" t="str">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>-</v>
+      </c>
+      <c r="D54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="C55" s="156" t="e">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D55" s="156" t="str">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v/>
-      </c>
-      <c r="E55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>1.1016233766233767</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>0.49517219182491151</v>
+      </c>
+      <c r="E55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C56" s="157" t="str">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>1.1016233766233767</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>0.49517219182491151</v>
-      </c>
-      <c r="E57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" s="158" t="e">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
+      <c r="B58" s="271" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="D58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>251</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>252</v>
-      </c>
-      <c r="C60" s="274" t="e">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D60" s="274" t="e">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="F60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="G60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="H60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C61" s="274" t="e">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D61" s="274" t="e">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="F61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="G61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="H61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -8963,12 +8894,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9650,27 +9577,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9862,7 +9792,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>32</v>
@@ -9909,7 +9839,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -9937,7 +9867,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10020,7 +9950,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10042,7 +9972,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10110,7 +10040,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10432,7 +10362,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10569,7 +10499,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10900,7 +10830,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -10966,7 +10896,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11001,7 +10931,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11022,7 +10952,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11043,7 +10973,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11058,7 +10988,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11089,7 +11019,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11103,7 +11033,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11124,7 +11054,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11139,7 +11069,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11161,7 +11091,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11169,11 +11099,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11201,7 +11131,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11273,7 +11203,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11303,7 +11233,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11333,7 +11263,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11391,12 +11321,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11426,7 +11356,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11456,7 +11386,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11507,7 +11437,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11538,7 +11468,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11559,28 +11489,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10653515280862182</v>
+        <v>0.10630896352452708</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10653515280862182</v>
+        <v>0.10630896352452708</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10653515280862182</v>
+        <v>0.10630896352452708</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11610,21 +11540,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2340425531914887E-2</v>
+        <v>7.2186836518046707E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2340425531914887E-2</v>
+        <v>7.2186836518046707E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2340425531914887E-2</v>
+        <v>7.2186836518046707E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11641,27 +11571,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11680,24 +11610,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>274.02810767845762</v>
+        <v>273.74814871522375</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>274.02810767845762</v>
+        <v>273.74814871522375</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11708,18 +11638,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>159.04519525918943</v>
+        <v>158.93132937435803</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>159.04519525918943</v>
+        <v>158.93132937435803</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11738,14 +11668,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11758,31 +11688,31 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>256440.88192797595</v>
+        <v>256178.89083500541</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>136.24039995554381</v>
+        <v>136.1012108721857</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>136.24039995554381</v>
+        <v>136.1012108721857</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>185.96022311409351</v>
+        <v>185.77023810961052</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -11800,7 +11730,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -11825,27 +11755,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>256440.88192797595</v>
+        <v>256178.89083500541</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>115.80433996221224</v>
+        <v>115.68602924135784</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>136.24039995554381</v>
+        <v>136.1012108721857</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>136.24039995554381</v>
+        <v>136.1012108721857</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>136.24039995554381</v>
+        <v>136.1012108721857</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>185.96022311409351</v>
+        <v>185.77023810961052</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11855,21 +11785,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -11882,31 +11812,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>148837.61554318829</v>
+        <v>148731.05761314582</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>67.212535302266417</v>
+        <v>67.164415553716452</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>79.073570943842853</v>
+        <v>79.01695947496053</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>79.073570943842853</v>
+        <v>79.01695947496053</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>79.073570943842853</v>
+        <v>79.01695947496053</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>107.93082595135739</v>
+        <v>107.85355458847525</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11916,21 +11846,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -11943,31 +11873,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>202639.24873558214</v>
+        <v>202454.97422407562</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>91.508437632239321</v>
+        <v>91.425222397537141</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>107.65698544969334</v>
+        <v>107.55908517357312</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>107.65698544969334</v>
+        <v>107.55908517357312</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>107.65698544969334</v>
+        <v>107.55908517357312</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>146.94552453272544</v>
+        <v>146.81189634904288</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11976,7 +11906,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0011.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0011.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D47AED3-1B22-4918-A88F-1F3595D5A23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF240D53-7064-44EE-96BE-68CB13032021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -748,10 +748,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -939,10 +935,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -972,6 +964,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1908,7 +1916,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2144,12 +2151,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2348,6 +2351,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2587,8 +2595,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2804,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2822,162 +2830,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>264</v>
+      <c r="C4" s="187" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>182</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>265</v>
+      <c r="C5" s="190" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45606</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="191" t="s">
-        <v>266</v>
-      </c>
-      <c r="E8" s="267"/>
+      <c r="C8" s="190" t="s">
+        <v>268</v>
+      </c>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>267</v>
+      <c r="C9" s="191" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>1882267536</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>205</v>
       </c>
-      <c r="C11" s="192" t="s">
+      <c r="C11" s="191" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>206</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="176" t="s">
+      <c r="B15" s="215" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="175" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.23499999999999999</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>211</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>268</v>
+      <c r="B17" s="237" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>270</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>270</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>225</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>268</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>226</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>268</v>
+      <c r="C19" s="239" t="s">
+        <v>270</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>215</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>268</v>
+      <c r="B20" s="238" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>270</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>218</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>268</v>
+      <c r="B21" s="221" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>270</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>217</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>269</v>
+      <c r="B22" s="223" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>271</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3034,404 +3042,408 @@
       <c r="B25" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>69317</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>43948</v>
       </c>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>2909</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>2280</v>
       </c>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <v>14624</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <v>13795</v>
       </c>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="150">
+        <v>238</v>
+      </c>
+      <c r="C29" s="149">
         <v>27144</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>9231</v>
       </c>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="149">
         <v>-10</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <v>-14</v>
       </c>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>263</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+        <v>261</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="B37" s="94" t="s">
+        <v>259</v>
+      </c>
+      <c r="C37" s="149">
+        <v>0</v>
+      </c>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+        <v>260</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="C39" s="214"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="B41" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="149">
+        <v>0</v>
+      </c>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="C42" s="149">
+        <v>0</v>
+      </c>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="C43" s="214"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <f>3.2+1.2*3</f>
         <v>6.8</v>
       </c>
-      <c r="D44" s="250"/>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="D44" s="247"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="152">
+        <v>234</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.2186836518046707E-2</v>
-      </c>
-      <c r="D45" s="152" t="str">
+        <v>7.2494669509594878E-2</v>
+      </c>
+      <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3502,7 +3514,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3530,7 +3542,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3542,7 +3554,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3561,8 +3573,8 @@
       <c r="B59" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3614,7 +3626,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3630,7 +3642,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3642,7 +3654,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3655,7 +3667,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3703,14 +3715,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="247"/>
-      <c r="D72" s="248">
-        <v>0</v>
-      </c>
-      <c r="E72" s="249"/>
+      <c r="C72" s="244"/>
+      <c r="D72" s="245">
+        <v>0</v>
+      </c>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3734,7 +3746,7 @@
       <c r="B76" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
@@ -3764,19 +3776,19 @@
       <c r="B81" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="C82" s="83"/>
-    </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+        <v>264</v>
+      </c>
+      <c r="C82" s="214"/>
+    </row>
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
-      </c>
-      <c r="C83" s="59"/>
+        <v>265</v>
+      </c>
+      <c r="C83" s="214"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
@@ -3792,20 +3804,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="197">
+        <v>233</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>270</v>
-      </c>
-      <c r="D87" s="269">
+        <v>231</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>272</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3835,10 +3847,10 @@
         <v>98</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>99</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3850,12 +3862,12 @@
         <f>C25</f>
         <v>69317</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>69317</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>69317</v>
       </c>
@@ -3868,75 +3880,75 @@
         <f>C26</f>
         <v>2909</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>4.1966617135767562E-2</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>2909</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>2909</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>14624</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.2109727772407923</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>14624</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>14624</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>27144</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>0.39159225009737869</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>27144</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -3949,12 +3961,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -3967,12 +3979,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>0</v>
       </c>
@@ -3981,16 +3993,16 @@
       <c r="B98" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>6.8</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>F98</f>
         <v>6.8</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <f>C98</f>
         <v>6.8</v>
       </c>
@@ -4071,7 +4083,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4123,11 +4135,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>94.2</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>271</v>
+      <c r="G3" s="131">
+        <v>93.8</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4165,7 +4177,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>177309.6018912</v>
+        <v>176556.6948768</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4175,11 +4187,11 @@
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4201,11 +4213,11 @@
       <c r="B7" s="86" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0014</v>
       </c>
@@ -4213,7 +4225,7 @@
       <c r="F7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="133">
+      <c r="G7" s="132">
         <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
@@ -4223,10 +4235,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>178</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4234,7 +4246,7 @@
       <c r="B10" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4242,13 +4254,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4257,12 +4269,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="174">
+        <v>235</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4272,7 +4284,7 @@
       <c r="B14" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4283,7 +4295,7 @@
       <c r="B15" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4291,13 +4303,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
@@ -4307,49 +4319,49 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="175">
+        <v>236</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>260</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>250</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" s="273" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>198</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="275" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
@@ -4357,79 +4369,79 @@
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>255</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="277" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="142" t="s">
+      <c r="F22" s="141" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>256</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>0.74706060562344012</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>176</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>257</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>0.39159225009737869</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>241</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.4065445362872424</v>
+        <v>9.3666016720142604</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>258</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>163</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>0.67902869264069265</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>259</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.2186836518046707E-2</v>
+        <v>7.2494669509594878E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4446,10 +4458,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4457,22 +4469,22 @@
       <c r="B29" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>67.164415553716452</v>
-      </c>
-      <c r="D29" s="129">
+        <v>67.260888005215477</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>124.03158777674652</v>
+        <v>124.2097421050094</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>79.01695947496053</v>
+        <v>79.130456476724092</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>107.85355458847525</v>
+        <v>108.00847139566035</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4480,23 +4492,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>210</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>209</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>210</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>agree</v>
       </c>
@@ -4504,9 +4516,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="C34" s="225" t="e">
+        <v>211</v>
+      </c>
+      <c r="C34" s="222" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4514,17 +4526,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>agree</v>
       </c>
@@ -4532,26 +4544,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>225</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>214</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>213</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>214</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4559,9 +4571,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>217</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>agree</v>
       </c>
@@ -4574,16 +4586,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>217</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5535,10 +5547,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5564,16 +5576,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>186</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>191</v>
       </c>
       <c r="I2" s="7"/>
@@ -5587,11 +5599,11 @@
       <c r="B3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -5616,7 +5628,7 @@
       <c r="B4" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000000</v>
       </c>
@@ -5624,7 +5636,7 @@
         <f>Dashboard!G6</f>
         <v>HKD</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -5688,47 +5700,47 @@
       <c r="B6" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>69317</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>43948</v>
       </c>
-      <c r="E6" s="200" t="str">
+      <c r="E6" s="199" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="200" t="str">
+      <c r="F6" s="199" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="200" t="str">
+      <c r="G6" s="199" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="200" t="str">
+      <c r="H6" s="199" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5790,47 +5802,47 @@
       <c r="B8" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>2909</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>2280</v>
       </c>
-      <c r="E8" s="199" t="str">
+      <c r="E8" s="198" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="199" t="str">
+      <c r="F8" s="198" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="199" t="str">
+      <c r="G8" s="198" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="199" t="str">
+      <c r="H8" s="198" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5841,47 +5853,47 @@
       <c r="B9" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>66408</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>41668</v>
       </c>
-      <c r="E9" s="151" t="str">
+      <c r="E9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="151" t="str">
+      <c r="F9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="151" t="str">
+      <c r="G9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="151" t="str">
+      <c r="H9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5892,47 +5904,47 @@
       <c r="B10" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>14624</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>13795</v>
       </c>
-      <c r="E10" s="199" t="str">
+      <c r="E10" s="198" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="199" t="str">
+      <c r="F10" s="198" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="199" t="str">
+      <c r="G10" s="198" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="199" t="str">
+      <c r="H10" s="198" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -5943,47 +5955,47 @@
       <c r="B11" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="199" t="str">
+      <c r="C11" s="198" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="199" t="str">
+      <c r="D11" s="198" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -5992,49 +6004,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
-      </c>
-      <c r="C12" s="199">
+        <v>226</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="E12" s="199" t="str">
+      <c r="E12" s="198" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="199" t="str">
+      <c r="F12" s="198" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="199" t="str">
+      <c r="G12" s="198" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="199" t="str">
+      <c r="H12" s="198" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6042,50 +6054,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.74706060562344012</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>0.63422681350687171</v>
       </c>
-      <c r="E13" s="229" t="str">
+      <c r="E13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="229" t="str">
+      <c r="F13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="229" t="str">
+      <c r="G13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="229" t="str">
+      <c r="H13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6093,50 +6105,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>220</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>51784</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>27873</v>
       </c>
-      <c r="E14" s="230" t="str">
+      <c r="E14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="230" t="str">
+      <c r="F14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="230" t="str">
+      <c r="G14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="230" t="str">
+      <c r="H14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6144,50 +6156,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>229</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.85785527212714818</v>
       </c>
-      <c r="D15" s="232" t="str">
+      <c r="D15" s="229" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="232" t="str">
+      <c r="E15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="232" t="str">
+      <c r="F15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="232" t="str">
+      <c r="G15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6198,47 +6210,47 @@
       <c r="B16" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="199" t="str">
+      <c r="C16" s="198" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="199" t="str">
+      <c r="D16" s="198" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="198" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="199" t="str">
+      <c r="F16" s="198" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6247,49 +6259,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="199">
+        <v>238</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>27144</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>9231</v>
       </c>
-      <c r="E17" s="199" t="str">
+      <c r="E17" s="198" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="199" t="str">
+      <c r="F17" s="198" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="199" t="str">
+      <c r="G17" s="198" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="199" t="str">
+      <c r="H17" s="198" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6300,47 +6312,47 @@
       <c r="B18" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="152" t="str">
+      <c r="C18" s="151" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="152" t="str">
+      <c r="D18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="G18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6351,47 +6363,47 @@
       <c r="B19" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="199" t="str">
+      <c r="C19" s="198" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="199" t="str">
+      <c r="D19" s="198" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="198" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="199" t="str">
+      <c r="F19" s="198" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="199" t="str">
+      <c r="G19" s="198" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6400,49 +6412,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
-      </c>
-      <c r="C20" s="152">
+        <v>221</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="152" t="str">
+      <c r="E20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="152" t="str">
+      <c r="F20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="152" t="str">
+      <c r="G20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="152" t="str">
+      <c r="H20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6453,47 +6465,47 @@
       <c r="B21" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="199" t="str">
+      <c r="C21" s="198" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="199" t="str">
+      <c r="D21" s="198" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="198" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="199" t="str">
+      <c r="F21" s="198" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6504,47 +6516,47 @@
       <c r="B22" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>24640</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>18642</v>
       </c>
-      <c r="E22" s="161" t="str">
+      <c r="E22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="161" t="str">
+      <c r="F22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="161" t="str">
+      <c r="G22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="161" t="str">
+      <c r="H22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6555,47 +6567,47 @@
       <c r="B23" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.27193329197743699</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>0.32450009101665606</v>
       </c>
-      <c r="E23" s="153" t="str">
+      <c r="E23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="153" t="str">
+      <c r="F23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="153" t="str">
+      <c r="G23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="153" t="str">
+      <c r="H23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6606,7 +6618,7 @@
       <c r="B24" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>18849.599999999999</v>
       </c>
@@ -6654,50 +6666,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.3217465937131207</v>
       </c>
-      <c r="D25" s="233" t="str">
+      <c r="D25" s="230" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="233" t="str">
+      <c r="E25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="233" t="str">
+      <c r="F25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="233" t="str">
+      <c r="G25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6814,43 +6826,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="199" t="str">
+      <c r="D28" s="198" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -6865,43 +6877,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="199" t="str">
+      <c r="D29" s="198" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -6910,49 +6922,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199" t="str">
+      <c r="D30" s="198" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="199" t="str">
+      <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="199" t="str">
+      <c r="F30" s="198" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -6967,43 +6979,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199" t="str">
+      <c r="D31" s="198" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="199" t="str">
+      <c r="E31" s="198" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="199" t="str">
+      <c r="F31" s="198" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7018,43 +7030,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199" t="str">
+      <c r="D32" s="198" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="199" t="str">
+      <c r="E32" s="198" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="199" t="str">
+      <c r="F32" s="198" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7120,43 +7132,43 @@
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199" t="str">
+      <c r="D34" s="198" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="199" t="str">
+      <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="199" t="str">
+      <c r="F34" s="198" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7171,43 +7183,43 @@
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199" t="str">
+      <c r="D35" s="198" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7222,43 +7234,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199" t="str">
+      <c r="D36" s="198" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7320,47 +7332,47 @@
       <c r="B38" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="155" t="e">
+      <c r="C38" s="154" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="155" t="e">
+      <c r="D38" s="154" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="155" t="str">
+      <c r="E38" s="154" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7369,7 +7381,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7389,47 +7401,47 @@
       <c r="B40" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>4.1966617135767562E-2</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>5.1879493947392372E-2</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7438,49 +7450,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C41" s="153">
+        <v>220</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.2109727772407923</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.31389369254573585</v>
       </c>
-      <c r="E41" s="153" t="str">
+      <c r="E41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="153" t="str">
+      <c r="F41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="153" t="str">
+      <c r="G41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="153" t="str">
+      <c r="H41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7491,47 +7503,47 @@
       <c r="B42" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="153" t="str">
+      <c r="E42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="153" t="str">
+      <c r="F42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="153" t="str">
+      <c r="G42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="153" t="str">
+      <c r="H42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7542,47 +7554,47 @@
       <c r="B43" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>0.39159225009737869</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>0.21004368799490306</v>
       </c>
-      <c r="E43" s="153" t="str">
+      <c r="E43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="153" t="str">
+      <c r="F43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="153" t="str">
+      <c r="G43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="153" t="str">
+      <c r="H43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7593,47 +7605,47 @@
       <c r="B44" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="E44" s="153" t="str">
+      <c r="E44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="153" t="str">
+      <c r="F44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="153" t="str">
+      <c r="G44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="153" t="str">
+      <c r="H44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7642,49 +7654,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C45" s="153">
+        <v>222</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7695,47 +7707,47 @@
       <c r="B46" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.35546835552606143</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>0.42418312551196868</v>
       </c>
-      <c r="E46" s="153" t="str">
+      <c r="E46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="153" t="str">
+      <c r="F46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="153" t="str">
+      <c r="G46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="153" t="str">
+      <c r="H46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7744,9 +7756,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>246</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>245</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>263</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7761,50 +7775,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>252</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>251</v>
+      </c>
+      <c r="C48" s="269" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="272" t="e">
+      <c r="D48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="272" t="str">
+      <c r="E48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="272" t="str">
+      <c r="F48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="272" t="str">
+      <c r="G48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="272" t="str">
+      <c r="H48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7813,49 +7827,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>253</v>
-      </c>
-      <c r="C49" s="153">
+        <v>252</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="153" t="str">
+      <c r="D49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7864,49 +7878,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>254</v>
-      </c>
-      <c r="C50" s="153">
+        <v>253</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="153" t="str">
+      <c r="D50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -7915,49 +7929,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>244</v>
-      </c>
-      <c r="C51" s="153" t="e">
+        <v>243</v>
+      </c>
+      <c r="C51" s="152" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="153" t="str">
+      <c r="D51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="153" t="str">
+      <c r="E51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="153" t="str">
+      <c r="F51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="153" t="str">
+      <c r="G51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -7966,7 +7980,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -7983,49 +7997,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>248</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>247</v>
+      </c>
+      <c r="C53" s="155" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
+      <c r="D53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="156" t="str">
+      <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="156" t="str">
+      <c r="F53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8035,47 +8049,47 @@
       <c r="B54" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="157" t="str">
+      <c r="C54" s="156" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8085,47 +8099,47 @@
       <c r="B55" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>1.1016233766233767</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>0.49517219182491151</v>
       </c>
-      <c r="E55" s="153" t="str">
+      <c r="E55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8135,47 +8149,47 @@
       <c r="B56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8183,149 +8197,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>248</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>250</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>249</v>
+      </c>
+      <c r="C58" s="271" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="274" t="e">
+      <c r="D58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="274" t="str">
+      <c r="E58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="274" t="str">
+      <c r="F58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="274" t="str">
+      <c r="G58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="274" t="str">
+      <c r="H58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>251</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>250</v>
+      </c>
+      <c r="C59" s="271" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="274" t="e">
+      <c r="D59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="274" t="str">
+      <c r="E59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="274" t="str">
+      <c r="F59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="274" t="str">
+      <c r="G59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="274" t="str">
+      <c r="H59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9621,8 +9635,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9658,8 +9672,8 @@
         <v>22</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9671,8 +9685,8 @@
       <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>0</v>
       </c>
       <c r="K3" s="24"/>
@@ -9682,8 +9696,8 @@
         <v>24</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
@@ -9770,11 +9784,11 @@
         <v>29</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9817,7 +9831,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9845,7 +9859,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -9873,7 +9887,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -9901,7 +9915,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -9914,7 +9928,7 @@
       <c r="H14" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -9929,7 +9943,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -9956,7 +9970,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -9978,7 +9992,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10000,7 +10014,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10021,7 +10035,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10029,7 +10043,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10046,7 +10060,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10054,7 +10068,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10073,7 +10087,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10094,7 +10108,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10259,7 +10273,7 @@
       <c r="H28" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10288,7 +10302,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10314,7 +10328,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10341,7 +10355,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10368,7 +10382,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10384,7 +10398,7 @@
       <c r="H33" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10398,7 +10412,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10425,7 +10439,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10433,7 +10447,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10451,7 +10465,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10459,7 +10473,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10478,7 +10492,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10486,7 +10500,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10505,7 +10519,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10526,7 +10540,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10547,7 +10561,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10568,7 +10582,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10589,7 +10603,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10735,8 +10749,8 @@
       <c r="H48" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>0</v>
       </c>
       <c r="J48" s="8"/>
@@ -10762,8 +10776,8 @@
       <c r="H49" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="J49" s="87"/>
@@ -10833,7 +10847,7 @@
         <v>143</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -10933,7 +10947,7 @@
       <c r="B62" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>0</v>
       </c>
@@ -10941,7 +10955,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>0</v>
       </c>
@@ -10972,11 +10986,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11053,12 +11067,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>145</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>0</v>
       </c>
@@ -11137,17 +11151,17 @@
         <f>Data!C6</f>
         <v>69317</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>69317</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>69317</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11158,23 +11172,23 @@
         <f>Data!C8</f>
         <v>2909</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>4.1966617135767562E-2</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>2909</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>4.1966617135767562E-2</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>2909</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>4.1966617135767562E-2</v>
       </c>
@@ -11184,48 +11198,48 @@
       <c r="B76" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>66408</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>66408</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>66408</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>14624</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.2109727772407923</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>14624</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.2109727772407923</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>14624</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.2109727772407923</v>
       </c>
@@ -11239,54 +11253,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>219</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>218</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>51784</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>0.74706060562344012</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>51784</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>0.74706060562344012</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>51784</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>0.74706060562344012</v>
       </c>
@@ -11300,55 +11314,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>27144</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>0.39159225009737869</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>27144</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>0.39159225009737869</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>27144</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>0.39159225009737869</v>
       </c>
@@ -11356,29 +11370,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -11388,27 +11402,27 @@
       <c r="B83" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>24640</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>0.35546835552606143</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>24640</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>0.35546835552606143</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>24640</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>0.35546835552606143</v>
       </c>
@@ -11418,49 +11432,49 @@
       <c r="B84" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.23499999999999999</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.23499999999999999</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.23499999999999999</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>157</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>18849.599999999999</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>0.27193329197743699</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>18849.599999999999</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>0.27193329197743699</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>18849.599999999999</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>0.27193329197743699</v>
       </c>
@@ -11470,69 +11484,69 @@
       <c r="B86" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>10.014304364010451</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>10.014304364010451</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>10.014304364010451</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10630896352452708</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>0.10676230665256345</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10630896352452708</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>0.10676230665256345</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10630896352452708</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>0.10676230665256345</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>6.8</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>0.67902869264069265</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>6.8</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>0.67902869264069265</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>6.8</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>0.67902869264069265</v>
       </c>
@@ -11540,23 +11554,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
-      </c>
-      <c r="C89" s="261">
+        <v>207</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2186836518046707E-2</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>7.2494669509594878E-2</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2186836518046707E-2</v>
-      </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+        <v>7.2494669509594878E-2</v>
+      </c>
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2186836518046707E-2</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>7.2494669509594878E-2</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11578,7 +11592,7 @@
       <c r="B92" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
@@ -11601,27 +11615,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>HK Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>273.74814871522375</v>
+        <v>274.30949096537489</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>273.74814871522375</v>
+        <v>274.30949096537489</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11629,27 +11643,27 @@
       <c r="B94" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>158.93132937435803</v>
+        <v>159.15961238461489</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>158.93132937435803</v>
+        <v>159.15961238461489</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11663,25 +11677,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>224</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>223</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>112</v>
       </c>
       <c r="K96" s="24"/>
@@ -11692,21 +11706,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>256178.89083500541</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>256704.20593100681</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>136.1012108721857</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>136.38029717950084</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>136.1012108721857</v>
-      </c>
-      <c r="I97" s="123">
+        <v>136.38029717950084</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>185.77023810961052</v>
+        <v>186.15117468931334</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11718,14 +11732,14 @@
         <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="215"/>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11736,17 +11750,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="216"/>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -11755,27 +11769,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>256178.89083500541</v>
+        <v>256704.20593100681</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>115.68602924135784</v>
+        <v>115.92325260257572</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>136.1012108721857</v>
+        <v>136.38029717950084</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>136.1012108721857</v>
+        <v>136.38029717950084</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>136.1012108721857</v>
+        <v>136.38029717950084</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>185.77023810961052</v>
+        <v>186.15117468931334</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11787,25 +11801,25 @@
       <c r="B102" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>224</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>223</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>112</v>
       </c>
       <c r="K102" s="24"/>
@@ -11816,27 +11830,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>148731.05761314582</v>
+        <v>148944.68933499869</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>67.164415553716452</v>
-      </c>
-      <c r="E103" s="123">
+        <v>67.260888005215477</v>
+      </c>
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>79.01695947496053</v>
+        <v>79.130456476724092</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>79.01695947496053</v>
-      </c>
-      <c r="H103" s="123">
+        <v>79.130456476724092</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>79.01695947496053</v>
+        <v>79.130456476724092</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>107.85355458847525</v>
+        <v>108.00847139566035</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11848,25 +11862,25 @@
       <c r="B105" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>224</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>223</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>112</v>
       </c>
       <c r="K105" s="24"/>
@@ -11877,27 +11891,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>202454.97422407562</v>
+        <v>202824.44763300277</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>91.425222397537141</v>
-      </c>
-      <c r="E106" s="123">
+        <v>91.592070303895596</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>107.55908517357312</v>
+        <v>107.75537682811247</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>107.55908517357312</v>
-      </c>
-      <c r="H106" s="123">
+        <v>107.75537682811247</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>107.55908517357312</v>
-      </c>
-      <c r="I106" s="123">
+        <v>107.75537682811247</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>146.81189634904288</v>
+        <v>147.07982304248685</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11908,14 +11922,13 @@
       <c r="B108" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Dividend</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0011.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0011.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF240D53-7064-44EE-96BE-68CB13032021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E72091BC-D8DC-49E9-A6E8-9B87588FB80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3254,9 +3254,7 @@
       <c r="B37" s="94" t="s">
         <v>259</v>
       </c>
-      <c r="C37" s="149">
-        <v>0</v>
-      </c>
+      <c r="C37" s="149"/>
       <c r="D37" s="149"/>
       <c r="E37" s="149"/>
       <c r="F37" s="149"/>
@@ -3320,9 +3318,7 @@
       <c r="B41" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C41" s="149">
-        <v>0</v>
-      </c>
+      <c r="C41" s="149"/>
       <c r="D41" s="149"/>
       <c r="E41" s="149"/>
       <c r="F41" s="149"/>
@@ -3338,9 +3334,7 @@
       <c r="B42" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="149">
-        <v>0</v>
-      </c>
+      <c r="C42" s="149"/>
       <c r="D42" s="149"/>
       <c r="E42" s="149"/>
       <c r="F42" s="149"/>
@@ -3393,7 +3387,7 @@
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.2494669509594878E-2</v>
+        <v>7.2610784837159631E-2</v>
       </c>
       <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4136,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>93.8</v>
+        <v>93.65</v>
       </c>
       <c r="H3" s="133" t="s">
         <v>273</v>
@@ -4177,7 +4171,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>176556.6948768</v>
+        <v>176274.35474640003</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4409,7 +4403,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.3666016720142604</v>
+        <v>9.3516230979118937</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4441,7 +4435,7 @@
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.2494669509594878E-2</v>
+        <v>7.2610784837159631E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4471,20 +4465,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>67.260888005215477</v>
+        <v>67.297306420973072</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>124.2097421050094</v>
+        <v>124.27699548454808</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>79.130456476724092</v>
+        <v>79.173301671733029</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>108.00847139566035</v>
+        <v>108.06695259525921</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -11507,17 +11501,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10676230665256345</v>
+        <v>0.10693330874543994</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10676230665256345</v>
+        <v>0.10693330874543994</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10676230665256345</v>
+        <v>0.10693330874543994</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11558,17 +11552,17 @@
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2494669509594878E-2</v>
+        <v>7.2610784837159631E-2</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2494669509594878E-2</v>
+        <v>7.2610784837159631E-2</v>
       </c>
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2494669509594878E-2</v>
+        <v>7.2610784837159631E-2</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11628,14 +11622,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>274.30949096537489</v>
+        <v>274.521469608149</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>274.30949096537489</v>
+        <v>274.521469608149</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11656,14 +11650,14 @@
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>159.15961238461489</v>
+        <v>159.24578937554594</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>197</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>159.15961238461489</v>
+        <v>159.24578937554594</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11706,21 +11700,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>256704.20593100681</v>
+        <v>256902.57970573896</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>136.38029717950084</v>
+        <v>136.48568802906823</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>136.38029717950084</v>
+        <v>136.48568802906823</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>186.15117468931334</v>
+        <v>186.29502707014996</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11769,27 +11763,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>256704.20593100681</v>
+        <v>256902.57970573896</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>115.92325260257572</v>
+        <v>116.01283482470799</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>136.38029717950084</v>
+        <v>136.48568802906823</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>136.38029717950084</v>
+        <v>136.48568802906823</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>136.38029717950084</v>
+        <v>136.48568802906823</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>186.15117468931334</v>
+        <v>186.29502707014996</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11830,27 +11824,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>148944.68933499869</v>
+        <v>149025.33545463759</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>67.260888005215477</v>
+        <v>67.297306420973072</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>79.130456476724092</v>
+        <v>79.173301671733029</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>79.130456476724092</v>
+        <v>79.173301671733029</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>79.130456476724092</v>
+        <v>79.173301671733029</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>108.00847139566035</v>
+        <v>108.06695259525921</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11891,27 +11885,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>202824.44763300277</v>
+        <v>202963.95758018829</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>91.592070303895596</v>
+        <v>91.655070622840526</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>107.75537682811247</v>
+        <v>107.82949485040064</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>107.75537682811247</v>
+        <v>107.82949485040064</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>107.75537682811247</v>
+        <v>107.82949485040064</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>147.07982304248685</v>
+        <v>147.1809898327046</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0011.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0011.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E72091BC-D8DC-49E9-A6E8-9B87588FB80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BC36348-FCF3-48B0-9746-957C13A9C413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -847,10 +844,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -959,10 +952,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -980,6 +969,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1681,7 +1678,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1829,7 +1826,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2019,9 +2015,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2357,6 +2350,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2812,7 +2806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2826,172 +2820,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45606</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45606</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="190" t="s">
+      <c r="C9" s="189" t="s">
         <v>268</v>
       </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C10" s="190">
+        <v>1882267536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="189" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="214">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B15" s="213" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B16" s="217" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="218">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B17" s="235" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="237" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>204</v>
-      </c>
-      <c r="C10" s="192">
-        <v>1882267536</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
-        <v>205</v>
-      </c>
-      <c r="C11" s="191" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>206</v>
-      </c>
-      <c r="C14" s="216">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>237</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="220">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="239" t="s">
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B18" s="235" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="237" t="s">
+        <v>269</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" s="237" t="s">
+        <v>269</v>
+      </c>
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B20" s="236" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>269</v>
+      </c>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B21" s="219" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="B22" s="221" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="238" t="s">
         <v>270</v>
       </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C18" s="239" t="s">
-        <v>270</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="239" t="s">
-        <v>270</v>
-      </c>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>270</v>
-      </c>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>270</v>
-      </c>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>271</v>
-      </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>129</v>
+      <c r="B24" s="114" t="s">
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3039,796 +3033,813 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>69317</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>43948</v>
       </c>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="148">
+        <v>2909</v>
+      </c>
+      <c r="D26" s="148">
+        <v>2280</v>
+      </c>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
+    </row>
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B27" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="148">
+        <v>14624</v>
+      </c>
+      <c r="D27" s="148">
+        <v>13795</v>
+      </c>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
+    </row>
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B28" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="149">
-        <v>2909</v>
-      </c>
-      <c r="D26" s="149">
-        <v>2280</v>
-      </c>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
-    </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="96" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" s="148">
+        <v>27144</v>
+      </c>
+      <c r="D29" s="148">
+        <v>9231</v>
+      </c>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+    </row>
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="148">
+        <v>-10</v>
+      </c>
+      <c r="D30" s="148">
+        <v>-14</v>
+      </c>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
+    </row>
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
+    </row>
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B32" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="149">
-        <v>14624</v>
-      </c>
-      <c r="D27" s="149">
-        <v>13795</v>
-      </c>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
-    </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+    </row>
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B33" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-    </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="C29" s="149">
-        <v>27144</v>
-      </c>
-      <c r="D29" s="149">
-        <v>9231</v>
-      </c>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-    </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="149">
-        <v>-10</v>
-      </c>
-      <c r="D30" s="149">
-        <v>-14</v>
-      </c>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-    </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-    </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
-    </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="149"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>261</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="B34" s="96" t="s">
+        <v>258</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="B35" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>142</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="B36" s="93" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>259</v>
-      </c>
-      <c r="C37" s="149"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>260</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="B37" s="93" t="s">
+        <v>257</v>
+      </c>
+      <c r="C37" s="148">
+        <v>1542086</v>
+      </c>
+      <c r="D37" s="148">
+        <v>1709844</v>
+      </c>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>263</v>
+      </c>
+      <c r="C38" s="148">
+        <v>526844</v>
+      </c>
+      <c r="D38" s="148">
+        <v>544067</v>
+      </c>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="148">
+        <v>166367</v>
+      </c>
+      <c r="D41" s="148">
+        <v>168184</v>
+      </c>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="C41" s="149"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="C42" s="149"/>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="C42" s="148">
+        <v>47</v>
+      </c>
+      <c r="D42" s="148">
+        <v>53</v>
+      </c>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="B43" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
-      </c>
-      <c r="C44" s="247">
+        <v>193</v>
+      </c>
+      <c r="C44" s="245">
         <f>3.2+1.2*3</f>
         <v>6.8</v>
       </c>
-      <c r="D44" s="247"/>
-      <c r="E44" s="247"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+      <c r="D44" s="245"/>
+      <c r="E44" s="245"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>234</v>
-      </c>
-      <c r="C45" s="151">
+        <v>232</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.2610784837159631E-2</v>
-      </c>
-      <c r="D45" s="151" t="str">
+        <v>7.2417465388711383E-2</v>
+      </c>
+      <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="151" t="str">
+      <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="151" t="str">
+      <c r="F45" s="150" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="151" t="str">
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>183</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>33</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet- Error</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>182</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>68</v>
+      <c r="E56" s="216" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>43</v>
+      <c r="E57" s="216" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="194">
+        <v>47</v>
+      </c>
+      <c r="C59" s="118"/>
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>68</v>
+      <c r="E65" s="216" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>68</v>
+      <c r="E66" s="216" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>43</v>
+      <c r="E67" s="216" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72" s="244"/>
-      <c r="D72" s="245">
-        <v>0</v>
-      </c>
-      <c r="E72" s="246"/>
+      <c r="B72" s="241" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" s="242"/>
+      <c r="D72" s="243">
+        <v>0</v>
+      </c>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="C76" s="119"/>
+      <c r="B76" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" s="118"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="83"/>
+      <c r="C77" s="82"/>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>264</v>
-      </c>
-      <c r="C82" s="214"/>
+        <v>261</v>
+      </c>
+      <c r="C82" s="212"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>265</v>
-      </c>
-      <c r="C83" s="214"/>
+        <v>262</v>
+      </c>
+      <c r="C83" s="212"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C86" s="196">
+        <v>231</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>272</v>
-      </c>
-      <c r="D87" s="266">
+        <v>230</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>271</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>123</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>193</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>192</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3837,166 +3848,166 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>98</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>99</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>99</v>
+      <c r="F90" s="250" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>69317</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>69317</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>69317</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>103</v>
+      <c r="B92" s="103" t="s">
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>2909</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>4.1966617135767562E-2</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>2909</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>2909</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>230</v>
+      <c r="B93" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>14624</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.2109727772407923</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>14624</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>14624</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>238</v>
+      <c r="B94" s="103" t="s">
+        <v>236</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>27144</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>0.39159225009737869</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>27144</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*D95</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>194</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>6.8</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>F98</f>
         <v>6.8</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <f>C98</f>
         <v>6.8</v>
       </c>
@@ -4009,32 +4020,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4093,13 +4104,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4110,82 +4121,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>0011.HK : 恒生銀行</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>180</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>0011.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
-        <v>93.65</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>273</v>
+      <c r="G3" s="130">
+        <v>93.9</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>181</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>恒生銀行</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>1882267536</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="293">
+        <v>155</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45606</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="287">
+        <v>96</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>176274.35474640003</v>
-      </c>
-      <c r="H5" s="287"/>
+        <v>176744.92163040003</v>
+      </c>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4196,30 +4207,30 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>179</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0014</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="132">
+      <c r="G7" s="131">
         <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
@@ -4229,280 +4240,280 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>178</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>173</v>
+      <c r="B9" s="137" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="171">
+        <v>163</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>171</v>
+      <c r="F10" s="109" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>166</v>
+      <c r="D11" s="135" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>235</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C14" s="171">
+        <v>164</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>170</v>
+      <c r="F14" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>167</v>
+      <c r="F16" s="109" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>258</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>199</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>256</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>249</v>
-      </c>
-      <c r="C20" s="273" t="e">
+      <c r="B20" s="270" t="s">
+        <v>247</v>
+      </c>
+      <c r="C20" s="271">
         <f>C23*C22*(1/C21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="87" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" s="171">
+        <v>0.31135161135161138</v>
+      </c>
+      <c r="F20" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>247</v>
-      </c>
-      <c r="C21" s="275" t="e">
+      <c r="B21" s="272" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21" s="273">
         <f>Data!C53</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="87"/>
+        <v>9.7351229445586149E-2</v>
+      </c>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>262</v>
-      </c>
-      <c r="C22" s="277" t="e">
+      <c r="B22" s="274" t="s">
+        <v>259</v>
+      </c>
+      <c r="C22" s="275">
         <f>Data!C48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="141" t="s">
-        <v>172</v>
+        <v>4.0572962791484458E-2</v>
+      </c>
+      <c r="F22" s="140" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>254</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>252</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>0.74706060562344012</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>176</v>
-      </c>
-      <c r="G23" s="176" t="e">
+      <c r="F23" s="138" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>#DIV/0!</v>
+        <v>1.0623796884622552</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>255</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>253</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>0.39159225009737869</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>240</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>238</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.3516230979118937</v>
+        <v>9.3765873880825072</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>256</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>254</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>163</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>0.67902869264069265</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>257</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>255</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.2610784837159631E-2</v>
+        <v>7.2417465388711383E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>239</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>222</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>237</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>67.297306420973072</v>
-      </c>
-      <c r="D29" s="128">
+        <v>67.236682429588754</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>124.27699548454808</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>124.16504200670167</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>79.173301671733029</v>
-      </c>
-      <c r="G29" s="286">
+        <v>79.101979328927953</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>108.06695259525921</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>107.96960174495798</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>agree</v>
       </c>
@@ -4510,9 +4521,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="222" t="e">
+        <v>210</v>
+      </c>
+      <c r="C34" s="220" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4520,17 +4531,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>agree</v>
       </c>
@@ -4538,26 +4549,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4565,9 +4576,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>agree</v>
       </c>
@@ -4580,16 +4591,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5541,10 +5552,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5570,59 +5581,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>191</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" s="85" t="str">
+      <c r="E3" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="84" t="str">
         <f>H14</f>
         <v/>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>51784</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000000</v>
       </c>
@@ -5630,19 +5641,19 @@
         <f>Dashboard!G6</f>
         <v>HKD</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>188</v>
-      </c>
-      <c r="F4" s="93" t="e">
+      <c r="E4" s="144" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="92" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>129</v>
+      <c r="B5" s="114" t="s">
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5691,928 +5702,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>69317</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>43948</v>
       </c>
-      <c r="E6" s="199" t="str">
+      <c r="E6" s="197" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="199" t="str">
+      <c r="F6" s="197" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="199" t="str">
+      <c r="G6" s="197" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="199" t="str">
+      <c r="H6" s="197" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>0.57725038682078811</v>
       </c>
-      <c r="D7" s="92" t="str">
+      <c r="D7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E7" s="92" t="str">
+      <c r="E7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F7" s="92" t="str">
+      <c r="F7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G7" s="92" t="str">
+      <c r="G7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>2909</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>2280</v>
       </c>
-      <c r="E8" s="198" t="str">
+      <c r="E8" s="196" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="198" t="str">
+      <c r="F8" s="196" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="198" t="str">
+      <c r="G8" s="196" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="198" t="str">
+      <c r="H8" s="196" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>66408</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>41668</v>
       </c>
-      <c r="E9" s="150" t="str">
+      <c r="E9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="150" t="str">
+      <c r="F9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="150" t="str">
+      <c r="G9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="150" t="str">
+      <c r="H9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>14624</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>13795</v>
       </c>
-      <c r="E10" s="198" t="str">
+      <c r="E10" s="196" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="198" t="str">
+      <c r="F10" s="196" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="198" t="str">
+      <c r="G10" s="196" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="198" t="str">
+      <c r="H10" s="196" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="198" t="str">
+      <c r="B11" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="196" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="198" t="str">
+      <c r="D11" s="196" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="E12" s="198" t="str">
+      <c r="E12" s="196" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="198" t="str">
+      <c r="F12" s="196" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="198" t="str">
+      <c r="G12" s="196" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="198" t="str">
+      <c r="H12" s="196" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.74706060562344012</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>0.63422681350687171</v>
       </c>
-      <c r="E13" s="226" t="str">
+      <c r="E13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="226" t="str">
+      <c r="F13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="226" t="str">
+      <c r="G13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="226" t="str">
+      <c r="H13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>51784</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>27873</v>
       </c>
-      <c r="E14" s="227" t="str">
+      <c r="E14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="227" t="str">
+      <c r="F14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="227" t="str">
+      <c r="G14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="227" t="str">
+      <c r="H14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="226" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.85785527212714818</v>
       </c>
-      <c r="D15" s="229" t="str">
+      <c r="D15" s="227" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="229" t="str">
+      <c r="E15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="229" t="str">
+      <c r="F15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="229" t="str">
+      <c r="G15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="198" t="str">
+      <c r="B16" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="196" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="198" t="str">
+      <c r="D16" s="196" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="196" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="198" t="str">
+      <c r="F16" s="196" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="196" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="198" t="str">
+      <c r="H16" s="196" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>27144</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>9231</v>
       </c>
-      <c r="E17" s="198" t="str">
+      <c r="E17" s="196" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="198" t="str">
+      <c r="F17" s="196" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="198" t="str">
+      <c r="G17" s="196" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="198" t="str">
+      <c r="H17" s="196" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="151" t="str">
+      <c r="B18" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="150" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="151" t="str">
+      <c r="D18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="151" t="str">
+      <c r="E18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="151" t="str">
+      <c r="F18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="151" t="str">
+      <c r="G18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="151" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="198" t="str">
+      <c r="B19" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="196" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="198" t="str">
+      <c r="D19" s="196" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="198" t="str">
+      <c r="E19" s="196" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="198" t="str">
+      <c r="F19" s="196" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="198" t="str">
+      <c r="G19" s="196" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="198" t="str">
+      <c r="H19" s="196" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="151" t="str">
+      <c r="E20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="151" t="str">
+      <c r="F20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="151" t="str">
+      <c r="G20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="151" t="str">
+      <c r="H20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="198" t="str">
+      <c r="B21" s="96" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="196" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="198" t="str">
+      <c r="D21" s="196" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="198" t="str">
+      <c r="E21" s="196" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="198" t="str">
+      <c r="F21" s="196" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="198" t="str">
+      <c r="G21" s="196" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="196" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>24640</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>18642</v>
       </c>
-      <c r="E22" s="160" t="str">
+      <c r="E22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="160" t="str">
+      <c r="F22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="160" t="str">
+      <c r="G22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="160" t="str">
+      <c r="H22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.27193329197743699</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>0.32450009101665606</v>
       </c>
-      <c r="E23" s="152" t="str">
+      <c r="E23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="152" t="str">
+      <c r="F23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="152" t="str">
+      <c r="G23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="152" t="str">
+      <c r="H23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>18849.599999999999</v>
       </c>
@@ -6656,63 +6667,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="230">
+      <c r="B25" s="229" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.3217465937131207</v>
       </c>
-      <c r="D25" s="230" t="str">
+      <c r="D25" s="228" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="230" t="str">
+      <c r="E25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="230" t="str">
+      <c r="F25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="230" t="str">
+      <c r="G25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>130</v>
+      <c r="B26" s="113" t="s">
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6758,20 +6769,20 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="65">
         <f>IF(C34="","",C34+C30)</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="65" t="str">
+        <v>1708453</v>
+      </c>
+      <c r="D27" s="65">
         <f>IF(D34="","",D34+D30)</f>
-        <v/>
+        <v>1878028</v>
       </c>
       <c r="E27" s="65" t="str">
         <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
@@ -6809,266 +6820,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>113</v>
+      <c r="B28" s="93" t="s">
+        <v>112</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="198" t="str">
+      <c r="D28" s="196" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>142</v>
+      <c r="B29" s="93" t="s">
+        <v>141</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="198" t="str">
+      <c r="D29" s="196" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>259</v>
+      <c r="B30" s="93" t="s">
+        <v>257</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="198" t="str">
+        <v>1542086</v>
+      </c>
+      <c r="D30" s="196">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
-        <v/>
-      </c>
-      <c r="E30" s="198" t="str">
+        <v>1709844</v>
+      </c>
+      <c r="E30" s="196" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="198" t="str">
+      <c r="F30" s="196" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="198" t="str">
+      <c r="G30" s="196" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198" t="str">
+      <c r="D31" s="196" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="198" t="str">
+      <c r="E31" s="196" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="198" t="str">
+      <c r="F31" s="196" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="198" t="str">
+      <c r="G31" s="196" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198" t="str">
+      <c r="D32" s="196" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="198" t="str">
+      <c r="E32" s="196" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="198" t="str">
+      <c r="F32" s="196" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="198" t="str">
+      <c r="G32" s="196" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>19</v>
       </c>
       <c r="C33" s="77">
@@ -7115,169 +7126,169 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>133</v>
+      <c r="B34" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="198" t="str">
+        <v>166367</v>
+      </c>
+      <c r="D34" s="196">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
-        <v/>
-      </c>
-      <c r="E34" s="198" t="str">
+        <v>168184</v>
+      </c>
+      <c r="E34" s="196" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="198" t="str">
+      <c r="F34" s="196" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="198" t="str">
+      <c r="G34" s="196" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>134</v>
+      <c r="B35" s="93" t="s">
+        <v>133</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="198" t="str">
+        <v>47</v>
+      </c>
+      <c r="D35" s="196">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v/>
-      </c>
-      <c r="E35" s="198" t="str">
+        <v>53</v>
+      </c>
+      <c r="E35" s="196" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="198" t="str">
+      <c r="F35" s="196" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="198" t="str">
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>132</v>
+      <c r="B36" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198" t="str">
+      <c r="D36" s="196" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>136</v>
+      <c r="B37" s="93" t="s">
+        <v>135</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
-        <v>0</v>
+        <v>1708453</v>
       </c>
       <c r="D37" s="65" t="str">
         <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
@@ -7319,63 +7330,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C38" s="154" t="e">
+      <c r="B38" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="153">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D38" s="154" t="e">
+        <v>3.0310462154943683E-2</v>
+      </c>
+      <c r="D38" s="153" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="154" t="str">
+      <c r="E38" s="153" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7388,372 +7399,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>4.1966617135767562E-2</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>5.1879493947392372E-2</v>
       </c>
-      <c r="E40" s="155" t="str">
+      <c r="E40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="155" t="str">
+      <c r="F40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="155" t="str">
+      <c r="G40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="155" t="str">
+      <c r="H40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>219</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.2109727772407923</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.31389369254573585</v>
       </c>
-      <c r="E41" s="152" t="str">
+      <c r="E41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="152" t="str">
+      <c r="F41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="152" t="str">
+      <c r="G41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="152" t="str">
+      <c r="H41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="152" t="str">
+      <c r="E42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="152" t="str">
+      <c r="F42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="152" t="str">
+      <c r="G42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="152" t="str">
+      <c r="H42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>0.39159225009737869</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>0.21004368799490306</v>
       </c>
-      <c r="E43" s="152" t="str">
+      <c r="E43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="152" t="str">
+      <c r="F43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="152" t="str">
+      <c r="G43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="152" t="str">
+      <c r="H43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="E44" s="152" t="str">
+      <c r="E44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="152" t="str">
+      <c r="F44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="152" t="str">
+      <c r="G44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="152" t="str">
+      <c r="H44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>221</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.35546835552606143</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>0.42418312551196868</v>
       </c>
-      <c r="E46" s="152" t="str">
+      <c r="E46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="152" t="str">
+      <c r="F46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="152" t="str">
+      <c r="G46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="152" t="str">
+      <c r="H46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>245</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>263</v>
+      <c r="B47" s="101" t="s">
+        <v>243</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>260</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7765,216 +7776,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>251</v>
-      </c>
-      <c r="C48" s="269" t="e">
+      <c r="B48" s="266" t="s">
+        <v>249</v>
+      </c>
+      <c r="C48" s="267">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D48" s="269" t="e">
+        <v>4.0572962791484458E-2</v>
+      </c>
+      <c r="D48" s="267">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E48" s="269" t="str">
+        <v>2.3401142049000335E-2</v>
+      </c>
+      <c r="E48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="269" t="str">
+      <c r="F48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="269" t="str">
+      <c r="G48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="269" t="str">
+      <c r="H48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>252</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>250</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="152" t="str">
+      <c r="D49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>253</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>251</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="152" t="str">
+      <c r="D50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>243</v>
-      </c>
-      <c r="C51" s="152" t="e">
+      <c r="B51" s="93" t="s">
+        <v>241</v>
+      </c>
+      <c r="C51" s="151" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="152" t="str">
+      <c r="D51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="152" t="str">
+      <c r="E51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="152" t="str">
+      <c r="F51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="152" t="str">
+      <c r="G51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>246</v>
+      <c r="B52" s="101" t="s">
+        <v>244</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -7990,350 +8001,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>247</v>
-      </c>
-      <c r="C53" s="155" t="e">
+      <c r="B53" s="94" t="s">
+        <v>245</v>
+      </c>
+      <c r="C53" s="154">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D53" s="155" t="str">
+        <v>9.7351229445586149E-2</v>
+      </c>
+      <c r="D53" s="154">
         <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="E53" s="155" t="str">
+        <v>8.9525289292811394E-2</v>
+      </c>
+      <c r="E53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="155" t="str">
+      <c r="F53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="155" t="str">
+      <c r="G53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C54" s="156" t="str">
+      <c r="B54" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="155" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="156" t="str">
+      <c r="D54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="156" t="str">
+      <c r="E54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="156" t="str">
+      <c r="F54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="156" t="str">
+      <c r="G54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>1.1016233766233767</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>0.49517219182491151</v>
       </c>
-      <c r="E55" s="152" t="str">
+      <c r="E55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="152" t="str">
+      <c r="F55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="152" t="str">
+      <c r="G55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="152" t="str">
+      <c r="H55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>264</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0.30837488652014422</v>
+      </c>
+      <c r="D56" s="151">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v>0.28970121851218406</v>
+      </c>
+      <c r="E56" s="151" t="str">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v/>
+      </c>
+      <c r="F56" s="151" t="str">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v/>
+      </c>
+      <c r="G56" s="151" t="str">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v/>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>246</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>249</v>
-      </c>
-      <c r="C58" s="271" t="e">
+      <c r="B58" s="266" t="s">
+        <v>247</v>
+      </c>
+      <c r="C58" s="269">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D58" s="271" t="e">
+        <v>0.31135161135161138</v>
+      </c>
+      <c r="D58" s="269">
         <f t="shared" si="49"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E58" s="271" t="str">
+        <v>0.16578144423098656</v>
+      </c>
+      <c r="E58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="271" t="str">
+      <c r="F58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="271" t="str">
+      <c r="G58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="271" t="str">
+      <c r="H58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="271" t="str">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>250</v>
-      </c>
-      <c r="C59" s="271" t="e">
+      <c r="B59" s="266" t="s">
+        <v>248</v>
+      </c>
+      <c r="C59" s="269">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D59" s="271" t="e">
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="D59" s="269">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E59" s="271" t="str">
+        <v>0.11087782740838989</v>
+      </c>
+      <c r="E59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="271" t="str">
+      <c r="F59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="271" t="str">
+      <c r="G59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="271" t="str">
+      <c r="H59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="271" t="str">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9612,7 +9623,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9630,7 +9641,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9648,67 +9659,67 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>21</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
-        <v>0</v>
+        <v>166367</v>
       </c>
       <c r="E3" s="67" t="str">
         <f>IF((C49-I49)=D3,"", "Error!")</f>
         <v/>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="282">
+        <v>22</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
-        <v>0</v>
+        <v>166320</v>
       </c>
       <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>23</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -9721,25 +9732,25 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in HKD</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="56" t="e">
+        <v>-1542135.9318453576</v>
+      </c>
+      <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+        <v>10.269482119923769</v>
+      </c>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9747,7 +9758,7 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
         <v>0</v>
@@ -9757,287 +9768,287 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>28</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>183</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>34</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>0</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>0</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="84">
+        <v>50</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10048,21 +10059,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10075,45 +10086,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10121,17 +10132,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10141,19 +10152,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="113" t="e">
+      <c r="F24" s="112" t="e">
         <f>E24/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10163,17 +10174,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="113" t="e">
+      <c r="F25" s="112" t="e">
         <f>E25/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10182,7 +10193,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10192,17 +10203,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>0</v>
       </c>
-      <c r="F26" s="113" t="e">
+      <c r="F26" s="112" t="e">
         <f>E26/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10215,7 +10226,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10225,17 +10236,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>0</v>
       </c>
-      <c r="F27" s="113" t="e">
+      <c r="F27" s="112" t="e">
         <f>E27/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10262,12 +10273,12 @@
         <f>SUM(E24:E27)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10277,171 +10288,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
-        <v>0</v>
-      </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="E30" s="87">
+        <v>0</v>
+      </c>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>0</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>0</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I34" s="84">
+        <v>74</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10449,25 +10460,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10475,26 +10486,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10502,131 +10513,131 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
-        <v>0</v>
+        <v>1542086</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10636,16 +10647,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>0</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10655,16 +10666,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>0</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10674,14 +10685,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>0</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -10694,7 +10705,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10704,33 +10715,33 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>0</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="I47" s="63" t="e">
+        <v>79</v>
+      </c>
+      <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J47" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="J47" s="8" t="str">
         <f>IF(OR(I47&lt;0.5,C49&lt;I49),"Liquidity Issue!","")</f>
-        <v>#DIV/0!</v>
+        <v>Liquidity Issue!</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" s="81">
+        <v>80</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="82" t="e">
+      <c r="D48" s="81" t="e">
         <f>E48/C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -10738,14 +10749,14 @@
         <f>SUM(E30:E42)</f>
         <v>0</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="I48" s="281">
+        <v>81</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
-        <v>0</v>
+        <v>1542086</v>
       </c>
       <c r="J48" s="8"/>
     </row>
@@ -10754,109 +10765,109 @@
         <v>14</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
-        <v>0</v>
-      </c>
-      <c r="D49" s="56" t="e">
+        <f>Inputs!C41+Inputs!C37</f>
+        <v>1708453</v>
+      </c>
+      <c r="D49" s="56">
         <f>E49/C49</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E49" s="88">
+        <v>0</v>
+      </c>
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>0</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="87"/>
+        <v>1542086</v>
+      </c>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>84</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>BV of the MI</v>
-      </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+        <v>P/B Approach</v>
+      </c>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="88">
+        <v>85</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>0</v>
-      </c>
-      <c r="E53" s="88">
+        <v>1.0623796884622552</v>
+      </c>
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>0</v>
-      </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+        <v>49.93184535772599</v>
+      </c>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>86</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10864,61 +10875,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
+        <f>Inputs!C84</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
+      <c r="K57" s="33" t="s">
         <v>88</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
-        <f>Inputs!C84</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
-      <c r="K57" s="33" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>89</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>90</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -10932,35 +10943,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>0</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="C62" s="116">
+        <v>134</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>0</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>0</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -10974,29 +10985,29 @@
         <f>E61+E62</f>
         <v>0</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11010,9 +11021,9 @@
         <f>E63-E64</f>
         <v>0</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11020,32 +11031,32 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
-        <v>0</v>
+        <v>1708453</v>
       </c>
       <c r="D68" s="29">
         <f t="shared" si="2"/>
@@ -11055,65 +11066,65 @@
         <f>E49-E63</f>
         <v>0</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>145</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
-        <v>0</v>
-      </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+        <v>1542086</v>
+      </c>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
-        <v>0</v>
+        <v>166367</v>
       </c>
       <c r="D70" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-9.2691819892166123</v>
       </c>
       <c r="E70" s="68">
         <f>E68-E69</f>
-        <v>0</v>
-      </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+        <v>-1542086</v>
+      </c>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>123</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>193</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>192</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>191</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11123,66 +11134,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>99</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>99</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>69317</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>69317</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>69317</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>103</v>
+      <c r="B75" s="103" t="s">
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>2909</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>4.1966617135767562E-2</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>2909</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>4.1966617135767562E-2</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>2909</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>4.1966617135767562E-2</v>
       </c>
@@ -11190,50 +11201,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C76" s="160">
+        <v>92</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>66408</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>66408</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>66408</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>230</v>
+      <c r="B77" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>14624</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.2109727772407923</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>14624</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.2109727772407923</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>14624</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.2109727772407923</v>
       </c>
@@ -11241,60 +11252,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>51784</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>0.74706060562344012</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>51784</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>0.74706060562344012</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>51784</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>0.74706060562344012</v>
       </c>
@@ -11302,61 +11313,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>127</v>
+      <c r="K80" s="178" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>238</v>
+      <c r="B81" s="103" t="s">
+        <v>236</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>27144</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>0.39159225009737869</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>27144</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>0.39159225009737869</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>27144</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>0.39159225009737869</v>
       </c>
@@ -11364,59 +11375,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>121</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>120</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>24640</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>0.35546835552606143</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>24640</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>0.35546835552606143</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>24640</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>0.35546835552606143</v>
       </c>
@@ -11424,184 +11435,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>93</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.23499999999999999</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.23499999999999999</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.23499999999999999</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>157</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>156</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>18849.599999999999</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>0.27193329197743699</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>18849.599999999999</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>0.27193329197743699</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>18849.599999999999</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>0.27193329197743699</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>153</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>10.014304364010451</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>10.014304364010451</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>10.014304364010451</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10693330874543994</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>0.10664860877540416</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10693330874543994</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>0.10664860877540416</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10693330874543994</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>0.10664860877540416</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>194</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>6.8</v>
       </c>
-      <c r="D88" s="165">
+      <c r="D88" s="163">
         <f>C88/C86</f>
         <v>0.67902869264069265</v>
       </c>
-      <c r="E88" s="169">
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>6.8</v>
       </c>
-      <c r="F88" s="165">
+      <c r="F88" s="163">
         <f>E88/E86</f>
         <v>0.67902869264069265</v>
       </c>
-      <c r="H88" s="169">
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>6.8</v>
       </c>
-      <c r="I88" s="165">
+      <c r="I88" s="163">
         <f>H88/H86</f>
         <v>0.67902869264069265</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>206</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2610784837159631E-2</v>
-      </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+        <v>7.2417465388711383E-2</v>
+      </c>
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2610784837159631E-2</v>
-      </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+        <v>7.2417465388711383E-2</v>
+      </c>
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2610784837159631E-2</v>
-      </c>
-      <c r="I89" s="206"/>
+        <v>7.2417465388711383E-2</v>
+      </c>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>147</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>193</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>148</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>192</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>191</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11609,55 +11620,55 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>HK Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>274.521469608149</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I93" s="143">
+        <v>274.16862061183247</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>274.521469608149</v>
+        <v>274.16862061183247</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C94" s="181">
+        <v>197</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>159.24578937554594</v>
-      </c>
-      <c r="H94" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="I94" s="143">
+        <v>159.10233466871563</v>
+      </c>
+      <c r="H94" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>159.24578937554594</v>
+        <v>159.10233466871563</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11667,123 +11678,123 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>200</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>112</v>
+      <c r="I96" s="122" t="s">
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C97" s="91">
+        <v>125</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>256902.57970573896</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>256572.37668908716</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>136.48568802906823</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>136.3102597170263</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>136.48568802906823</v>
-      </c>
-      <c r="I97" s="122">
+        <v>136.3102597170263</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>186.29502707014996</v>
+        <v>186.0555776259433</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C98" s="90">
+        <f>-E53*Exchange_Rate</f>
+        <v>-49.93184535772599</v>
+      </c>
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
+        <f>C98*Data!$C$4/Common_Shares</f>
+        <v>-2.6527496438596598E-2</v>
+      </c>
+      <c r="I98" s="210"/>
+      <c r="K98" s="24"/>
+    </row>
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="104" t="s">
         <v>140</v>
       </c>
-      <c r="C98" s="91">
-        <f>-E53*Exchange_Rate</f>
-        <v>0</v>
-      </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
-        <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0</v>
-      </c>
-      <c r="I98" s="212"/>
-      <c r="K98" s="24"/>
-    </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>141</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="213"/>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C100" s="91">
+        <v>111</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>256902.57970573896</v>
-      </c>
-      <c r="D100" s="109">
+        <v>256522.44484372943</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>116.01283482470799</v>
-      </c>
-      <c r="E100" s="109">
+        <v>115.84117238749954</v>
+      </c>
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>136.48568802906823</v>
-      </c>
-      <c r="F100" s="109">
+        <v>136.28373222058769</v>
+      </c>
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>136.48568802906823</v>
-      </c>
-      <c r="H100" s="109">
+        <v>136.28373222058769</v>
+      </c>
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>136.48568802906823</v>
-      </c>
-      <c r="I100" s="109">
+        <v>136.28373222058769</v>
+      </c>
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>186.29502707014996</v>
+        <v>186.0290501295047</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11793,58 +11804,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>154</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>200</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>112</v>
+      <c r="I102" s="122" t="s">
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C103" s="91">
+        <v>153</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>149025.33545463759</v>
-      </c>
-      <c r="D103" s="109">
+        <v>148891.08772418415</v>
+      </c>
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>67.297306420973072</v>
-      </c>
-      <c r="E103" s="122">
+        <v>67.236682429588754</v>
+      </c>
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>79.173301671733029</v>
-      </c>
-      <c r="F103" s="109">
+        <v>79.101979328927953</v>
+      </c>
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>79.173301671733029</v>
-      </c>
-      <c r="H103" s="122">
+        <v>79.101979328927953</v>
+      </c>
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>79.173301671733029</v>
-      </c>
-      <c r="I103" s="109">
+        <v>79.101979328927953</v>
+      </c>
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>108.06695259525921</v>
+        <v>107.96960174495798</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11854,58 +11865,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>183</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>200</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>112</v>
+      <c r="I105" s="122" t="s">
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C106" s="91">
+        <v>184</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>202963.95758018829</v>
-      </c>
-      <c r="D106" s="109">
+        <v>202706.76628395676</v>
+      </c>
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>91.655070622840526</v>
-      </c>
-      <c r="E106" s="122">
+        <v>91.53892740854414</v>
+      </c>
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>107.82949485040064</v>
-      </c>
-      <c r="F106" s="109">
+        <v>107.69285577475782</v>
+      </c>
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>107.82949485040064</v>
-      </c>
-      <c r="H106" s="122">
+        <v>107.69285577475782</v>
+      </c>
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>107.82949485040064</v>
-      </c>
-      <c r="I106" s="122">
+        <v>107.69285577475782</v>
+      </c>
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>147.1809898327046</v>
+        <v>146.99932593723133</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11914,15 +11925,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>157</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Dividend</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0011.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0011.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BC36348-FCF3-48B0-9746-957C13A9C413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1D4E476-08EA-44A7-AED8-B72CFB040B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -977,6 +977,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1678,7 +1686,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2330,9 +2338,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2341,9 +2346,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2351,6 +2353,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2806,7 +2820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2828,7 +2842,7 @@
         <v>180</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2836,7 +2850,7 @@
         <v>181</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2860,7 +2874,7 @@
         <v>201</v>
       </c>
       <c r="C8" s="188" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E8" s="262"/>
     </row>
@@ -2869,7 +2883,7 @@
         <v>202</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2928,13 +2942,16 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
         <v>209</v>
       </c>
       <c r="C17" s="237" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -2943,7 +2960,7 @@
         <v>223</v>
       </c>
       <c r="C18" s="237" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -2952,7 +2969,7 @@
         <v>224</v>
       </c>
       <c r="C19" s="237" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -2961,7 +2978,7 @@
         <v>213</v>
       </c>
       <c r="C20" s="237" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -2970,7 +2987,7 @@
         <v>216</v>
       </c>
       <c r="C21" s="237" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -2979,7 +2996,7 @@
         <v>215</v>
       </c>
       <c r="C22" s="238" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3397,7 +3414,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.2417465388711383E-2</v>
+        <v>7.2610784837159631E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3820,7 +3837,7 @@
         <v>230</v>
       </c>
       <c r="C87" s="231" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D87" s="264">
         <v>0.02</v>
@@ -3830,11 +3847,11 @@
       <c r="B89" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>192</v>
       </c>
@@ -3848,10 +3865,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>98</v>
       </c>
@@ -4073,8 +4090,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4087,8 +4107,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4131,60 +4151,60 @@
       <c r="B3" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>0011.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>93.9</v>
+        <v>93.65</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>恒生銀行</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>1882267536</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45606</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>176744.92163040003</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>176274.35474640003</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4207,11 +4227,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4352,7 +4372,7 @@
         <v>247</v>
       </c>
       <c r="C20" s="271">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>0.31135161135161138</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4364,20 +4384,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>245</v>
-      </c>
-      <c r="C21" s="273">
-        <f>Data!C53</f>
-        <v>9.7351229445586149E-2</v>
+        <v>252</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>0.74706060562344012</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>259</v>
       </c>
-      <c r="C22" s="275">
+      <c r="C22" s="274">
         <f>Data!C48</f>
         <v>4.0572962791484458E-2</v>
       </c>
@@ -4386,26 +4406,26 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>252</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>0.74706060562344012</v>
+      <c r="B23" s="275" t="s">
+        <v>265</v>
+      </c>
+      <c r="C23" s="282">
+        <f>1/Data!C53</f>
+        <v>10.272083934583936</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>175</v>
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.0623796884622552</v>
+        <v>1.0595512015387669</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>253</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>0.39159225009737869</v>
       </c>
@@ -4414,7 +4434,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.3765873880825072</v>
+        <v>9.3516230979118937</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4446,7 +4466,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.2417465388711383E-2</v>
+        <v>7.2610784837159631E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4465,10 +4485,10 @@
       <c r="F28" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>237</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4476,22 +4496,22 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>67.236682429588754</v>
+        <v>67.297306420973072</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>124.16504200670167</v>
+        <v>124.27699548454808</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>79.101979328927953</v>
-      </c>
-      <c r="G29" s="285">
+        <v>79.173301671733029</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>107.96960174495798</v>
-      </c>
-      <c r="H29" s="285"/>
+        <v>108.06695259525921</v>
+      </c>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5522,7 +5542,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7763,7 +7783,7 @@
       <c r="B47" s="101" t="s">
         <v>243</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>260</v>
       </c>
       <c r="D47" s="36"/>
@@ -9690,7 +9710,7 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>166320</v>
       </c>
@@ -9735,11 +9755,11 @@
       <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>-1542135.9318453576</v>
+        <v>-1542135.7989064723</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>10.269482119923769</v>
+        <v>10.269481320853728</v>
       </c>
       <c r="F6" s="86"/>
       <c r="G6" s="86"/>
@@ -10737,7 +10757,7 @@
       <c r="B48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
@@ -10754,7 +10774,7 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>1542086</v>
       </c>
@@ -10827,11 +10847,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0623796884622552</v>
+        <v>1.0595512015387669</v>
       </c>
       <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>49.93184535772599</v>
+        <v>49.798906472322045</v>
       </c>
       <c r="F53" s="86"/>
       <c r="G53" s="86"/>
@@ -10863,11 +10883,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10878,11 +10898,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -10894,11 +10914,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11112,19 +11132,19 @@
       <c r="B72" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>192</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11134,18 +11154,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11512,17 +11532,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10664860877540416</v>
+        <v>0.10693330874543994</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10664860877540416</v>
+        <v>0.10693330874543994</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10664860877540416</v>
+        <v>0.10693330874543994</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11563,17 +11583,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2417465388711383E-2</v>
+        <v>7.2610784837159631E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2417465388711383E-2</v>
+        <v>7.2610784837159631E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2417465388711383E-2</v>
+        <v>7.2610784837159631E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11604,15 +11624,15 @@
       <c r="D92" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>192</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11633,14 +11653,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>274.16862061183247</v>
+        <v>274.521469608149</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>274.16862061183247</v>
+        <v>274.521469608149</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11661,14 +11681,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>159.10233466871563</v>
+        <v>159.24578937554594</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>159.10233466871563</v>
+        <v>159.24578937554594</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11711,21 +11731,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>256572.37668908716</v>
+        <v>256902.57970573896</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>136.3102597170263</v>
+        <v>136.48568802906823</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>136.3102597170263</v>
+        <v>136.48568802906823</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>186.0555776259433</v>
+        <v>186.29502707014996</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11735,14 +11755,14 @@
       </c>
       <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
-        <v>-49.93184535772599</v>
+        <v>-49.798906472322045</v>
       </c>
       <c r="D98" s="208"/>
       <c r="E98" s="208"/>
       <c r="F98" s="208"/>
       <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-2.6527496438596598E-2</v>
+        <v>-2.6456869451273395E-2</v>
       </c>
       <c r="I98" s="210"/>
       <c r="K98" s="24"/>
@@ -11774,27 +11794,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>256522.44484372943</v>
+        <v>256852.78079926665</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>115.84117238749954</v>
+        <v>115.99034648567441</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>136.28373222058769</v>
+        <v>136.45923115961696</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>136.28373222058769</v>
+        <v>136.45923115961696</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>136.28373222058769</v>
+        <v>136.45923115961696</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>186.0290501295047</v>
+        <v>186.26857020069869</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11835,27 +11855,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>148891.08772418415</v>
+        <v>149025.33545463759</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>67.236682429588754</v>
+        <v>67.297306420973072</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>79.101979328927953</v>
+        <v>79.173301671733029</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>79.101979328927953</v>
+        <v>79.173301671733029</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>79.101979328927953</v>
+        <v>79.173301671733029</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>107.96960174495798</v>
+        <v>108.06695259525921</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11896,27 +11916,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>202706.76628395676</v>
+        <v>202939.05812695212</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>91.53892740854414</v>
+        <v>91.64382645332374</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>107.69285577475782</v>
+        <v>107.81626641567499</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>107.69285577475782</v>
+        <v>107.81626641567499</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>107.69285577475782</v>
+        <v>107.81626641567499</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>146.99932593723133</v>
+        <v>147.16776139797895</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0011.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0011.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1D4E476-08EA-44A7-AED8-B72CFB040B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B986882-0A56-428C-95E0-418E42E79DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3414,7 +3414,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.2610784837159631E-2</v>
+        <v>7.443897099069513E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4161,7 +4161,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>93.65</v>
+        <v>91.35</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>274</v>
@@ -4202,7 +4202,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>176274.35474640003</v>
+        <v>171945.13941359997</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4418,7 +4418,7 @@
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.0595512015387669</v>
+        <v>1.0335291218426732</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4434,7 +4434,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.3516230979118937</v>
+        <v>9.121951628342245</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.2610784837159631E-2</v>
+        <v>7.443897099069513E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4496,20 +4496,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>67.297306420973072</v>
+        <v>67.872781322729679</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>124.27699548454808</v>
+        <v>125.33971694504308</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>79.173301671733029</v>
+        <v>79.850330967917273</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>108.06695259525921</v>
+        <v>108.99105821308095</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9661,7 +9661,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9755,11 +9755,11 @@
       <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>-1542135.7989064723</v>
+        <v>-1542134.5758687267</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>10.269481320853728</v>
+        <v>10.269473969409358</v>
       </c>
       <c r="F6" s="86"/>
       <c r="G6" s="86"/>
@@ -10847,11 +10847,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0595512015387669</v>
+        <v>1.0335291218426732</v>
       </c>
       <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>49.798906472322045</v>
+        <v>48.575868726605641</v>
       </c>
       <c r="F53" s="86"/>
       <c r="G53" s="86"/>
@@ -11532,17 +11532,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10693330874543994</v>
+        <v>0.10962566353596553</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10693330874543994</v>
+        <v>0.10962566353596553</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10693330874543994</v>
+        <v>0.10962566353596553</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11583,17 +11583,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2610784837159631E-2</v>
+        <v>7.443897099069513E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2610784837159631E-2</v>
+        <v>7.443897099069513E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2610784837159631E-2</v>
+        <v>7.443897099069513E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11653,14 +11653,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>274.521469608149</v>
+        <v>277.87629397722941</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>274.521469608149</v>
+        <v>277.87629397722941</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11681,14 +11681,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>159.24578937554594</v>
+        <v>160.60753711657418</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>159.24578937554594</v>
+        <v>160.60753711657418</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11731,21 +11731,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>256902.57970573896</v>
+        <v>260042.09020051608</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>136.48568802906823</v>
+        <v>138.15362865638676</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>136.48568802906823</v>
+        <v>138.15362865638676</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>186.29502707014996</v>
+        <v>188.57166903023247</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11755,14 +11755,14 @@
       </c>
       <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
-        <v>-49.798906472322045</v>
+        <v>-48.575868726605641</v>
       </c>
       <c r="D98" s="208"/>
       <c r="E98" s="208"/>
       <c r="F98" s="208"/>
       <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-2.6456869451273395E-2</v>
+        <v>-2.5807101167899884E-2</v>
       </c>
       <c r="I98" s="210"/>
       <c r="K98" s="24"/>
@@ -11772,18 +11772,18 @@
         <v>140</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>0</v>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
+        <v>-1542086</v>
       </c>
       <c r="D99" s="209"/>
       <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>0</v>
+        <v>-942.16091287885865</v>
       </c>
       <c r="F99" s="209"/>
       <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>0</v>
+        <v>-819.27035902509454</v>
       </c>
       <c r="I99" s="211"/>
       <c r="K99" s="24"/>
@@ -11794,27 +11794,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>256852.78079926665</v>
+        <v>-1282092.4856682105</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>115.99034648567441</v>
+        <v>0</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>136.45923115961696</v>
+        <v>0</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>136.45923115961696</v>
+        <v>0</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>136.45923115961696</v>
+        <v>0</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>186.26857020069869</v>
+        <v>0</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11855,27 +11855,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>149025.33545463759</v>
+        <v>150299.68571976613</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>67.297306420973072</v>
+        <v>67.872781322729679</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>79.173301671733029</v>
+        <v>79.850330967917273</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>79.173301671733029</v>
+        <v>79.850330967917273</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>79.173301671733029</v>
+        <v>79.850330967917273</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>108.06695259525921</v>
+        <v>108.99105821308095</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11916,27 +11916,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>202939.05812695212</v>
+        <v>75149.842859883065</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>91.64382645332374</v>
+        <v>33.93639066136484</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>107.81626641567499</v>
+        <v>39.925165483958637</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>107.81626641567499</v>
+        <v>39.925165483958637</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>107.81626641567499</v>
+        <v>39.925165483958637</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>147.16776139797895</v>
+        <v>54.495529106540474</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0011.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0011.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7A4AEE8-E585-4CE7-A822-7DA9B6DC18D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{754AFE0B-722D-406D-B908-812F4587AFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.1578947368421048E-2</v>
+        <v>7.1466106148187061E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4374,7 +4374,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>95</v>
+        <v>95.15</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4415,7 +4415,7 @@
       </c>
       <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>178815.41592</v>
+        <v>179097.75605040003</v>
       </c>
       <c r="H5" s="313"/>
       <c r="I5" s="17"/>
@@ -4595,7 +4595,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4636,7 +4636,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.0748250309256042</v>
+        <v>1.0765221230796975</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4652,7 +4652,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.4864302648332064</v>
+        <v>9.5014088389355749</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4684,7 +4684,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.1578947368421048E-2</v>
+        <v>7.1466106148187061E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4714,20 +4714,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>77.135639402976864</v>
+        <v>66.938977241014015</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>125.77736372256692</v>
+        <v>123.61527399452012</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>90.747811062325724</v>
+        <v>78.751737930604733</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>109.37162062831906</v>
+        <v>107.49154260393055</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -9960,11 +9960,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="175">
         <f>(E49-I49-E53)</f>
-        <v>-1542136.5167764535</v>
+        <v>-1542136.5965397847</v>
       </c>
       <c r="E6" s="176">
         <f>1-D6/D3</f>
-        <v>10.269485635831947</v>
+        <v>10.26948611527397</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -11052,11 +11052,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0748250309256042</v>
+        <v>1.0765221230796975</v>
       </c>
       <c r="E53" s="182">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>50.516776453503397</v>
+        <v>50.596539784745787</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11764,17 +11764,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10541373014747843</v>
+        <v>0.10524754980567999</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10541373014747843</v>
+        <v>0.10524754980567999</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10541373014747843</v>
+        <v>0.10524754980567999</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11815,17 +11815,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1578947368421048E-2</v>
+        <v>7.1466106148187061E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1578947368421048E-2</v>
+        <v>7.1466106148187061E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1578947368421048E-2</v>
+        <v>7.1466106148187061E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11878,21 +11878,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>223.12261891985781</v>
+        <v>272.4374703821872</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>223.12261891985781</v>
+        <v>272.4374703821872</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11913,14 +11913,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>138.0160771494146</v>
+        <v>158.39787411483815</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>186</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>138.0160771494146</v>
+        <v>158.39787411483815</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11963,21 +11963,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>276141.34109650558</v>
+        <v>254952.33232429167</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>146.7067437625432</v>
+        <v>135.44957209754037</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>146.7067437625432</v>
+        <v>135.44957209754037</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>176.8147808148538</v>
+        <v>184.88078907714745</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -11987,14 +11987,14 @@
       </c>
       <c r="C98" s="249">
         <f>-E53*Exchange_Rate</f>
-        <v>-50.516776453503397</v>
+        <v>-50.596539784745787</v>
       </c>
       <c r="D98" s="250"/>
       <c r="E98" s="250"/>
       <c r="F98" s="250"/>
       <c r="H98" s="251">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-2.683825518281871E-2</v>
+        <v>-2.6880631375212641E-2</v>
       </c>
       <c r="I98" s="252"/>
       <c r="K98" s="75"/>
@@ -12082,23 +12082,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>77.135639402976864</v>
+        <v>66.938977241014015</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>90.747811062325724</v>
+        <v>78.751737930604733</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>90.747811062325724</v>
+        <v>78.751737930604733</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>90.747811062325724</v>
+        <v>78.751737930604733</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>109.37162062831906</v>
+        <v>107.49154260393055</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12137,23 +12137,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>38.567819701488432</v>
+        <v>33.469488620507008</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>45.373905531162862</v>
+        <v>39.375868965302367</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>45.373905531162862</v>
+        <v>39.375868965302367</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>45.373905531162862</v>
+        <v>39.375868965302367</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>54.685810314159532</v>
+        <v>53.745771301965277</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0011.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0011.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{754AFE0B-722D-406D-B908-812F4587AFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE04DA59-3ED7-476E-9363-30AFBD2F1B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2582,6 +2582,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2598,9 +2601,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2814,11 +2814,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3033,7 +3033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3058,6 +3058,7 @@
       <c r="C4" s="66" t="s">
         <v>279</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -4279,7 +4280,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4302,6 +4303,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4320,8 +4324,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4357,18 +4361,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>0011.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4384,7 +4391,7 @@
       <c r="B4" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>恒生銀行</v>
       </c>
@@ -4413,11 +4420,11 @@
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
         <v>179097.75605040003</v>
       </c>
-      <c r="H5" s="313"/>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4440,11 +4447,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4512,10 +4519,10 @@
         <v>221</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4562,7 +4569,7 @@
         <v>222</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4703,10 +4710,10 @@
       <c r="F28" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4714,22 +4721,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>66.938977241014015</v>
+        <v>73.451140185275548</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>123.61527399452012</v>
+        <v>139.06550013390716</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>78.751737930604733</v>
-      </c>
-      <c r="G29" s="312">
+        <v>86.413106100324171</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>107.49154260393055</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>120.92652185557147</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5711,15 +5718,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5747,7 +5755,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -11874,7 +11882,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11885,14 +11893,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>272.4374703821872</v>
+        <v>298.94156817954922</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>272.4374703821872</v>
+        <v>298.94156817954922</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11913,14 +11921,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>158.39787411483815</v>
+        <v>173.80762204908706</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>186</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>158.39787411483815</v>
+        <v>173.80762204908706</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11963,21 +11971,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>254952.33232429167</v>
+        <v>279755.38727891725</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>135.44957209754037</v>
+        <v>148.62679291245942</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>135.44957209754037</v>
+        <v>148.62679291245942</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>184.88078907714745</v>
+        <v>207.98837042827461</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12082,23 +12090,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>66.938977241014015</v>
+        <v>73.451140185275548</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>78.751737930604733</v>
+        <v>86.413106100324171</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>78.751737930604733</v>
+        <v>86.413106100324171</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>78.751737930604733</v>
+        <v>86.413106100324171</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>107.49154260393055</v>
+        <v>120.92652185557147</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12137,23 +12145,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>33.469488620507008</v>
+        <v>36.725570092637774</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>39.375868965302367</v>
+        <v>43.206553050162086</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>39.375868965302367</v>
+        <v>43.206553050162086</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>39.375868965302367</v>
+        <v>43.206553050162086</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>53.745771301965277</v>
+        <v>60.463260927785733</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0011.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0011.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE04DA59-3ED7-476E-9363-30AFBD2F1B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56855C25-7456-43BA-964A-E2729E297E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2582,31 +2582,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.1466106148187061E-2</v>
+        <v>7.1353620146904509E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4361,27 +4361,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>0011.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>95.15</v>
+        <v>95.3</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4391,40 +4391,40 @@
       <c r="B4" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>恒生銀行</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>1882267536</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45606</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
-        <v>179097.75605040003</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>179380.0961808</v>
+      </c>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4447,11 +4447,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4602,7 +4602,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4643,7 +4643,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.0765221230796975</v>
+        <v>1.0782192152337904</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4659,7 +4659,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.5014088389355749</v>
+        <v>9.5163874130379433</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4691,7 +4691,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.1466106148187061E-2</v>
+        <v>7.1353620146904509E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4710,10 +4710,10 @@
       <c r="F28" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4721,22 +4721,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>73.451140185275548</v>
+        <v>78.801695238375288</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>139.06550013390716</v>
+        <v>139.49801621182104</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>86.413106100324171</v>
-      </c>
-      <c r="G29" s="313">
+        <v>92.707876751029758</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>120.92652185557147</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>121.30262279288786</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5719,15 +5719,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -9968,11 +9968,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="175">
         <f>(E49-I49-E53)</f>
-        <v>-1542136.5965397847</v>
+        <v>-1542136.6763031159</v>
       </c>
       <c r="E6" s="176">
         <f>1-D6/D3</f>
-        <v>10.26948611527397</v>
+        <v>10.269486594715994</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -11060,11 +11060,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0765221230796975</v>
+        <v>1.0782192152337904</v>
       </c>
       <c r="E53" s="182">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>50.596539784745787</v>
+        <v>50.676303115988148</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11100,7 +11100,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11111,11 +11111,11 @@
         <v>83</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11127,11 +11127,11 @@
         <v>85</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11772,17 +11772,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10524754980567999</v>
+        <v>0.10508189259192499</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10524754980567999</v>
+        <v>0.10508189259192499</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10524754980567999</v>
+        <v>0.10508189259192499</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11823,17 +11823,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1466106148187061E-2</v>
+        <v>7.1353620146904509E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1466106148187061E-2</v>
+        <v>7.1353620146904509E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1466106148187061E-2</v>
+        <v>7.1353620146904509E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11886,21 +11886,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>298.94156817954922</v>
+        <v>270.31264094633156</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>298.94156817954922</v>
+        <v>270.31264094633156</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11921,14 +11921,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>173.80762204908706</v>
+        <v>162.14665586178069</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>186</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>173.80762204908706</v>
+        <v>162.14665586178069</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11971,21 +11971,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>279755.38727891725</v>
+        <v>290908.4565156381</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>148.62679291245942</v>
+        <v>154.55212978588935</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>148.62679291245942</v>
+        <v>154.55212978588935</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>207.98837042827461</v>
+        <v>202.22206956160221</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -11995,14 +11995,14 @@
       </c>
       <c r="C98" s="249">
         <f>-E53*Exchange_Rate</f>
-        <v>-50.596539784745787</v>
+        <v>-50.676303115988148</v>
       </c>
       <c r="D98" s="250"/>
       <c r="E98" s="250"/>
       <c r="F98" s="250"/>
       <c r="H98" s="251">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-2.6880631375212641E-2</v>
+        <v>-2.6923007567606558E-2</v>
       </c>
       <c r="I98" s="252"/>
       <c r="K98" s="75"/>
@@ -12090,23 +12090,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>73.451140185275548</v>
+        <v>78.801695238375288</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>86.413106100324171</v>
+        <v>92.707876751029758</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>86.413106100324171</v>
+        <v>92.707876751029758</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>86.413106100324171</v>
+        <v>92.707876751029758</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>120.92652185557147</v>
+        <v>121.30262279288786</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12145,23 +12145,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>36.725570092637774</v>
+        <v>39.400847619187644</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>43.206553050162086</v>
+        <v>46.353938375514879</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>43.206553050162086</v>
+        <v>46.353938375514879</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>43.206553050162086</v>
+        <v>46.353938375514879</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>60.463260927785733</v>
+        <v>60.65131139644393</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0011.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0011.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6E58D2E-FE89-4E2F-80B3-A269942CD6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BB1B978-7164-48F8-9D87-3CA48AA20AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2595,6 +2595,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2611,9 +2614,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.1353620146904509E-2</v>
+        <v>7.1805702217529035E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4389,27 +4389,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>0011.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>95.3</v>
+        <v>94.7</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4419,7 +4419,7 @@
       <c r="B4" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>恒生銀行</v>
       </c>
@@ -4448,11 +4448,11 @@
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>179380.0961808</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>178250.7356592</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4475,11 +4475,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.0782192152337904</v>
+        <v>1.0714308466174183</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4687,7 +4687,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.5163874130379433</v>
+        <v>9.4564731166284695</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.1353620146904509E-2</v>
+        <v>7.1805702217529035E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4738,10 +4738,10 @@
       <c r="F28" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4749,22 +4749,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>79.159884762186095</v>
+        <v>79.293582625801946</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>140.26249902366783</v>
+        <v>140.49939674681664</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>93.129276190807175</v>
-      </c>
-      <c r="G29" s="313">
+        <v>93.286567795061117</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>121.96739045536333</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>122.17338847549274</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5747,15 +5747,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -10098,11 +10098,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="169">
         <f>(E49-I49-E53)</f>
-        <v>-1542136.6763031159</v>
+        <v>-1542136.357249791</v>
       </c>
       <c r="E6" s="170">
         <f>1-D6/D3</f>
-        <v>10.269486594715994</v>
+        <v>10.269484676947899</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -11190,11 +11190,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0782192152337904</v>
+        <v>1.0714308466174183</v>
       </c>
       <c r="E53" s="176">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>50.676303115988148</v>
+        <v>50.35724979101866</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11902,17 +11902,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10508189259192499</v>
+        <v>0.10574767015850529</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10508189259192499</v>
+        <v>0.10574767015850529</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10508189259192499</v>
+        <v>0.10574767015850529</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11953,17 +11953,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1353620146904509E-2</v>
+        <v>7.1805702217529035E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1353620146904509E-2</v>
+        <v>7.1805702217529035E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1353620146904509E-2</v>
+        <v>7.1805702217529035E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12023,14 +12023,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>271.54133476881486</v>
+        <v>272.19630730246934</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>271.54133476881486</v>
+        <v>272.19630730246934</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12051,14 +12051,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>162.88368611569788</v>
+        <v>163.15879011461055</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>162.88368611569788</v>
+        <v>163.15879011461055</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12101,21 +12101,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>292230.76768161828</v>
+        <v>292935.64425771375</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>155.25463946673429</v>
+        <v>155.62912213862555</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>155.25463946673429</v>
+        <v>155.62912213862555</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>203.33029533107253</v>
+        <v>203.82073911126199</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12125,14 +12125,14 @@
       </c>
       <c r="C98" s="243">
         <f>-E53*Exchange_Rate</f>
-        <v>-50.676303115988148</v>
+        <v>-50.35724979101866</v>
       </c>
       <c r="D98" s="244"/>
       <c r="E98" s="244"/>
       <c r="F98" s="244"/>
       <c r="H98" s="245">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-2.6923007567606558E-2</v>
+        <v>-2.6753502798030862E-2</v>
       </c>
       <c r="I98" s="246"/>
       <c r="K98" s="75"/>
@@ -12220,23 +12220,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>79.159884762186095</v>
+        <v>79.293582625801946</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>93.129276190807175</v>
+        <v>93.286567795061117</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>93.129276190807175</v>
+        <v>93.286567795061117</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>93.129276190807175</v>
+        <v>93.286567795061117</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>121.96739045536333</v>
+        <v>122.17338847549274</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12275,23 +12275,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>39.579942381093048</v>
+        <v>39.646791312900973</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>46.564638095403588</v>
+        <v>46.643283897530559</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>46.564638095403588</v>
+        <v>46.643283897530559</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>46.564638095403588</v>
+        <v>46.643283897530559</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>60.983695227681665</v>
+        <v>61.086694237746372</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0011.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0011.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BB1B978-7164-48F8-9D87-3CA48AA20AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF178589-5C43-4AE5-8E57-CC3E5A335241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2595,31 +2595,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.1805702217529035E-2</v>
+        <v>7.4114441416893731E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4389,27 +4389,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>0011.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>94.7</v>
+        <v>91.75</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4419,40 +4419,40 @@
       <c r="B4" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>恒生銀行</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>1882267536</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45606</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>178250.7356592</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>172698.046428</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4475,11 +4475,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.0714308466174183</v>
+        <v>1.0380547009202548</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4687,7 +4687,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.4564731166284695</v>
+        <v>9.1618944926152288</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.1805702217529035E-2</v>
+        <v>7.4114441416893731E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4738,10 +4738,10 @@
       <c r="F28" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4749,22 +4749,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>79.293582625801946</v>
+        <v>79.979007468022658</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>140.49939674681664</v>
+        <v>141.71389322507204</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>93.286567795061117</v>
-      </c>
-      <c r="G29" s="314">
+        <v>94.092949962379592</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>122.17338847549274</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>123.22947236962787</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5747,15 +5747,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -10098,11 +10098,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="169">
         <f>(E49-I49-E53)</f>
-        <v>-1542136.357249791</v>
+        <v>-1542134.7885709433</v>
       </c>
       <c r="E6" s="170">
         <f>1-D6/D3</f>
-        <v>10.269484676947899</v>
+        <v>10.269475247921422</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -11190,11 +11190,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0714308466174183</v>
+        <v>1.0380547009202548</v>
       </c>
       <c r="E53" s="176">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>50.35724979101866</v>
+        <v>48.788570943251976</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11230,7 +11230,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11241,11 +11241,11 @@
         <v>83</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11257,11 +11257,11 @@
         <v>85</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11902,17 +11902,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10574767015850529</v>
+        <v>0.10914773148785233</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10574767015850529</v>
+        <v>0.10914773148785233</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10574767015850529</v>
+        <v>0.10914773148785233</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11953,17 +11953,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1805702217529035E-2</v>
+        <v>7.4114441416893731E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1805702217529035E-2</v>
+        <v>7.4114441416893731E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1805702217529035E-2</v>
+        <v>7.4114441416893731E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12023,14 +12023,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>272.19630730246934</v>
+        <v>275.55968422740983</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>272.19630730246934</v>
+        <v>275.55968422740983</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12051,14 +12051,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>163.15879011461055</v>
+        <v>164.56915756513911</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>163.15879011461055</v>
+        <v>164.56915756513911</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12101,21 +12101,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>292935.64425771375</v>
+        <v>296555.28552380245</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>155.62912213862555</v>
+        <v>157.55214381161298</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>155.62912213862555</v>
+        <v>157.55214381161298</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>203.82073911126199</v>
+        <v>206.33923753449506</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12125,14 +12125,14 @@
       </c>
       <c r="C98" s="243">
         <f>-E53*Exchange_Rate</f>
-        <v>-50.35724979101866</v>
+        <v>-48.788570943251976</v>
       </c>
       <c r="D98" s="244"/>
       <c r="E98" s="244"/>
       <c r="F98" s="244"/>
       <c r="H98" s="245">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-2.6753502798030862E-2</v>
+        <v>-2.5920104347617018E-2</v>
       </c>
       <c r="I98" s="246"/>
       <c r="K98" s="75"/>
@@ -12220,23 +12220,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>79.293582625801946</v>
+        <v>79.979007468022658</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>93.286567795061117</v>
+        <v>94.092949962379592</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>93.286567795061117</v>
+        <v>94.092949962379592</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>93.286567795061117</v>
+        <v>94.092949962379592</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>122.17338847549274</v>
+        <v>123.22947236962787</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12275,23 +12275,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>39.646791312900973</v>
+        <v>39.989503734011329</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>46.643283897530559</v>
+        <v>47.046474981189796</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>46.643283897530559</v>
+        <v>47.046474981189796</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>46.643283897530559</v>
+        <v>47.046474981189796</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>61.086694237746372</v>
+        <v>61.614736184813935</v>
       </c>
       <c r="K106" s="75"/>
     </row>
